--- a/InterfaceAuto/data/Intelligent_mediation_result.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
   <si>
     <t>Run</t>
   </si>
@@ -142,10 +142,10 @@
     <t>{'code': 200, 'data': {'complexCase': [{'audio': None, 'audioList': [], 'caseId': '3b5185a77f06bb9e186e91bbf5028a83', 'checkAddress': '广东省广州市海珠区泉塘路6号', 'checkCondition': '未发现异常', 'checkContent': '王记餐馆因为售卖不新鲜菜品导致多人食物中毒，拉肚子，现在有六个人在餐馆和老板争论维权要求赔偿，联系人号码15050561903。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 20:03:04', 'committeeId': '4401030010001', 'infoSource': 3, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.08, 'lng': 113.28, 'mobile': None, 'picture': 'jpg/2018-11-27/6f13bf7dd6594fbfbcb5c339d23db7ea0.jpg', 'pictureList': [], 'timeLine': '28天前', 'vedio': None, 'vedioList': [], 'warningGrade': 4, 'warningGradeDesc': None}, {'audio': None, 'audioList': [], 'caseId': '0e60ad88755dc44bbecbd86dcd324ecd', 'checkAddress': '广东省佛山市南海区海八东路1号', 'checkCondition': '未发现异常', 'checkContent': '锦江花园小区里有一栋居民楼出现高空抛物砸伤人事件，整栋楼的居民都不承认是自己扔的并发生争吵，联系人电话18053236225。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 20:00:35', 'committeeId': '4401030010001', 'infoSource': 2, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.07, 'lng': 113.18, 'mobile': None, 'picture': 'jpg/2018-11-27/7dcb137754344a5e815ce71680e54c6c3.jpg', 'pictureList': [], 'timeLine': '28天前', 'vedio': None, 'vedioList': [], 'warningGrade': 4, 'warningGradeDesc': None}], 'importantCase': [{'audio': None, 'audioList': [], 'caseId': 'a303ddf65dbc69594aafe2f0327b9a1f', 'checkAddress': '广东省广州市越秀区中山二路106号', 'checkCondition': '未发现异常', 'checkContent': '越秀区人民医院发生一起医患纠纷，一名医生给患者诊断错误开错药，现在患者家属正在医院索要赔偿，联系人电18360863739。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 19:57:52', 'committeeId': '4401030010001', 'infoSource': 4, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.13, 'lng': 113.29, 'mobile': None, 'picture': 'jpg/2018-11-27/968ae13931cb4dd69891481e3ecf4a490.jpg', 'pictureList': [], 'timeLine': '28天前', 'vedio': None, 'vedioList': [], 'warningGrade': 3, 'warningGradeDesc': None}, {'audio': None, 'audioList': [], 'caseId': '17f68d4de22fbb13a8cc2efd0a0a95ac', 'checkAddress': '广东省广州市从化区', 'checkCondition': '未发现异常', 'checkContent': '用人单位拖欠十二名，农民工工资农民工集体上门索要工资，联系电话18013818854。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 19:42:21', 'committeeId': '4401030010001', 'infoSource': 1, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.71, 'lng': 113.7, 'mobile': None, 'picture': 'jpg/2018-11-27/57b7f484199d4db4bd72dfe9fc27d7347.jpg', 'pictureList': [], 'timeLine': '28天前', 'vedio': None, 'vedioList': [], 'warningGrade': 3, 'warningGradeDesc': None}], 'caseID': None, 'total': 4}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:40 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.268238</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:13 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.29276</t>
   </si>
   <si>
     <t>200</t>
@@ -172,7 +172,7 @@
     <t>{'code': 200, 'data': {'audio': None, 'audioList': [], 'caseId': '3b5185a77f06bb9e186e91bbf5028a83', 'checkAddress': '广东省广州市海珠区泉塘路6号', 'checkCondition': '未发现异常', 'checkContent': '王记餐馆因为售卖不新鲜菜品导致多人食物中毒，拉肚子，现在有六个人在餐馆和老板争论维权要求赔偿，联系人号码15050561903。', 'checkPerson': '105002J1960043', 'checkPersonName': '汤杏养', 'checkStatus': 0, 'checkTime': '2018-11-27 20:03:04', 'committeeId': '4401030010001', 'infoSource': 3, 'infoSourceDesc': '信访', 'isCallPolice': 0, 'lat': 23.08, 'lng': 113.28, 'mobile': None, 'picture': 'jpg/2018-11-27/6f13bf7dd6594fbfbcb5c339d23db7ea0.jpg', 'pictureList': ['jpg/2018-11-27/6f13bf7dd6594fbfbcb5c339d23db7ea0.jpg'], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 4, 'warningGradeDesc': '疑难纠纷'}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.135469</t>
+    <t>0.137907</t>
   </si>
   <si>
     <t>queryForPage</t>
@@ -193,13 +193,10 @@
     <t>【纠纷排查接口】查询纠纷排查信息(分页)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f5a3606535336ea3d0a4e49f4025b650', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '5a09c0404d1890c93f40d7af62dd0551', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:25:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '3e9daba7b7705ca44c7cd7a3923c0ce8', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 09:13:16', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': '', 'audioList': [], 'caseId': 'd4a22be3824f207f322c329dfd7dbf37', 'checkAddress': '广东省广州市天河区广园东路2191-2197号', 'checkCondition': None, 'checkContent': '张三和李四', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-24 17:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.16, 'lng': 113.32, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'e6f70f6b928d4ad936520ce905669785', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 13:54:40', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '61a60be2e015f3405835b981cb1688ec', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 13:54:20', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '02d8f85f4cd5700f8a44b2caf36595fa', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 12:21:33', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'fa3bc946d8504d54df745c5f7a04a125', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 12:21:02', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '00ca08e9ba045d60c9c7a1aee8acaf9d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 11:01:51', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'ca233ec46b7610f3f66da5b2c6562c1e', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 10:56:59', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 246}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:41 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.186117</t>
+    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4ff30ef4b7469d1c7152f50a39f5830f', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:43:35', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '92b40ad2fa7b6ebe95cd3741782510a3', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:40:31', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '93b33aa6235dab8c3377fa5ec9886e73', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:45:51', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f5a3606535336ea3d0a4e49f4025b650', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '5a09c0404d1890c93f40d7af62dd0551', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:25:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '3e9daba7b7705ca44c7cd7a3923c0ce8', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 09:13:16', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': '', 'audioList': [], 'caseId': 'd4a22be3824f207f322c329dfd7dbf37', 'checkAddress': '广东省广州市天河区广园东路2191-2197号', 'checkCondition': None, 'checkContent': '张三和李四', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-24 17:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.16, 'lng': 113.32, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'e6f70f6b928d4ad936520ce905669785', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 13:54:40', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '61a60be2e015f3405835b981cb1688ec', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 13:54:20', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '02d8f85f4cd5700f8a44b2caf36595fa', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 12:21:33', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 249}}</t>
+  </si>
+  <si>
+    <t>0.134685</t>
   </si>
   <si>
     <t>必选无情况下不传参</t>
@@ -208,7 +205,10 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', '!=', []), ('data', 'list,key', ['audio', 'audioList', 'caseId', 'checkAddress', 'checkCondition', 'checkContent', 'checkPerson', 'checkPersonName', 'checkStatus', 'checkTime', 'committeeId', 'infoSource', 'infoSourceDesc', 'isCallPolice', 'lat', 'lng', 'mobile', 'picture', 'pictureList', 'timeLine', 'vedio', 'warningGradeDesc', 'vedioList', 'warningGrade'])]</t>
   </si>
   <si>
-    <t>0.134067</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:14 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.157196</t>
   </si>
   <si>
     <t>save</t>
@@ -235,7 +235,7 @@
     <t>{'code': 200, 'data': [], 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.182278</t>
+    <t>0.195157</t>
   </si>
   <si>
     <t>update</t>
@@ -250,10 +250,7 @@
     <t>【纠纷排查接口】更新纠纷排查信息</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:42 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.148625</t>
+    <t>0.158498</t>
   </si>
   <si>
     <t>upload_attachment</t>
@@ -271,10 +268,13 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\代用名身份证.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': ['jpg/2018-12-26/f00db089b8404e339b90a00db2b58c8f9.jpg'], 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.617021</t>
+    <t>{'code': 200, 'data': ['jpg/2018-12-26/a9ed332189cf48808d6f39cdbbe3e7bf6.jpg'], 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:15 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.59631</t>
   </si>
   <si>
     <t>query</t>
@@ -292,10 +292,7 @@
     <t>{'code': 200, 'data': {'address': '广州市荔湾区沙面大街18号地下', 'area': '街道', 'chargePerson': '尉仙雅', 'collectTime': None, 'committeeId': '4401030010001', 'committeeName': '沙面街翠洲社区居民委员会人民调解委员会', 'committeePic': None, 'committeeType': '居委会设调委会', 'createTime': 978278400000, 'email': None, 'faxNumber': '510000', 'fullMediatorCount': None, 'hzCommitteeType': None, 'partMediatorCount': None, 'phone': '020-81215219', 'postCode': None, 'remark': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:43 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.159505</t>
+    <t>0.154846</t>
   </si>
   <si>
     <t>{'info': {'address': 'string', 'area': 'string', 'chargePerson': 'string', 'collectTime': '2018-12-10T02:30:23.731Z', 'committeeId': 'string', 'committeeName': 'string', 'committeePic': 'string', 'committeeType': 'string', 'createTime': '2018-12-10T02:30:23.731Z', 'email': 'string', 'faxNumber': 'string', 'fullMediatorCount': 0, 'hzCommitteeType': 'string', 'partMediatorCount': 0, 'phone': 'string', 'postCode': 'string', 'remark': 'string'}}</t>
@@ -310,7 +307,7 @@
     <t>{'code': 200, 'data': None, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.152408</t>
+    <t>0.153452</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/committee/update</t>
@@ -319,7 +316,10 @@
     <t>【调解委员会接口】调解委员会信息更新</t>
   </si>
   <si>
-    <t>0.156856</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:16 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.165198</t>
   </si>
   <si>
     <t>interface_except</t>
@@ -365,13 +365,13 @@
     <t>【通用接口】身份证上传</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/e04279c29b3f4ec29298b6f3acaa80f96.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:46 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.188303</t>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/eaa883e7dc3b485cb3a494998fdc0da93.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:19 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.824155</t>
   </si>
   <si>
     <t>nationDictionary</t>
@@ -389,7 +389,7 @@
     <t>{'code': 200, 'data': [{'1': '汉族'}, {'2': '蒙古族'}, {'3': '回族'}, {'4': '藏族'}, {'5': '维吾尔族'}, {'6': '苗族'}, {'7': '彝族'}, {'8': '壮族'}, {'9': '布依族'}, {'10': '朝鲜族'}, {'11': '满族'}, {'12': '侗族'}, {'13': '瑶族'}, {'14': '白族'}, {'15': '土家族'}, {'16': '哈尼族'}, {'17': '哈萨克族'}, {'18': '傣族'}, {'19': '黎族'}, {'20': '傈僳族'}, {'21': '佤族'}, {'22': '畲族'}, {'23': '高山族'}, {'24': '拉祜族'}, {'25': '水族'}, {'26': '东乡族'}, {'27': '纳西族'}, {'28': '景颇族'}, {'29': '柯尔克孜族'}, {'30': '土族'}, {'31': '达斡尔族'}, {'32': '仫佬族'}, {'33': '羌族'}, {'34': '布朗族'}, {'35': '撒拉族'}, {'36': '毛南族'}, {'37': '仡佬族'}, {'38': '锡伯族'}, {'39': '阿昌族'}, {'40': '普米族'}, {'41': '塔吉克族'}, {'42': '怒族'}, {'43': '乌孜别克族'}, {'44': '俄罗斯族'}, {'45': '鄂温克族'}, {'46': '德昂族'}, {'47': '保安族'}, {'48': '裕固族'}, {'49': '京族'}, {'50': '塔塔尔族'}, {'51': '独龙族'}, {'52': '鄂伦春族'}, {'53': '赫哲族'}, {'54': '门巴族'}, {'55': '珞巴族'}, {'56': '基诺族'}, {'57': '其他'}, {'58': '外国血统'}], 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.170646</t>
+    <t>0.218592</t>
   </si>
   <si>
     <t>newIdentify</t>
@@ -413,10 +413,10 @@
     <t>【通用接口】发送短信</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:47 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.414474</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:20 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.489689</t>
   </si>
   <si>
     <t>changeInputState</t>
@@ -437,7 +437,7 @@
     <t>{'code': 200, 'data': '修改成功', 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.175522</t>
+    <t>0.197639</t>
   </si>
   <si>
     <t>changeState</t>
@@ -452,7 +452,7 @@
     <t>【调解案件接口】案件状态更改接口</t>
   </si>
   <si>
-    <t>0.144803</t>
+    <t>0.165742</t>
   </si>
   <si>
     <t>getCaseDetail</t>
@@ -467,13 +467,13 @@
     <t>【调解案件接口】案件详情</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'acceptDate': 1543730751000, 'applicantIds': 'cd91b99450b142d0b51dd7c5a706a423', 'audio': None, 'caseId': '0440105018000620180057', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-02 14:05:51', 'difficultyLevel': None, 'disputeContent': '2018年11月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后,将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费;张兵认为王刚在未经自己允许的情况下擅自打伤其受狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1543075200000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:48', 'mediateAddress': None, 'mediateDate': 1543104000000, 'mediationId': None, 'mediationResult': '01', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '一、张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费并对受到惊吓的张美进行安抚和道歉;二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用。', 'protocolDate': None, 'remark': None, 'respondentIds': '7ac1ac1d1a6847d1892ff0631a70034a', 'state': 2, 'type': 2, 'video': None}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:48 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.143643</t>
+    <t>{'code': 200, 'data': {'acceptDate': 1543730751000, 'applicantIds': 'cd91b99450b142d0b51dd7c5a706a423', 'audio': None, 'caseId': '0440105018000620180057', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-02 14:05:51', 'difficultyLevel': None, 'disputeContent': '2018年11月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后,将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费;张兵认为王刚在未经自己允许的情况下擅自打伤其受狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1543075200000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:21', 'mediateAddress': None, 'mediateDate': 1543104000000, 'mediationId': None, 'mediationResult': '01', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '一、张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费并对受到惊吓的张美进行安抚和道歉;二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用。', 'protocolDate': None, 'remark': None, 'respondentIds': '7ac1ac1d1a6847d1892ff0631a70034a', 'state': 2, 'type': 2, 'video': None}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:21 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.147332</t>
   </si>
   <si>
     <t>getCaseHandleCount</t>
@@ -485,10 +485,10 @@
     <t>【调解案件接口】案件处理情况</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'mediatorCount': 152, 'supplyCount': 152, 'checkCount': 85}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.149418</t>
+    <t>{'code': 200, 'data': {'mediatorCount': 155, 'supplyCount': 155, 'checkCount': 88}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.171399</t>
   </si>
   <si>
     <t>getCaseInfoList</t>
@@ -503,10 +503,10 @@
     <t>【调解案件接口】调解案件列表</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180765', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:46', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:46', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809924000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180764', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:44', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:44', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180758', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:26:22', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:26:22', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809180000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180757', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:26:20', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:26:20', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180752', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 12:36:03', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 12:36:03', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545798961000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180751', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 12:36:01', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 12:36:01', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180749', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 09:14:11', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:14:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545786849000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180748', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 09:14:09', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:14:09', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180737', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-21 13:55:32', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-21 13:55:32', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545371731000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180736', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-21 13:55:31', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-21 13:55:31', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 2, 'total': 236}}</t>
-  </si>
-  <si>
-    <t>0.225769</t>
+    <t>{'code': 200, 'data': [{'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180786', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:44:31', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:44:31', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817469000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180785', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:44:29', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:44:29', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180779', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:41:46', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:41:46', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817304000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180778', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:41:44', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:41:44', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180772', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:45', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:45', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545810403000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180771', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:43', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:43', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180765', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:46', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:46', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809924000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180764', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:44', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:44', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180758', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:26:22', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:26:22', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809180000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180757', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:26:20', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:26:20', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 2, 'total': 242}}</t>
+  </si>
+  <si>
+    <t>0.148986</t>
   </si>
   <si>
     <t>getRoomId</t>
@@ -521,13 +521,13 @@
     <t>【调解案件接口】获取房间号</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180057', 'roomId': '5656'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:49 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.155215</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180057', 'roomId': '6180'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:22 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.167124</t>
   </si>
   <si>
     <t>CaseNum</t>
@@ -560,16 +560,16 @@
     <t>{'code': 203, 'data': None, 'msg': '无数据', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:50 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>1.187979</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:24 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.257027</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t xml:space="preserve">case_data：{'CaseNum': 'case1', 'Module': 'informer', 'Interface': 'audio', '用例描述': '', 'QuotoSituation': None, 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'dispute_flow', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:50 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 1.187979, 'status_code': 200}
+    <t xml:space="preserve">case_data：{'CaseNum': 'case1', 'Module': 'informer', 'Interface': 'audio', '用例描述': '', 'QuotoSituation': None, 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'dispute_flow', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:24 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 2.257027, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 203
 </t>
   </si>
@@ -583,7 +583,7 @@
     <t>{'form': {'checkContent': '语音消息', 'infoSource': 1, 'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'picture': '', 'mobile': '', 'checkAddress': '广东省清远市佛冈县'}}</t>
   </si>
   <si>
-    <t>0.192182</t>
+    <t>0.174851</t>
   </si>
   <si>
     <t>case3</t>
@@ -592,28 +592,28 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'list0,C=', {'checkContent': '语音消息', 'infoSource': 1, 'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'picture': '', 'mobile': '', 'checkAddress': '广东省清远市佛冈县'})]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '93b33aa6235dab8c3377fa5ec9886e73', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:45:51', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f5a3606535336ea3d0a4e49f4025b650', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '5a09c0404d1890c93f40d7af62dd0551', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:25:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '3e9daba7b7705ca44c7cd7a3923c0ce8', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 09:13:16', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': '', 'audioList': [], 'caseId': 'd4a22be3824f207f322c329dfd7dbf37', 'checkAddress': '广东省广州市天河区广园东路2191-2197号', 'checkCondition': None, 'checkContent': '张三和李四', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-24 17:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.16, 'lng': 113.32, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'e6f70f6b928d4ad936520ce905669785', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 13:54:40', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '61a60be2e015f3405835b981cb1688ec', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 13:54:20', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '02d8f85f4cd5700f8a44b2caf36595fa', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 12:21:33', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'fa3bc946d8504d54df745c5f7a04a125', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 12:21:02', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '00ca08e9ba045d60c9c7a1aee8acaf9d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 11:01:51', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 247}}</t>
-  </si>
-  <si>
-    <t>0.141925</t>
+    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '909e666cd00c0df07e5f8c39647a6a6d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:48:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4ff30ef4b7469d1c7152f50a39f5830f', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:43:35', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '92b40ad2fa7b6ebe95cd3741782510a3', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:40:31', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '93b33aa6235dab8c3377fa5ec9886e73', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:45:51', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f5a3606535336ea3d0a4e49f4025b650', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '5a09c0404d1890c93f40d7af62dd0551', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:25:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '3e9daba7b7705ca44c7cd7a3923c0ce8', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 09:13:16', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': '', 'audioList': [], 'caseId': 'd4a22be3824f207f322c329dfd7dbf37', 'checkAddress': '广东省广州市天河区广园东路2191-2197号', 'checkCondition': None, 'checkContent': '张三和李四', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-24 17:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.16, 'lng': 113.32, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'e6f70f6b928d4ad936520ce905669785', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 13:54:40', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '61a60be2e015f3405835b981cb1688ec', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-21 13:54:20', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 250}}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:25 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.149358</t>
   </si>
   <si>
     <t>case4</t>
   </si>
   <si>
-    <t>{'caseCheckID': '93b33aa6235dab8c3377fa5ec9886e73'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200), ('data.caseId', '=', '93b33aa6235dab8c3377fa5ec9886e73')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '93b33aa6235dab8c3377fa5ec9886e73', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:45:51', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:51 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.157261</t>
+    <t>{'caseCheckID': '909e666cd00c0df07e5f8c39647a6a6d'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200), ('data.caseId', '=', '909e666cd00c0df07e5f8c39647a6a6d')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '909e666cd00c0df07e5f8c39647a6a6d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:48:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.156792</t>
   </si>
   <si>
     <t>case5</t>
@@ -634,10 +634,10 @@
     <t>【书面调解快速调解接口】快速调解保存案件信息</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180767'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.167112</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180788'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.155324</t>
   </si>
   <si>
     <t>case6</t>
@@ -649,13 +649,13 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.address', '=', '福建省龙岩市东城东宝路336号'), ('data.age', '=', 30), ('data.id', '=', '350802198808285516'), ('data.name', '=', '代用名'), ('data.nation', '=', '汉'), ('data.sex', '=', '男')]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/a02a1af2ff794bef9ed1f6e38a11d4079.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:53 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.07864</t>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/fd24636a113340b68827e3bd35d456493.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:28 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.386795</t>
   </si>
   <si>
     <t>case7</t>
@@ -664,10 +664,10 @@
     <t>quick/saveNatural</t>
   </si>
   <si>
-    <t>{'case6_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/a02a1af2ff794bef9ed1f6e38a11d4079.jpg'], 'sex': '男', 'sexData': 1}}</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180767', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-26/a02a1af2ff794bef9ed1f6e38a11d4079.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
+    <t>{'case6_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/fd24636a113340b68827e3bd35d456493.jpg'], 'sex': '男', 'sexData': 1}}</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180788', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-26/fd24636a113340b68827e3bd35d456493.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
   </si>
   <si>
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'applicantIds')]</t>
@@ -679,43 +679,40 @@
     <t>【书面调解快速调解接口】快速调解保存当事人信息(自然人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': '9253243284d941d58f5a2bac12eb5fc3'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:54 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.158601</t>
+    <t>{'code': 200, 'data': {'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.224497</t>
   </si>
   <si>
     <t>case8</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/be021da074c64f098db9de761298a6ff5.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:56 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.065473</t>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/3f7ad4e16e3e44f0a8802991c5c2ebfa9.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:31 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.251248</t>
   </si>
   <si>
     <t>case9</t>
   </si>
   <si>
-    <t>{'case8_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/be021da074c64f098db9de761298a6ff5.jpg'], 'sex': '男', 'sexData': 1}}</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180767', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-26/be021da074c64f098db9de761298a6ff5.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
+    <t>{'case8_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/3f7ad4e16e3e44f0a8802991c5c2ebfa9.jpg'], 'sex': '男', 'sexData': 1}}</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180788', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-26/3f7ad4e16e3e44f0a8802991c5c2ebfa9.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
   </si>
   <si>
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'respondentIds')]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'respondentIds': '260d23fbb913486bb3fb932a0986ae27'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.156885</t>
+    <t>{'code': 200, 'data': {'respondentIds': '4138da95d9144bdda27ed2c10e1ca062'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.178059</t>
   </si>
   <si>
     <t>case10</t>
@@ -724,10 +721,10 @@
     <t>quick/saveResult</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180767', 'mediationResult': '01'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180767'), ('data', 'key', 'caseId')]</t>
+    <t>{'caseId': '0440103001000120180788', 'mediationResult': '01'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180788'), ('data', 'key', 'caseId')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/quick/saveResult</t>
@@ -742,7 +739,7 @@
 </t>
   </si>
   <si>
-    <t>0.148875</t>
+    <t>0.172576</t>
   </si>
   <si>
     <t>case11</t>
@@ -751,22 +748,22 @@
     <t>disputeCaseInfo</t>
   </si>
   <si>
-    <t>{'data': {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case5_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '17', 'mediationAddress': '广东省清远市佛冈县', 'mediationDate': '2018-12-13'}}</t>
+    <t>{'data': {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case5_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '17', 'mediationAddress': '广东省清远市佛冈县', 'mediationDate': '2018-12-13'}}</t>
   </si>
   <si>
     <t>{'page': 0, 'size': 10, 'state': 2}</t>
   </si>
   <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180767'), ('%data%applicantIds', '=', '9253243284d941d58f5a2bac12eb5fc3'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '道路交通事故纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', '260d23fbb913486bb3fb932a0986ae27'), ('%data%type', '=', 1)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809869000, 'applicantIds': '83039e1f7eb547ec89883e77a981a2f2', 'audio': None, 'caseId': '0440103001000120180760', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:49', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:37:54', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '5834e105c0e744d1a58b8c2cd2ab7f5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809126000, 'applicantIds': 'ff9c50c738274c5ca06b9070fabbdc07', 'audio': None, 'caseId': '0440103001000120180753', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f1b203b32354040b0eb826da2bb34d1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545786797000, 'applicantIds': 'e3f04e63a0bf454ba66ce2c07d513714', 'audio': None, 'caseId': '0440103001000120180744', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 09:13:17', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:13:22', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'f52e4b6322c94644a4cc6e7ef821aa0c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545725349000, 'applicantIds': 'ecf3a9b56c8449ca875c07a5d9a5958c', 'audio': None, 'caseId': '0440103001000120180742', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-25 16:09:09', 'difficultyLevel': None, 'disputeContent': '张三和你是在打架。', 'disputeDate': None, 'disputeType': '邻里纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-25 16:09:33', 'mediateAddress': '广东省广州市海珠区滨江东路', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': 'f7a0e3ae8c26441cb53812fdbe9dd711', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545644696000, 'applicantIds': '0582f1241d9c48f7b5eba7677027e56b', 'audio': None, 'caseId': '0440103001000120180741', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-24 17:44:56', 'difficultyLevel': None, 'disputeContent': '三张', 'disputeDate': None, 'disputeType': '房产宅基地纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-24 17:45:36', 'mediateAddress': '广东省广州市天河区广州大道北', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': '7ac29b00699d4d10a789397723fb337b,16b5c914c6b34f79a72d0de57f183acb', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545371681000, 'applicantIds': '2cfb350bbda641988f8eb2031e5b80bf', 'audio': None, 'caseId': '0440103001000120180732', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-21 13:54:41', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-21 13:54:46', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b56b9637d5554e46883e3904b139986c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545366093000, 'applicantIds': '72337114ed1641198924ed122c562f6b', 'audio': None, 'caseId': '0440103001000120180727', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-21 12:21:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-21 12:21:38', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d366efbc5934a9490bf8336826318ce', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545295826000, 'applicantIds': '3e6903c1ec4b478a909e7d81844426b4', 'audio': None, 'caseId': '0440103001000120180713', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-20 16:50:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-20 16:50:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'd704c97055f6420cb2f1e7460bbf7d1f', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545280183000, 'applicantIds': 'c6ee8e2911fe495a9d29425616d7f078', 'audio': None, 'caseId': '0440103001000120180706', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-20 12:29:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-20 12:29:48', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '93c287fa28fb4ba28467245d7f6e2bb1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 153}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:57 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.168763</t>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180788'), ('%data%applicantIds', '=', '2dc9d5f003f34e749808673a6aff3ae0'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '道路交通事故纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', '4138da95d9144bdda27ed2c10e1ca062'), ('%data%type', '=', 1)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817416000, 'applicantIds': '9dd9b95785774b739a752d29ff818c55', 'audio': None, 'caseId': '0440103001000120180781', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:36', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:42', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '89389ddb9ff84426bb5626e11038de5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817232000, 'applicantIds': '7e0de84fb14244a0a4738a9877c6e300', 'audio': None, 'caseId': '0440103001000120180774', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b628fadb131b4975bc1f5a11078ecca4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809869000, 'applicantIds': '83039e1f7eb547ec89883e77a981a2f2', 'audio': None, 'caseId': '0440103001000120180760', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:49', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:37:54', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '5834e105c0e744d1a58b8c2cd2ab7f5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809126000, 'applicantIds': 'ff9c50c738274c5ca06b9070fabbdc07', 'audio': None, 'caseId': '0440103001000120180753', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f1b203b32354040b0eb826da2bb34d1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545786797000, 'applicantIds': 'e3f04e63a0bf454ba66ce2c07d513714', 'audio': None, 'caseId': '0440103001000120180744', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 09:13:17', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:13:22', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'f52e4b6322c94644a4cc6e7ef821aa0c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545725349000, 'applicantIds': 'ecf3a9b56c8449ca875c07a5d9a5958c', 'audio': None, 'caseId': '0440103001000120180742', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-25 16:09:09', 'difficultyLevel': None, 'disputeContent': '张三和你是在打架。', 'disputeDate': None, 'disputeType': '邻里纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-25 16:09:33', 'mediateAddress': '广东省广州市海珠区滨江东路', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': 'f7a0e3ae8c26441cb53812fdbe9dd711', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545644696000, 'applicantIds': '0582f1241d9c48f7b5eba7677027e56b', 'audio': None, 'caseId': '0440103001000120180741', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-24 17:44:56', 'difficultyLevel': None, 'disputeContent': '三张', 'disputeDate': None, 'disputeType': '房产宅基地纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-24 17:45:36', 'mediateAddress': '广东省广州市天河区广州大道北', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': '7ac29b00699d4d10a789397723fb337b,16b5c914c6b34f79a72d0de57f183acb', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545371681000, 'applicantIds': '2cfb350bbda641988f8eb2031e5b80bf', 'audio': None, 'caseId': '0440103001000120180732', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-21 13:54:41', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-21 13:54:46', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b56b9637d5554e46883e3904b139986c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 156}}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:32 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.134519</t>
   </si>
   <si>
     <t>case12</t>
@@ -775,10 +772,10 @@
     <t>getFullCaseInfo</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180767'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180767'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180767', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-26/a02a1af2ff794bef9ed1f6e38a11d4079.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180767', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-26/be021da074c64f098db9de761298a6ff5.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
+    <t>{'caseId': '0440103001000120180788'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180788'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180788', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-26/fd24636a113340b68827e3bd35d456493.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180788', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-26/3f7ad4e16e3e44f0a8802991c5c2ebfa9.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/getFullCaseInfo</t>
@@ -793,118 +790,115 @@
 </t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-26/a02a1af2ff794bef9ed1f6e38a11d4079.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '9253243284d941d58f5a2bac12eb5fc3', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-26/be021da074c64f098db9de761298a6ff5.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '260d23fbb913486bb3fb932a0986ae27', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.181448</t>
+    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-26/fd24636a113340b68827e3bd35d456493.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '2dc9d5f003f34e749808673a6aff3ae0', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-26/3f7ad4e16e3e44f0a8802991c5c2ebfa9.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '4138da95d9144bdda27ed2c10e1ca062', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.159182</t>
   </si>
   <si>
     <t>{'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '14', 'mediationAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediationDate': '2018-12-14'}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180768'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.157308</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/dcf0676dae834b9db94a7455b04f7cbe9.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:45:59 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.104968</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180768', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/dcf0676dae834b9db94a7455b04f7cbe9.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'af84a0f639654ab39974395fbf708036'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:00 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.231807</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/a5100a9fa4ff41478b83948adb4729c49.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:02 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.098205</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180768', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/a5100a9fa4ff41478b83948adb4729c49.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.152092</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180768', 'mediationResult': '02'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180768'), ('data', 'key', 'caseId')]</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:03 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.154159</t>
-  </si>
-  <si>
-    <t>{'data': {'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:03', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case1_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '14', 'mediationAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediationDate': '2018-12-14'}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180768'), ('%data%applicantIds', '=', 'af84a0f639654ab39974395fbf708036'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '电子商务纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县高岗镇高镇村(近829县道)'), ('%data%mediationResult', '=', '调解不成功'), ('%data%respondentIds', '=', '1a564c83f46b49f1bb8a7b59fd1d87b6')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:03', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809869000, 'applicantIds': '83039e1f7eb547ec89883e77a981a2f2', 'audio': None, 'caseId': '0440103001000120180760', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:49', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:37:54', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '5834e105c0e744d1a58b8c2cd2ab7f5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809126000, 'applicantIds': 'ff9c50c738274c5ca06b9070fabbdc07', 'audio': None, 'caseId': '0440103001000120180753', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f1b203b32354040b0eb826da2bb34d1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545786797000, 'applicantIds': 'e3f04e63a0bf454ba66ce2c07d513714', 'audio': None, 'caseId': '0440103001000120180744', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 09:13:17', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:13:22', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'f52e4b6322c94644a4cc6e7ef821aa0c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545725349000, 'applicantIds': 'ecf3a9b56c8449ca875c07a5d9a5958c', 'audio': None, 'caseId': '0440103001000120180742', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-25 16:09:09', 'difficultyLevel': None, 'disputeContent': '张三和你是在打架。', 'disputeDate': None, 'disputeType': '邻里纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-25 16:09:33', 'mediateAddress': '广东省广州市海珠区滨江东路', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': 'f7a0e3ae8c26441cb53812fdbe9dd711', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545644696000, 'applicantIds': '0582f1241d9c48f7b5eba7677027e56b', 'audio': None, 'caseId': '0440103001000120180741', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-24 17:44:56', 'difficultyLevel': None, 'disputeContent': '三张', 'disputeDate': None, 'disputeType': '房产宅基地纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-24 17:45:36', 'mediateAddress': '广东省广州市天河区广州大道北', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': '7ac29b00699d4d10a789397723fb337b,16b5c914c6b34f79a72d0de57f183acb', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545371681000, 'applicantIds': '2cfb350bbda641988f8eb2031e5b80bf', 'audio': None, 'caseId': '0440103001000120180732', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-21 13:54:41', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-21 13:54:46', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b56b9637d5554e46883e3904b139986c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545366093000, 'applicantIds': '72337114ed1641198924ed122c562f6b', 'audio': None, 'caseId': '0440103001000120180727', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-21 12:21:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-21 12:21:38', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d366efbc5934a9490bf8336826318ce', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545295826000, 'applicantIds': '3e6903c1ec4b478a909e7d81844426b4', 'audio': None, 'caseId': '0440103001000120180713', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-20 16:50:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-20 16:50:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'd704c97055f6420cb2f1e7460bbf7d1f', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 154}}</t>
-  </si>
-  <si>
-    <t>0.16028</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180768'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180768'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180768', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/dcf0676dae834b9db94a7455b04f7cbe9.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180768', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/a5100a9fa4ff41478b83948adb4729c49.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:03', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/dcf0676dae834b9db94a7455b04f7cbe9.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': 'af84a0f639654ab39974395fbf708036', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:03', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/a5100a9fa4ff41478b83948adb4729c49.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.153062</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180768', 'state': 3}</t>
-  </si>
-  <si>
-    <t>0.162897</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180768', 'data': {'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:04', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}}</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180789'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.157155</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/83f612a79b984afaae230a881173368f1.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:35 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.627176</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180789', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/83f612a79b984afaae230a881173368f1.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicantIds': '267303a001ca43f6ab913b5bda74d549'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.164491</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/36ea4ecac2f44ffb80bec9cb2adaf2b27.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:38 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.513351</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180789', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/36ea4ecac2f44ffb80bec9cb2adaf2b27.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.188558</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180789', 'mediationResult': '02'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180789'), ('data', 'key', 'caseId')]</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:39 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.236146</t>
+  </si>
+  <si>
+    <t>{'data': {'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:39', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case1_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '14', 'mediationAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediationDate': '2018-12-14'}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180789'), ('%data%applicantIds', '=', '267303a001ca43f6ab913b5bda74d549'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '电子商务纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县高岗镇高镇村(近829县道)'), ('%data%mediationResult', '=', '调解不成功'), ('%data%respondentIds', '=', '6a93ca2cf94a4175a2bae66f93106e3b')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:39', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817416000, 'applicantIds': '9dd9b95785774b739a752d29ff818c55', 'audio': None, 'caseId': '0440103001000120180781', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:36', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:42', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '89389ddb9ff84426bb5626e11038de5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817232000, 'applicantIds': '7e0de84fb14244a0a4738a9877c6e300', 'audio': None, 'caseId': '0440103001000120180774', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b628fadb131b4975bc1f5a11078ecca4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809869000, 'applicantIds': '83039e1f7eb547ec89883e77a981a2f2', 'audio': None, 'caseId': '0440103001000120180760', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:49', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:37:54', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '5834e105c0e744d1a58b8c2cd2ab7f5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809126000, 'applicantIds': 'ff9c50c738274c5ca06b9070fabbdc07', 'audio': None, 'caseId': '0440103001000120180753', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f1b203b32354040b0eb826da2bb34d1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545786797000, 'applicantIds': 'e3f04e63a0bf454ba66ce2c07d513714', 'audio': None, 'caseId': '0440103001000120180744', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 09:13:17', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:13:22', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'f52e4b6322c94644a4cc6e7ef821aa0c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545725349000, 'applicantIds': 'ecf3a9b56c8449ca875c07a5d9a5958c', 'audio': None, 'caseId': '0440103001000120180742', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-25 16:09:09', 'difficultyLevel': None, 'disputeContent': '张三和你是在打架。', 'disputeDate': None, 'disputeType': '邻里纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-25 16:09:33', 'mediateAddress': '广东省广州市海珠区滨江东路', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': 'f7a0e3ae8c26441cb53812fdbe9dd711', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545644696000, 'applicantIds': '0582f1241d9c48f7b5eba7677027e56b', 'audio': None, 'caseId': '0440103001000120180741', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-24 17:44:56', 'difficultyLevel': None, 'disputeContent': '三张', 'disputeDate': None, 'disputeType': '房产宅基地纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-24 17:45:36', 'mediateAddress': '广东省广州市天河区广州大道北', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': '7ac29b00699d4d10a789397723fb337b,16b5c914c6b34f79a72d0de57f183acb', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 157}}</t>
+  </si>
+  <si>
+    <t>0.173814</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180789'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180789'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180789', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/83f612a79b984afaae230a881173368f1.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180789', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/36ea4ecac2f44ffb80bec9cb2adaf2b27.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:39', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/83f612a79b984afaae230a881173368f1.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '267303a001ca43f6ab913b5bda74d549', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:39', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/36ea4ecac2f44ffb80bec9cb2adaf2b27.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '6a93ca2cf94a4175a2bae66f93106e3b', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.149652</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180789', 'state': 3}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:40 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.182045</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180789', 'data': {'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:40', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}}</t>
   </si>
   <si>
     <t>{'page': 0, 'size': 100, 'state': 3}</t>
   </si>
   <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180768'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:04', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809953000, 'applicantIds': 'bcd82e72369b4ccfb2cc92839f57b882', 'audio': None, 'caseId': '0440105018000620180766', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:39:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:39:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '38db838af9af4929aacbae5996d714a7', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '2bdd3f65f57a4eb8b2632c0aaef89a43', 'audio': None, 'caseId': '0440103001000120180763', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:38:40', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b92141fb8cf2418b8832af4914397808', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809889000, 'applicantIds': 'f12700a59d064efd8eb00d994b8f2895', 'audio': None, 'caseId': '0440105018000620180762', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:09', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:09', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3399323fcaa54754865a453fb7926d48', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545809876000, 'applicantIds': 'ce19655aa731437091efe8db79f428ba', 'audio': None, 'caseId': '0440103001000120180761', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:56', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:03', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb558eb9ada74bcdbccfeddc83cbb6c4', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809210000, 'applicantIds': 'a18da88530a141f48432816e5b51d051', 'audio': None, 'caseId': '0440105018000620180759', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:26:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:26:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '9ce8bac154a54f2389851026b4fd01a2', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'a75ed548e6b747f59f731f8979a70122', 'audio': None, 'caseId': '0440103001000120180756', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:26:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '71cd323e41ef41c6bbf6a15cfeb4792f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809147000, 'applicantIds': '44e7cad5f63746289f2c39a3a96f7402', 'audio': None, 'caseId': '0440105018000620180755', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '35e2247f535340a8bdb88984cea28cee', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545809133000, 'applicantIds': '1321cae604a544c8ba9fd3242abca391', 'audio': None, 'caseId': '0440103001000120180754', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:41', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '2b8b26a9cc1c4f9bb9ebb9102ae8b4b9', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545786878000, 'applicantIds': 'bfae3298104c4ab095ebbbcfd5be6987', 'audio': None, 'caseId': '0440105018000620180750', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 09:14:38', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:14:38', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '07300fd8353b4408aefdce584cbe3a68', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:04 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.146679</t>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180789'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:40', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817499000, 'applicantIds': 'cccbf4a1b59a4ec181da7cdf7de92b60', 'audio': None, 'caseId': '0440105018000620180787', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:44:59', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:44:59', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d9f1670009d4689af5f2f711c8de565', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'f4c71b167c344a06b6efde5b5964f775', 'audio': None, 'caseId': '0440103001000120180784', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:57', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:44:26', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'e4e651f4c8f946f98dc250440564120e', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817436000, 'applicantIds': '9b9c98a5bf5848b58453928d69a59ae6', 'audio': None, 'caseId': '0440105018000620180783', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:56', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:56', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '671a8250415d4440b47d32cd4c86924d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817423000, 'applicantIds': 'bba54e0d13114c1fb4b8ba0b6ceefb3b', 'audio': None, 'caseId': '0440103001000120180782', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:51', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '3165d043324c4080824737c8ff0503a5', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817333000, 'applicantIds': 'cce0a4880a2b4d08a38f29e5bcfbf229', 'audio': None, 'caseId': '0440105018000620180780', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:42:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:42:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'fc2a7d79e718459fa10cc0bf022e1fad', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ff0523fc7a09423b9f6902d729430e11', 'audio': None, 'caseId': '0440103001000120180777', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:53', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:41:39', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4d1922b173214f51bb163a42f72b2871', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817252000, 'applicantIds': 'b768f210c4b44d01a53d6dce66319882', 'audio': None, 'caseId': '0440105018000620180776', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:52', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '65f17444d9e14ffcb31cc21625601606', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817239000, 'applicantIds': 'b7dab0cd68444c89a9fc3f743a3f2ed7', 'audio': None, 'caseId': '0440103001000120180775', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '9cf1de77b332416097b01f651fc46977', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545810433000, 'applicantIds': '6325992931014305a8fc5cd48310ea9e', 'audio': None, 'caseId': '0440105018000620180773', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:47:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:47:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '89cb82edcf36410b88406896b4de527f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.17994</t>
   </si>
   <si>
     <t>record</t>
@@ -913,7 +907,7 @@
     <t>uploadSituation</t>
   </si>
   <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180768')]</t>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180789')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/record/uploadSituation</t>
@@ -926,40 +920,40 @@
 </t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180768', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180768', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180768', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.162336</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180768', 'inputState': 2}</t>
-  </si>
-  <si>
-    <t>0.147194</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180789', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180789', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180789', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.168013</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180789', 'inputState': 2}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:41 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.184836</t>
   </si>
   <si>
     <t>case13</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180768', 'data': {'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:05', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case12_input': {'caseId': '0440103001000120180768', 'inputState': 2}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180768'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1), ('%data%type', '=', 1)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:05', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809953000, 'applicantIds': 'bcd82e72369b4ccfb2cc92839f57b882', 'audio': None, 'caseId': '0440105018000620180766', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:39:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:39:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '38db838af9af4929aacbae5996d714a7', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '2bdd3f65f57a4eb8b2632c0aaef89a43', 'audio': None, 'caseId': '0440103001000120180763', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:38:40', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b92141fb8cf2418b8832af4914397808', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809889000, 'applicantIds': 'f12700a59d064efd8eb00d994b8f2895', 'audio': None, 'caseId': '0440105018000620180762', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:09', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:09', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3399323fcaa54754865a453fb7926d48', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545809876000, 'applicantIds': 'ce19655aa731437091efe8db79f428ba', 'audio': None, 'caseId': '0440103001000120180761', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:56', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:03', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb558eb9ada74bcdbccfeddc83cbb6c4', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809210000, 'applicantIds': 'a18da88530a141f48432816e5b51d051', 'audio': None, 'caseId': '0440105018000620180759', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:26:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:26:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '9ce8bac154a54f2389851026b4fd01a2', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'a75ed548e6b747f59f731f8979a70122', 'audio': None, 'caseId': '0440103001000120180756', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:26:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '71cd323e41ef41c6bbf6a15cfeb4792f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809147000, 'applicantIds': '44e7cad5f63746289f2c39a3a96f7402', 'audio': None, 'caseId': '0440105018000620180755', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '35e2247f535340a8bdb88984cea28cee', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545809133000, 'applicantIds': '1321cae604a544c8ba9fd3242abca391', 'audio': None, 'caseId': '0440103001000120180754', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:41', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '2b8b26a9cc1c4f9bb9ebb9102ae8b4b9', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545786878000, 'applicantIds': 'bfae3298104c4ab095ebbbcfd5be6987', 'audio': None, 'caseId': '0440105018000620180750', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 09:14:38', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:14:38', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '07300fd8353b4408aefdce584cbe3a68', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:05 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.169495</t>
+    <t>{'caseId': '0440103001000120180789', 'data': {'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:41', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case12_input': {'caseId': '0440103001000120180789', 'inputState': 2}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180789'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1), ('%data%type', '=', 1)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:41', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817499000, 'applicantIds': 'cccbf4a1b59a4ec181da7cdf7de92b60', 'audio': None, 'caseId': '0440105018000620180787', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:44:59', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:44:59', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d9f1670009d4689af5f2f711c8de565', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'f4c71b167c344a06b6efde5b5964f775', 'audio': None, 'caseId': '0440103001000120180784', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:57', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:44:26', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'e4e651f4c8f946f98dc250440564120e', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817436000, 'applicantIds': '9b9c98a5bf5848b58453928d69a59ae6', 'audio': None, 'caseId': '0440105018000620180783', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:56', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:56', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '671a8250415d4440b47d32cd4c86924d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817423000, 'applicantIds': 'bba54e0d13114c1fb4b8ba0b6ceefb3b', 'audio': None, 'caseId': '0440103001000120180782', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:51', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '3165d043324c4080824737c8ff0503a5', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817333000, 'applicantIds': 'cce0a4880a2b4d08a38f29e5bcfbf229', 'audio': None, 'caseId': '0440105018000620180780', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:42:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:42:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'fc2a7d79e718459fa10cc0bf022e1fad', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ff0523fc7a09423b9f6902d729430e11', 'audio': None, 'caseId': '0440103001000120180777', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:53', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:41:39', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4d1922b173214f51bb163a42f72b2871', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817252000, 'applicantIds': 'b768f210c4b44d01a53d6dce66319882', 'audio': None, 'caseId': '0440105018000620180776', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:52', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '65f17444d9e14ffcb31cc21625601606', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817239000, 'applicantIds': 'b7dab0cd68444c89a9fc3f743a3f2ed7', 'audio': None, 'caseId': '0440103001000120180775', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '9cf1de77b332416097b01f651fc46977', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545810433000, 'applicantIds': '6325992931014305a8fc5cd48310ea9e', 'audio': None, 'caseId': '0440105018000620180773', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:47:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:47:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '89cb82edcf36410b88406896b4de527f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.163701</t>
   </si>
   <si>
     <t>recognize</t>
   </si>
   <si>
-    <t>{'applicantList': {'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}, 'disputeCaseInfo': {'acceptDate': 1545810370362, 'applicantIds': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'audio': None, 'caseId': '0440105018000620180769', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:10', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:10', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondentList': {'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}}</t>
+    <t>{'applicantList': {'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'fab569de2c6141908e6632f7162bd0cf', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}, 'disputeCaseInfo': {'acceptDate': 1545817727072, 'applicantIds': 'fab569de2c6141908e6632f7162bd0cf', 'audio': None, 'caseId': '0440105018000620180790', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '0e8e1caa1bd843a1a5577237fdc69e48', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondentList': {'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '0e8e1caa1bd843a1a5577237fdc69e48', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}}</t>
   </si>
   <si>
     <t>{'mediatorId': '105002J1960043'}</t>
@@ -977,22 +971,22 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\调解协议书.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545810370362, 'applicantIds': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'audio': None, 'caseId': '0440105018000620180769', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:10', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:10', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-26/e5166fc67e494345add46774d3fbcff99.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:10 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.088068</t>
-  </si>
-  <si>
-    <t>{'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545810370362, 'applicantIds': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'audio': None, 'caseId': '0440105018000620180769', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:10', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:10', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-26/e5166fc67e494345add46774d3fbcff99.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}], 'caseId': '0440105018000620180769', 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'mediatorId': '105002J1960043'}</t>
-  </si>
-  <si>
-    <t>{'form': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'caseId': '0440105018000620180769', 'infoVO': {'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'}, 'mediatorId': '105002J1960043', 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('data', '=', '0440105018000620180769')]</t>
+    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'fab569de2c6141908e6632f7162bd0cf', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545817727072, 'applicantIds': 'fab569de2c6141908e6632f7162bd0cf', 'audio': None, 'caseId': '0440105018000620180790', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '0e8e1caa1bd843a1a5577237fdc69e48', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-26/b7db6fe5adc34354aab85c9588a135b05.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '0e8e1caa1bd843a1a5577237fdc69e48', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:47 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.46436</t>
+  </si>
+  <si>
+    <t>{'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'fab569de2c6141908e6632f7162bd0cf', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545817727072, 'applicantIds': 'fab569de2c6141908e6632f7162bd0cf', 'audio': None, 'caseId': '0440105018000620180790', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '0e8e1caa1bd843a1a5577237fdc69e48', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-26/b7db6fe5adc34354aab85c9588a135b05.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '0e8e1caa1bd843a1a5577237fdc69e48', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'fab569de2c6141908e6632f7162bd0cf', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '0e8e1caa1bd843a1a5577237fdc69e48', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}], 'caseId': '0440105018000620180790', 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'mediatorId': '105002J1960043'}</t>
+  </si>
+  <si>
+    <t>{'form': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'fab569de2c6141908e6632f7162bd0cf', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'caseId': '0440105018000620180790', 'infoVO': {'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'}, 'mediatorId': '105002J1960043', 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '0e8e1caa1bd843a1a5577237fdc69e48', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('data', '=', '0440105018000620180790')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/record/save</t>
@@ -1001,22 +995,22 @@
     <t>【案件补录接口】补录信息提交</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': '0440105018000620180769', 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.199133</t>
-  </si>
-  <si>
-    <t>{'case1_data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545810370362, 'applicantIds': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'audio': None, 'caseId': '0440105018000620180769', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:10', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:10', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-26/e5166fc67e494345add46774d3fbcff99.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'caseId': '0440105018000620180769', 'applicantList_partyId': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'respondentList_partyId': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'disputeCaseInfo': {'acceptDate': 1545810370362, 'applicantIds': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'audio': None, 'caseId': '0440105018000620180769', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:10', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:10', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'data': {'acceptDate': 1545810370000, 'applicantIds': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'audio': None, 'caseId': '0440105018000620180769', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:10', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:10', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440105018000620180769'), ('%data%applicantIds', '=', '6ba76d0b15d446d7ac83ac41ee8c8f82'), ('%data%respondentIds', '=', 'a9fb9c7d45b041b9b1f9e2f66c0aecf9'), ('%data%committeeId', '=', '4401050180006'), ('%data%disputeContent', '=', '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。'), ('%data%mediationResult', '=', '调解成功'), ('%data%mediatorId', '=', '105002J1960043'), ('%data%protocolContent', '=', '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 4), ('%data%type', '=', 2)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545810370000, 'applicantIds': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'audio': None, 'caseId': '0440105018000620180769', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:10', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:10', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:05', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809953000, 'applicantIds': 'bcd82e72369b4ccfb2cc92839f57b882', 'audio': None, 'caseId': '0440105018000620180766', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:39:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:39:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '38db838af9af4929aacbae5996d714a7', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '2bdd3f65f57a4eb8b2632c0aaef89a43', 'audio': None, 'caseId': '0440103001000120180763', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:38:40', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b92141fb8cf2418b8832af4914397808', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809889000, 'applicantIds': 'f12700a59d064efd8eb00d994b8f2895', 'audio': None, 'caseId': '0440105018000620180762', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:09', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:09', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3399323fcaa54754865a453fb7926d48', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545809876000, 'applicantIds': 'ce19655aa731437091efe8db79f428ba', 'audio': None, 'caseId': '0440103001000120180761', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:56', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:03', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb558eb9ada74bcdbccfeddc83cbb6c4', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809210000, 'applicantIds': 'a18da88530a141f48432816e5b51d051', 'audio': None, 'caseId': '0440105018000620180759', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:26:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:26:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '9ce8bac154a54f2389851026b4fd01a2', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'a75ed548e6b747f59f731f8979a70122', 'audio': None, 'caseId': '0440103001000120180756', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:26:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '71cd323e41ef41c6bbf6a15cfeb4792f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809147000, 'applicantIds': '44e7cad5f63746289f2c39a3a96f7402', 'audio': None, 'caseId': '0440105018000620180755', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '35e2247f535340a8bdb88984cea28cee', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545809133000, 'applicantIds': '1321cae604a544c8ba9fd3242abca391', 'audio': None, 'caseId': '0440103001000120180754', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:41', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '2b8b26a9cc1c4f9bb9ebb9102ae8b4b9', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>0.136759</t>
+    <t>{'code': 200, 'data': '0440105018000620180790', 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.170851</t>
+  </si>
+  <si>
+    <t>{'case1_data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'fab569de2c6141908e6632f7162bd0cf', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545817727072, 'applicantIds': 'fab569de2c6141908e6632f7162bd0cf', 'audio': None, 'caseId': '0440105018000620180790', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '0e8e1caa1bd843a1a5577237fdc69e48', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-26/b7db6fe5adc34354aab85c9588a135b05.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '0e8e1caa1bd843a1a5577237fdc69e48', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'caseId': '0440105018000620180790', 'applicantList_partyId': 'fab569de2c6141908e6632f7162bd0cf', 'respondentList_partyId': '0e8e1caa1bd843a1a5577237fdc69e48', 'disputeCaseInfo': {'acceptDate': 1545817727072, 'applicantIds': 'fab569de2c6141908e6632f7162bd0cf', 'audio': None, 'caseId': '0440105018000620180790', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '0e8e1caa1bd843a1a5577237fdc69e48', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'data': {'acceptDate': 1545817727000, 'applicantIds': 'fab569de2c6141908e6632f7162bd0cf', 'audio': None, 'caseId': '0440105018000620180790', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '0e8e1caa1bd843a1a5577237fdc69e48', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440105018000620180790'), ('%data%applicantIds', '=', 'fab569de2c6141908e6632f7162bd0cf'), ('%data%respondentIds', '=', '0e8e1caa1bd843a1a5577237fdc69e48'), ('%data%committeeId', '=', '4401050180006'), ('%data%disputeContent', '=', '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。'), ('%data%mediationResult', '=', '调解成功'), ('%data%mediatorId', '=', '105002J1960043'), ('%data%protocolContent', '=', '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 4), ('%data%type', '=', 2)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545817727000, 'applicantIds': 'fab569de2c6141908e6632f7162bd0cf', 'audio': None, 'caseId': '0440105018000620180790', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '0e8e1caa1bd843a1a5577237fdc69e48', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:41', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817499000, 'applicantIds': 'cccbf4a1b59a4ec181da7cdf7de92b60', 'audio': None, 'caseId': '0440105018000620180787', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:44:59', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:44:59', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d9f1670009d4689af5f2f711c8de565', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'f4c71b167c344a06b6efde5b5964f775', 'audio': None, 'caseId': '0440103001000120180784', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:57', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:44:26', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'e4e651f4c8f946f98dc250440564120e', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817436000, 'applicantIds': '9b9c98a5bf5848b58453928d69a59ae6', 'audio': None, 'caseId': '0440105018000620180783', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:56', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:56', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '671a8250415d4440b47d32cd4c86924d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817423000, 'applicantIds': 'bba54e0d13114c1fb4b8ba0b6ceefb3b', 'audio': None, 'caseId': '0440103001000120180782', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:51', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '3165d043324c4080824737c8ff0503a5', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817333000, 'applicantIds': 'cce0a4880a2b4d08a38f29e5bcfbf229', 'audio': None, 'caseId': '0440105018000620180780', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:42:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:42:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'fc2a7d79e718459fa10cc0bf022e1fad', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ff0523fc7a09423b9f6902d729430e11', 'audio': None, 'caseId': '0440103001000120180777', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:53', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:41:39', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4d1922b173214f51bb163a42f72b2871', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817252000, 'applicantIds': 'b768f210c4b44d01a53d6dce66319882', 'audio': None, 'caseId': '0440105018000620180776', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:52', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '65f17444d9e14ffcb31cc21625601606', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817239000, 'applicantIds': 'b7dab0cd68444c89a9fc3f743a3f2ed7', 'audio': None, 'caseId': '0440103001000120180775', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '9cf1de77b332416097b01f651fc46977', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.170021</t>
   </si>
   <si>
     <t>written/saveCaseInfo</t>
@@ -1040,28 +1034,28 @@
 </t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180770'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:11 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.162994</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/f81ca6b4785d4e8eb7a89bd55768fcf61.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:13 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.115929</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180791'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:48 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.158078</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/a9ac1c82c130442fb37aab79e3d151318.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:51 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.821841</t>
   </si>
   <si>
     <t>written/saveNatural</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180770', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/f81ca6b4785d4e8eb7a89bd55768fcf61.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}</t>
+    <t>{'caseId': '0440103001000120180791', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/a9ac1c82c130442fb37aab79e3d151318.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/written/saveNatural</t>
@@ -1070,40 +1064,37 @@
     <t>【书面调解快速调解接口】书面调解保存当事人信息(自然人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': '5830dad0b80e40318e73b22298b0e2fa'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.166234</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/fc907089f4554bd7991ac23b43c843eb8.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:15 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.072398</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180770', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/fc907089f4554bd7991ac23b43c843eb8.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'respondentIds': '4546c6a194424c699b785974fb62acde'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:16 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.182725</t>
+    <t>{'code': 200, 'data': {'applicantIds': '28e603fc99514ea6bd8b864a9f46f4cf'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.232392</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-26/51092b87729d468180d366df119e5e1c3.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:54 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.706527</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180791', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/51092b87729d468180d366df119e5e1c3.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'respondentIds': '4eff8f16cc9b4968919f04fa28cf8e60'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.17283</t>
   </si>
   <si>
     <t>written/saveResult</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180770', 'implementCondition': '01', 'implementType': '01', 'isSatisfied': '01', 'mediationResult': '01', 'money': 1000.0, 'protocolContent': '协议内容啦啦啦', 'protocolDate': '2018-12-24'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'caseId'), ('data', 'key', 'caseId'), ('data.caseId', '=', '0440103001000120180770')]</t>
+    <t>{'caseId': '0440103001000120180791', 'implementCondition': '01', 'implementType': '01', 'isSatisfied': '01', 'mediationResult': '01', 'money': 1000.0, 'protocolContent': '协议内容啦啦啦', 'protocolDate': '2018-12-24'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'caseId'), ('data', 'key', 'caseId'), ('data.caseId', '=', '0440103001000120180791')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/written/saveResult</t>
@@ -1112,64 +1103,64 @@
     <t>【书面调解快速调解接口】书面调解保存调解结果</t>
   </si>
   <si>
-    <t>0.155241</t>
-  </si>
-  <si>
-    <t>{'data': {'acceptDate': 1544716800000, 'applicantIds': '5830dad0b80e40318e73b22298b0e2fa', 'audio': None, 'caseId': '0440103001000120180770', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:46:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4546c6a194424c699b785974fb62acde', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case1_input': {'committeeId': '4401030010001', 'mediatorId': '105002J1960043', 'acceptDate': '2018-12-14', 'casePrediction': '01', 'caseSource': '01', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': '2018-12-14', 'disputeType': '1'}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180770'), ('%data%applicantIds', '=', '5830dad0b80e40318e73b22298b0e2fa'), ('%data%disputeContent', '=', '纠纷事实111'), ('%data%disputeType', '=', '婚姻家庭纠纷'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', '4546c6a194424c699b785974fb62acde')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '5830dad0b80e40318e73b22298b0e2fa', 'audio': None, 'caseId': '0440103001000120180770', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:46:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4546c6a194424c699b785974fb62acde', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809869000, 'applicantIds': '83039e1f7eb547ec89883e77a981a2f2', 'audio': None, 'caseId': '0440103001000120180760', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:49', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:37:54', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '5834e105c0e744d1a58b8c2cd2ab7f5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809126000, 'applicantIds': 'ff9c50c738274c5ca06b9070fabbdc07', 'audio': None, 'caseId': '0440103001000120180753', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f1b203b32354040b0eb826da2bb34d1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545786797000, 'applicantIds': 'e3f04e63a0bf454ba66ce2c07d513714', 'audio': None, 'caseId': '0440103001000120180744', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 09:13:17', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:13:22', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'f52e4b6322c94644a4cc6e7ef821aa0c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545725349000, 'applicantIds': 'ecf3a9b56c8449ca875c07a5d9a5958c', 'audio': None, 'caseId': '0440103001000120180742', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-25 16:09:09', 'difficultyLevel': None, 'disputeContent': '张三和你是在打架。', 'disputeDate': None, 'disputeType': '邻里纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-25 16:09:33', 'mediateAddress': '广东省广州市海珠区滨江东路', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': 'f7a0e3ae8c26441cb53812fdbe9dd711', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545644696000, 'applicantIds': '0582f1241d9c48f7b5eba7677027e56b', 'audio': None, 'caseId': '0440103001000120180741', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-24 17:44:56', 'difficultyLevel': None, 'disputeContent': '三张', 'disputeDate': None, 'disputeType': '房产宅基地纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-24 17:45:36', 'mediateAddress': '广东省广州市天河区广州大道北', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': '7ac29b00699d4d10a789397723fb337b,16b5c914c6b34f79a72d0de57f183acb', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545371681000, 'applicantIds': '2cfb350bbda641988f8eb2031e5b80bf', 'audio': None, 'caseId': '0440103001000120180732', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-21 13:54:41', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-21 13:54:46', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b56b9637d5554e46883e3904b139986c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545366093000, 'applicantIds': '72337114ed1641198924ed122c562f6b', 'audio': None, 'caseId': '0440103001000120180727', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-21 12:21:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-21 12:21:38', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d366efbc5934a9490bf8336826318ce', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545295826000, 'applicantIds': '3e6903c1ec4b478a909e7d81844426b4', 'audio': None, 'caseId': '0440103001000120180713', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-20 16:50:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-20 16:50:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'd704c97055f6420cb2f1e7460bbf7d1f', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 154}}</t>
-  </si>
-  <si>
-    <t>0.140837</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180770'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180770'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180770', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/f81ca6b4785d4e8eb7a89bd55768fcf61.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180770', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/fc907089f4554bd7991ac23b43c843eb8.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1544716800000, 'applicantIds': '5830dad0b80e40318e73b22298b0e2fa', 'audio': None, 'caseId': '0440103001000120180770', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:46:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4546c6a194424c699b785974fb62acde', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3})]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/f81ca6b4785d4e8eb7a89bd55768fcf61.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '5830dad0b80e40318e73b22298b0e2fa', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1544716800000, 'applicantIds': '5830dad0b80e40318e73b22298b0e2fa', 'audio': None, 'caseId': '0440103001000120180770', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:46:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4546c6a194424c699b785974fb62acde', 'state': 2, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/fc907089f4554bd7991ac23b43c843eb8.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '4546c6a194424c699b785974fb62acde', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:17 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.151862</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180770', 'state': 3}</t>
-  </si>
-  <si>
-    <t>0.189166</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180770', 'data': {'acceptDate': 1544716800000, 'applicantIds': '5830dad0b80e40318e73b22298b0e2fa', 'audio': None, 'caseId': '0440103001000120180770', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:46:17', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4546c6a194424c699b785974fb62acde', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180770'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '5830dad0b80e40318e73b22298b0e2fa', 'audio': None, 'caseId': '0440103001000120180770', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:46:17', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4546c6a194424c699b785974fb62acde', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545810370000, 'applicantIds': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'audio': None, 'caseId': '0440105018000620180769', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:10', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:10', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:05', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809953000, 'applicantIds': 'bcd82e72369b4ccfb2cc92839f57b882', 'audio': None, 'caseId': '0440105018000620180766', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:39:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:39:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '38db838af9af4929aacbae5996d714a7', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '2bdd3f65f57a4eb8b2632c0aaef89a43', 'audio': None, 'caseId': '0440103001000120180763', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:38:40', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b92141fb8cf2418b8832af4914397808', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809889000, 'applicantIds': 'f12700a59d064efd8eb00d994b8f2895', 'audio': None, 'caseId': '0440105018000620180762', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:09', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:09', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3399323fcaa54754865a453fb7926d48', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545809876000, 'applicantIds': 'ce19655aa731437091efe8db79f428ba', 'audio': None, 'caseId': '0440103001000120180761', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:56', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:03', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb558eb9ada74bcdbccfeddc83cbb6c4', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809210000, 'applicantIds': 'a18da88530a141f48432816e5b51d051', 'audio': None, 'caseId': '0440105018000620180759', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:26:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:26:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '9ce8bac154a54f2389851026b4fd01a2', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'a75ed548e6b747f59f731f8979a70122', 'audio': None, 'caseId': '0440103001000120180756', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:26:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '71cd323e41ef41c6bbf6a15cfeb4792f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809147000, 'applicantIds': '44e7cad5f63746289f2c39a3a96f7402', 'audio': None, 'caseId': '0440105018000620180755', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '35e2247f535340a8bdb88984cea28cee', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>0.14313</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180770')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180770', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180770', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180770', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:18 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.153575</t>
+    <t>0.164085</t>
+  </si>
+  <si>
+    <t>{'data': {'acceptDate': 1544716800000, 'applicantIds': '28e603fc99514ea6bd8b864a9f46f4cf', 'audio': None, 'caseId': '0440103001000120180791', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:48:55', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4eff8f16cc9b4968919f04fa28cf8e60', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case1_input': {'committeeId': '4401030010001', 'mediatorId': '105002J1960043', 'acceptDate': '2018-12-14', 'casePrediction': '01', 'caseSource': '01', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': '2018-12-14', 'disputeType': '1'}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180791'), ('%data%applicantIds', '=', '28e603fc99514ea6bd8b864a9f46f4cf'), ('%data%disputeContent', '=', '纠纷事实111'), ('%data%disputeType', '=', '婚姻家庭纠纷'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', '4eff8f16cc9b4968919f04fa28cf8e60')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '28e603fc99514ea6bd8b864a9f46f4cf', 'audio': None, 'caseId': '0440103001000120180791', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:48:55', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4eff8f16cc9b4968919f04fa28cf8e60', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817416000, 'applicantIds': '9dd9b95785774b739a752d29ff818c55', 'audio': None, 'caseId': '0440103001000120180781', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:36', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:42', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '89389ddb9ff84426bb5626e11038de5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817232000, 'applicantIds': '7e0de84fb14244a0a4738a9877c6e300', 'audio': None, 'caseId': '0440103001000120180774', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b628fadb131b4975bc1f5a11078ecca4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809869000, 'applicantIds': '83039e1f7eb547ec89883e77a981a2f2', 'audio': None, 'caseId': '0440103001000120180760', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:49', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:37:54', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '5834e105c0e744d1a58b8c2cd2ab7f5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809126000, 'applicantIds': 'ff9c50c738274c5ca06b9070fabbdc07', 'audio': None, 'caseId': '0440103001000120180753', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f1b203b32354040b0eb826da2bb34d1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545786797000, 'applicantIds': 'e3f04e63a0bf454ba66ce2c07d513714', 'audio': None, 'caseId': '0440103001000120180744', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 09:13:17', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 09:13:22', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'f52e4b6322c94644a4cc6e7ef821aa0c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545725349000, 'applicantIds': 'ecf3a9b56c8449ca875c07a5d9a5958c', 'audio': None, 'caseId': '0440103001000120180742', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-25 16:09:09', 'difficultyLevel': None, 'disputeContent': '张三和你是在打架。', 'disputeDate': None, 'disputeType': '邻里纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-25 16:09:33', 'mediateAddress': '广东省广州市海珠区滨江东路', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': 'f7a0e3ae8c26441cb53812fdbe9dd711', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545644696000, 'applicantIds': '0582f1241d9c48f7b5eba7677027e56b', 'audio': None, 'caseId': '0440103001000120180741', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-24 17:44:56', 'difficultyLevel': None, 'disputeContent': '三张', 'disputeDate': None, 'disputeType': '房产宅基地纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-24 17:45:36', 'mediateAddress': '广东省广州市天河区广州大道北', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': '', 'protocolContent': None, 'protocolDate': None, 'remark': '', 'respondentIds': '7ac29b00699d4d10a789397723fb337b,16b5c914c6b34f79a72d0de57f183acb', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 157}}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:55 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.176585</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180791'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180791'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180791', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/a9ac1c82c130442fb37aab79e3d151318.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180791', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/51092b87729d468180d366df119e5e1c3.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1544716800000, 'applicantIds': '28e603fc99514ea6bd8b864a9f46f4cf', 'audio': None, 'caseId': '0440103001000120180791', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:48:55', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4eff8f16cc9b4968919f04fa28cf8e60', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3})]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/a9ac1c82c130442fb37aab79e3d151318.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '28e603fc99514ea6bd8b864a9f46f4cf', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1544716800000, 'applicantIds': '28e603fc99514ea6bd8b864a9f46f4cf', 'audio': None, 'caseId': '0440103001000120180791', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:48:55', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4eff8f16cc9b4968919f04fa28cf8e60', 'state': 2, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-26/51092b87729d468180d366df119e5e1c3.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '4eff8f16cc9b4968919f04fa28cf8e60', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.15556</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180791', 'state': 3}</t>
+  </si>
+  <si>
+    <t>0.167431</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180791', 'data': {'acceptDate': 1544716800000, 'applicantIds': '28e603fc99514ea6bd8b864a9f46f4cf', 'audio': None, 'caseId': '0440103001000120180791', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:48:56', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4eff8f16cc9b4968919f04fa28cf8e60', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180791'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '28e603fc99514ea6bd8b864a9f46f4cf', 'audio': None, 'caseId': '0440103001000120180791', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:48:56', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4eff8f16cc9b4968919f04fa28cf8e60', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817727000, 'applicantIds': 'fab569de2c6141908e6632f7162bd0cf', 'audio': None, 'caseId': '0440105018000620180790', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '0e8e1caa1bd843a1a5577237fdc69e48', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:41', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817499000, 'applicantIds': 'cccbf4a1b59a4ec181da7cdf7de92b60', 'audio': None, 'caseId': '0440105018000620180787', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:44:59', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:44:59', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d9f1670009d4689af5f2f711c8de565', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'f4c71b167c344a06b6efde5b5964f775', 'audio': None, 'caseId': '0440103001000120180784', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:57', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:44:26', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'e4e651f4c8f946f98dc250440564120e', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817436000, 'applicantIds': '9b9c98a5bf5848b58453928d69a59ae6', 'audio': None, 'caseId': '0440105018000620180783', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:56', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:56', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '671a8250415d4440b47d32cd4c86924d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817423000, 'applicantIds': 'bba54e0d13114c1fb4b8ba0b6ceefb3b', 'audio': None, 'caseId': '0440103001000120180782', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:51', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '3165d043324c4080824737c8ff0503a5', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817333000, 'applicantIds': 'cce0a4880a2b4d08a38f29e5bcfbf229', 'audio': None, 'caseId': '0440105018000620180780', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:42:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:42:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'fc2a7d79e718459fa10cc0bf022e1fad', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ff0523fc7a09423b9f6902d729430e11', 'audio': None, 'caseId': '0440103001000120180777', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:53', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:41:39', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4d1922b173214f51bb163a42f72b2871', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817252000, 'applicantIds': 'b768f210c4b44d01a53d6dce66319882', 'audio': None, 'caseId': '0440105018000620180776', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:52', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '65f17444d9e14ffcb31cc21625601606', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:48:56 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.147643</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180791')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180791', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180791', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180791', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.176113</t>
   </si>
   <si>
     <t>photo</t>
@@ -1190,13 +1181,13 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\人民调解调查记录.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/906e713f3b1a47acad8935cbb86a3cab3.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/169163f4970a407ca03a9c054f7bed727.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/fea3db913b1d446cb52fdca7d3373cc46.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:23 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.820203</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/cf0e03e484a84d0eab7f384ed1ed5cd59.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/61465f73b40c4887ac456b32cb07c0d55.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/b02d7e7df44a46d3a905ad16375e057a8.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:02 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.820119</t>
   </si>
   <si>
     <t>人民调解证据材料上传</t>
@@ -1211,10 +1202,10 @@
     <t>{'code': 201001, 'data': None, 'msg': '文件类型错误', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:27 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.501422</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:06 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>4.460176</t>
   </si>
   <si>
     <t>case14</t>
@@ -1229,13 +1220,13 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\人民调解回访记录.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/906e713f3b1a47acad8935cbb86a3cab3.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/9f1b87d85d4b4d9fba676ce661a52e001.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/fea3db913b1d446cb52fdca7d3373cc46.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:30 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.029376</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/cf0e03e484a84d0eab7f384ed1ed5cd59.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/3e95af80a5d44b2fb1f4e09a48e67df89.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/b02d7e7df44a46d3a905ad16375e057a8.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:10 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.177174</t>
   </si>
   <si>
     <t>case15</t>
@@ -1250,10 +1241,10 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\司法确认申请书.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.937431</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:14 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.897167</t>
   </si>
   <si>
     <t>case16</t>
@@ -1268,52 +1259,49 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\卷宗情况说明.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/b0fb6fccf6b645d293dfdefab31650035.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/9f1b87d85d4b4d9fba676ce661a52e001.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/fea3db913b1d446cb52fdca7d3373cc46.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:37 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.619166</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/a8ed68c619d44b29ae91b00e265ac6d05.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/3e95af80a5d44b2fb1f4e09a48e67df89.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/b02d7e7df44a46d3a905ad16375e057a8.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:17 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.655549</t>
   </si>
   <si>
     <t>case17</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180770', 'inputState': 2}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:38 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.217263</t>
+    <t>{'caseId': '0440103001000120180791', 'inputState': 2}</t>
+  </si>
+  <si>
+    <t>0.166122</t>
   </si>
   <si>
     <t>case18</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180770', 'data': {'acceptDate': 1544716800000, 'applicantIds': '5830dad0b80e40318e73b22298b0e2fa', 'audio': None, 'caseId': '0440103001000120180770', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:46:38', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4546c6a194424c699b785974fb62acde', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case17_input': {'caseId': '0440103001000120180770', 'inputState': 2}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180770'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3), ('%data%type', '=', 2)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '5830dad0b80e40318e73b22298b0e2fa', 'audio': None, 'caseId': '0440103001000120180770', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:46:38', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4546c6a194424c699b785974fb62acde', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545810370000, 'applicantIds': '6ba76d0b15d446d7ac83ac41ee8c8f82', 'audio': None, 'caseId': '0440105018000620180769', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:46:10', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:10', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'a9fb9c7d45b041b9b1f9e2f66c0aecf9', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545810358000, 'applicantIds': 'af84a0f639654ab39974395fbf708036', 'audio': None, 'caseId': '0440103001000120180768', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:46:05', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1a564c83f46b49f1bb8a7b59fd1d87b6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809953000, 'applicantIds': 'bcd82e72369b4ccfb2cc92839f57b882', 'audio': None, 'caseId': '0440105018000620180766', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:39:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:39:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '38db838af9af4929aacbae5996d714a7', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '2bdd3f65f57a4eb8b2632c0aaef89a43', 'audio': None, 'caseId': '0440103001000120180763', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:11', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:38:40', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b92141fb8cf2418b8832af4914397808', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809889000, 'applicantIds': 'f12700a59d064efd8eb00d994b8f2895', 'audio': None, 'caseId': '0440105018000620180762', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:38:09', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:09', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3399323fcaa54754865a453fb7926d48', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545809876000, 'applicantIds': 'ce19655aa731437091efe8db79f428ba', 'audio': None, 'caseId': '0440103001000120180761', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:56', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:38:03', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb558eb9ada74bcdbccfeddc83cbb6c4', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809210000, 'applicantIds': 'a18da88530a141f48432816e5b51d051', 'audio': None, 'caseId': '0440105018000620180759', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:26:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:26:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '9ce8bac154a54f2389851026b4fd01a2', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'a75ed548e6b747f59f731f8979a70122', 'audio': None, 'caseId': '0440103001000120180756', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 15:26:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '71cd323e41ef41c6bbf6a15cfeb4792f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545809147000, 'applicantIds': '44e7cad5f63746289f2c39a3a96f7402', 'audio': None, 'caseId': '0440105018000620180755', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:25:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:25:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '35e2247f535340a8bdb88984cea28cee', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>0.170049</t>
+    <t>{'caseId': '0440103001000120180791', 'data': {'acceptDate': 1544716800000, 'applicantIds': '28e603fc99514ea6bd8b864a9f46f4cf', 'audio': None, 'caseId': '0440103001000120180791', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:49:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4eff8f16cc9b4968919f04fa28cf8e60', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case17_input': {'caseId': '0440103001000120180791', 'inputState': 2}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180791'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3), ('%data%type', '=', 2)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '28e603fc99514ea6bd8b864a9f46f4cf', 'audio': None, 'caseId': '0440103001000120180791', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:48', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:49:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4eff8f16cc9b4968919f04fa28cf8e60', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817727000, 'applicantIds': 'fab569de2c6141908e6632f7162bd0cf', 'audio': None, 'caseId': '0440105018000620180790', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '0e8e1caa1bd843a1a5577237fdc69e48', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817713000, 'applicantIds': '267303a001ca43f6ab913b5bda74d549', 'audio': None, 'caseId': '0440103001000120180789', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:33', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:41', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6a93ca2cf94a4175a2bae66f93106e3b', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817499000, 'applicantIds': 'cccbf4a1b59a4ec181da7cdf7de92b60', 'audio': None, 'caseId': '0440105018000620180787', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:44:59', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:44:59', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d9f1670009d4689af5f2f711c8de565', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'f4c71b167c344a06b6efde5b5964f775', 'audio': None, 'caseId': '0440103001000120180784', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:57', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:44:26', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'e4e651f4c8f946f98dc250440564120e', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817436000, 'applicantIds': '9b9c98a5bf5848b58453928d69a59ae6', 'audio': None, 'caseId': '0440105018000620180783', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:56', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:56', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '671a8250415d4440b47d32cd4c86924d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545817423000, 'applicantIds': 'bba54e0d13114c1fb4b8ba0b6ceefb3b', 'audio': None, 'caseId': '0440103001000120180782', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:51', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '3165d043324c4080824737c8ff0503a5', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817333000, 'applicantIds': 'cce0a4880a2b4d08a38f29e5bcfbf229', 'audio': None, 'caseId': '0440105018000620180780', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:42:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:42:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'fc2a7d79e718459fa10cc0bf022e1fad', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ff0523fc7a09423b9f6902d729430e11', 'audio': None, 'caseId': '0440103001000120180777', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:53', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-26 17:41:39', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '4d1922b173214f51bb163a42f72b2871', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817252000, 'applicantIds': 'b768f210c4b44d01a53d6dce66319882', 'audio': None, 'caseId': '0440105018000620180776', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:52', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '65f17444d9e14ffcb31cc21625601606', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.145183</t>
   </si>
   <si>
     <t>files=data\声音1.mp3</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:40 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.352166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'audio', '用例描述': 'files=data\\声音1.mp3', 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'informer', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:40 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 2.352166, 'status_code': 200}
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:18 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.962504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'audio', '用例描述': 'files=data\\声音1.mp3', 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'informer', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:18 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.962504, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 203
 </t>
   </si>
@@ -1336,13 +1324,13 @@
     <t>{'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarInfo(IntelligentHelperServiceImpl.java:115)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarInfo(IntelligentHelperController.java:51)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarInfo(&lt;generated&gt;)', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:41 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.144934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarInfo', '用例描述': '', 'Input': {'code': '1'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.content', '!=', '""')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarInfo', 'Interface_description': '【智能辅调接口】根据纠纷类型获取类案', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarInfo(IntelligentHelperServiceImpl.java:115)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarInfo(IntelligentHelperController.java:51)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarInfo(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:41 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.144934, 'status_code': 200}
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:19 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.229168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarInfo', '用例描述': '', 'Input': {'code': '1'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.content', '!=', '""')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarInfo', 'Interface_description': '【智能辅调接口】根据纠纷类型获取类案', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarInfo(IntelligentHelperServiceImpl.java:115)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarInfo(IntelligentHelperController.java:51)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarInfo(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:19 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.229168, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 202
 </t>
   </si>
@@ -1365,10 +1353,10 @@
     <t>{'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarLaw(IntelligentHelperServiceImpl.java:147)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarLaw(IntelligentHelperController.java:62)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarLaw(&lt;generated&gt;)', 'pager': None}</t>
   </si>
   <si>
-    <t>0.152307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarLaw', '用例描述': '', 'Input': {'code': '9'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.id', '=', 'a4f241e1f5c1e9872f80ccb08a8d3576')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarLaw', 'Interface_description': '【智能辅调接口】根据纠纷类型获取法条', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarLaw(IntelligentHelperServiceImpl.java:147)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarLaw(IntelligentHelperController.java:62)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarLaw(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:41 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.152307, 'status_code': 200}
+    <t>0.155843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarLaw', '用例描述': '', 'Input': {'code': '9'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.id', '=', 'a4f241e1f5c1e9872f80ccb08a8d3576')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarLaw', 'Interface_description': '【智能辅调接口】根据纠纷类型获取法条', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarLaw(IntelligentHelperServiceImpl.java:147)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarLaw(IntelligentHelperController.java:62)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarLaw(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:19 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.155843, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 202
 </t>
   </si>
@@ -1391,7 +1379,10 @@
     <t>{'code': 200, 'data': {'content': [{'content': '人民调解的技巧与方法\n\n一、调解员应当学习做到“五会”\n（1）“听”——要求调解员做到不偏听、不偏信、不要先入为主的处理问题。\n（2）“问”——问清楚事情的来龙去脉，有针对性的一问一答，加强语言口才的思考。\n（3）“找”——找到纠纷问题的根源所在，解开双方的心结，避免误会的深入。\n（4）“诊”——诊断出矛盾的关键点，因人而宜、因事而异，化解纠纷。\n（5）“结”——通过调解彻底了结纠纷，不留隐患，制作《人民调解协议书》。\n\n二、调解员应当掌握的基本方法\n（1）“拉家常析症结”：通过与纠纷当事人拉家常从而拉进相互间的距离，从中找到矛盾症结所在，为调解工作找准切入点。\n（2）“分开谈明歧意”：在了解掌握纠纷症结的前提下，找出矛盾的焦点是关键。将双方僵持的当事人分开，分别进行谈话，询问各自诉求，找到双方主张的差距，有的放矢、循循善诱地开展教育引导。\n（3）“互谅解定方案”：调解员应当心平气和、耐心倾听、阐明利弊、动情晓理。用“法”理顺关系，用“理”化解隔阂，用“情”沟通思想，促使当事人换位思考，互谅互让，化针尖对麦芒为握手言和。\n（4）“赋真情促履行”：在调解的过程中，调解员应当做到“想当事人所想，解当事人所难”，使当事人充分感受到工作的公正和情感的真切，换来当事人从内心接受调解的方案，并主动履行协议。\n\n三、调解的技巧\n（1）语言技巧：在调解工作中，运用语言技巧，有助于调解工作的顺利进行。主要包括以下五个方面：一是语言降温、二是话语引人、三是用语适当、四是巧妙用语、五是引用谚语。\n（2）方法技巧：指在调解矛盾纠纷的过程中，针对具体的纠纷当事人的特点以及矛盾纠纷过程中不同阶段的不同特点，灵活巧妙的运用调解方式、方法的技能。调解方法灵活多样，不能一成不变。\n    主要包括以下十点内容：“冷却降温法”、“换位思考法”、“扶正祛邪法”、“逆向求助法”、“案例引导法”、“亲友疏导法”、“亲情融化法”、“舆论压迫法”、“背靠背处理法”、“过错剖析法”。\n', 'disputeType': 0, 'id': '5963763d5c6836590de011f63da8fa2e'}], 'pageable': {'sort': {'sorted': False, 'unsorted': True}, 'pageSize': 10, 'pageNumber': 0, 'offset': 0, 'paged': True, 'unpaged': False}, 'totalElements': 1, 'totalPages': 1, 'last': True, 'first': True, 'sort': {'sorted': False, 'unsorted': True}, 'numberOfElements': 1, 'size': 10, 'number': 0}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.158427</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:20 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.159342</t>
   </si>
   <si>
     <t>getCaseInfo</t>
@@ -1412,10 +1403,7 @@
     <t>{'code': 200, 'data': {'acceptDate': 1543334400000, 'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92', 'audio': None, 'caseId': '0440103001000120180040', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-11-28 13:41:12', 'difficultyLevel': '02', 'disputeContent': '张三和李四离婚，现在在争小孩的抚养权。', 'disputeDate': 1543334400000, 'disputeType': '1', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-06 17:11:44', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '01', 'mediatorId': '105002J1960043', 'picture': '', 'protocolContent': '123', 'protocolDate': 1543334400000, 'remark': '', 'respondentIds': 'cb2fd6b38e154beab97c1193a9f2dd6c', 'state': 3, 'type': 2, 'video': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:42 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.156231</t>
+    <t>0.166799</t>
   </si>
   <si>
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180040'), ('data.applicant.type', 'dict_list_dict,=', 1)]</t>
@@ -1424,7 +1412,7 @@
     <t>{'code': 200, 'data': {'applicant': [1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1], 'disputeCaseInfo': {'acceptDate': 1543334400000, 'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92', 'audio': None, 'caseId': '0440103001000120180040', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-11-28 13:41:12', 'difficultyLevel': '02', 'disputeContent': '张三和李四离婚，现在在争小孩的抚养权。', 'disputeDate': 1543334400000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-06 17:11:44', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': '', 'protocolContent': '123', 'protocolDate': 1543334400000, 'remark': '', 'respondentIds': 'cb2fd6b38e154beab97c1193a9f2dd6c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-11-28/3f37393e949b4102acf79be0ee1ced013.jpg', 'job': '', 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '南京市浦口区天华东路103号26幢1002室', 'partyIDNumber': '320682198403135590', 'partyIDType': '111', 'partyId': 'cb2fd6b38e154beab97c1193a9f2dd6c', 'partyName': '包坤涛', 'partyNum': 1, 'partyPhone': '', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.204526</t>
+    <t>0.194979</t>
   </si>
   <si>
     <t>getParties</t>
@@ -1439,16 +1427,19 @@
     <t>【书面调解快速调解接口】获取当事人信息</t>
   </si>
   <si>
-    <t>0.150125</t>
+    <t>0.141735</t>
   </si>
   <si>
     <t>{'committeeId': '4401030010001', 'disputeContent': 'balabala…', 'disputeType': '01', 'mediationDate': '2018-11-23'}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180771'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.141237</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180792'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:21 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.160509</t>
   </si>
   <si>
     <t>quick/saveCompany</t>
@@ -1463,22 +1454,19 @@
     <t>【书面调解快速调解接口】快速调解保存当事人信息(法人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,6ae04b822ae34bca86aebf5818d8af4a'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:43 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.159743</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,c4faa412e7914307bf7895870da46f9e'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.201845</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180040', 'partyIDNumber': '111111111111111111', 'partyIDType': '111', 'partyName': 'lily', 'partyType': '02', 'type': 1}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,5841036459b74f208f611feecbaf2221'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.186849</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,8d70a17707904aaabfa98aa2716f3580'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.21095</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180041', 'mediationResult': '01'}</t>
@@ -1490,7 +1478,10 @@
     <t>{'code': 200, 'data': {'caseId': '0440103001000120180041'}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.166709</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:22 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.187457</t>
   </si>
   <si>
     <t>uploadFile</t>
@@ -1502,13 +1493,10 @@
     <t>【书面调解快速调解接口】调解结果附件上传</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'picture': 'jpg/2018-12-26/a63cda5fe38a4700b1cc2bdca51619156.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:44 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.441223</t>
+    <t>{'code': 200, 'data': {'picture': 'jpg/2018-12-26/2ec54e3ceb90497681e6cb8cd0f974301.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.433342</t>
   </si>
   <si>
     <t>{'acceptDate': '2018-11-23', 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeType': '01', 'mediatorId': '105002J1960043'}</t>
@@ -1517,10 +1505,13 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'caseId')]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180772'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.177771</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180793'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:23 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.171148</t>
   </si>
   <si>
     <t>written/saveCompany</t>
@@ -1535,22 +1526,19 @@
     <t>【书面调解快速调解接口】书面调解保存当事人信息(法人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,2f764e78a92b4d8eb8366aa48fb1ef09'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:45 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.151655</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,dd7cf245cc1e4ac8b3c99fa729587969'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.151055</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180051', 'partyIDNumber': '111111111111111111', 'partyIDType': '111', 'partyName': '张三', 'partyNum': '1', 'partyType': '01', 'type': 1}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'b437472619f04bd6bbf239cd52ab1ad8,4a6ee07a79af42bba7bc7cd62e5f8370,70174aa69d6c4a3eb49b5a30d98dc911,24b427f7c13940ab8a2aab981ccc539f,c6efa0b35cc34cbfa283d55f8ffe6645,be7f028e2b3d4b569ffc62596db423d3,3c8d08c2dcce475fadcd39bf95901bb5,d87700607bd144e8924c13f3fb905b72,7052d2ac3e414a00a5b13c8ceff7eef0,89379c2f7b9f4f619a797904453100da,9b59c135dd6c4bce982b6fdfbd3b9026,e2b3731e218b43f78cf3f8e6e95a38ad,3b1c9b5e15d5452981d5eea05ee563bf,37bdaf1a6a204510b695f9f328497e8d,5a82c786c5434f0f98a99b693fe39ee3,8c0ec340ddb24de79529aa89c7b59fff,b301300de253430880683da9741c3067,362bed174df84ff1acdb8cb0a3e15339,7538bddd01b54af8a118c8c4a1e469c8'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.173012</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'b437472619f04bd6bbf239cd52ab1ad8,4a6ee07a79af42bba7bc7cd62e5f8370,70174aa69d6c4a3eb49b5a30d98dc911,24b427f7c13940ab8a2aab981ccc539f,c6efa0b35cc34cbfa283d55f8ffe6645,be7f028e2b3d4b569ffc62596db423d3,3c8d08c2dcce475fadcd39bf95901bb5,d87700607bd144e8924c13f3fb905b72,7052d2ac3e414a00a5b13c8ceff7eef0,89379c2f7b9f4f619a797904453100da,9b59c135dd6c4bce982b6fdfbd3b9026,e2b3731e218b43f78cf3f8e6e95a38ad,3b1c9b5e15d5452981d5eea05ee563bf,37bdaf1a6a204510b695f9f328497e8d,5a82c786c5434f0f98a99b693fe39ee3,8c0ec340ddb24de79529aa89c7b59fff,b301300de253430880683da9741c3067,362bed174df84ff1acdb8cb0a3e15339,0a61ccf2c912442ca5e318bc11030c42'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.159995</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180051', 'implementCondition': '01', 'implementType': '01', 'isSatisfied': '01', 'mediationResult': '01', 'money': 1000.0, 'protocolContent': 'balabala…', 'protocolDate': '2018-11-23'}</t>
@@ -1559,7 +1547,10 @@
     <t>{'code': 200, 'data': {'caseId': '0440103001000120180051'}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.158125</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:24 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.147083</t>
   </si>
   <si>
     <t>getMediator</t>
@@ -1577,10 +1568,7 @@
     <t>{'code': 200, 'data': {'appearance': '群众', 'birth': 993916800000, 'committeeID': '4401050180006', 'committeePosition': '委员', 'education': '普通高中', 'generateType': '推选', 'identityID': '440121196407012123', 'injured': None, 'introduction': None, 'isExperienced': None, 'isHire': '否', 'isPartTime': '兼职', 'location': '赤岗街道赤岗社区居民委员会人民调解委员会', 'marriageStatus': None, 'mediationID': None, 'meditorID': '105002J1960043', 'mobile': None, 'name': '汤杏养', 'nation': '汉族', 'otherRule': None, 'phone': '89663154', 'photo': None, 'position': None, 'profession': None, 'qualification': None, 'sex': '女', 'workUnit': None, 'workYear': 10, 'email': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.176194</t>
-  </si>
-  <si>
-    <t>后台报错</t>
+    <t>0.145877</t>
   </si>
   <si>
     <t>headers={"Content-Type":"application/json"}
@@ -1618,58 +1606,55 @@
     <t>{'code': 200, 'data': {'caseId': '0440105018000620180057', 'mediationAgreement': None, 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': None, 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:46 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.150146</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/b0fb6fccf6b645d293dfdefab31650035.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/9f1b87d85d4b4d9fba676ce661a52e001.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/0db83a7293a2486ca995d90b549281804.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:52 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.843121</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:56 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.572118</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/b0fb6fccf6b645d293dfdefab31650035.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/89c0daf85d594282af1522bb085ef4ce2.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/0db83a7293a2486ca995d90b549281804.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:46:59 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.191311</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:47:03 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.873654</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/079213e7af4046eea6a0a5bfa164768d9.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/89c0daf85d594282af1522bb085ef4ce2.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/0db83a7293a2486ca995d90b549281804.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:47:07 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.438024</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '6325992931014305a8fc5cd48310ea9e', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545810432620, 'applicantIds': '6325992931014305a8fc5cd48310ea9e', 'audio': None, 'caseId': '0440105018000620180773', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 15:47:12', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:47:12', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '89cb82edcf36410b88406896b4de527f', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-26/32d06071b7b84c968570800f65f591de7.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '89cb82edcf36410b88406896b4de527f', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:47:12 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.411884</t>
+    <t>0.15128</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/a8ed68c619d44b29ae91b00e265ac6d05.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/3e95af80a5d44b2fb1f4e09a48e67df89.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/493fdc766cc54861b664a3b5ed9e1b887.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:31 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>6.006509</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:35 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.957251</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/a8ed68c619d44b29ae91b00e265ac6d05.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/bec7bb60de2248a69d4e6f740b393da07.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/493fdc766cc54861b664a3b5ed9e1b887.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:39 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.717306</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:43 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.923046</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-26/6e52dce909384f90b44ec075aa57364e2.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-26/bec7bb60de2248a69d4e6f740b393da07.jpg', 'mediationSearchRecord': 'jpg/2018-12-26/493fdc766cc54861b664a3b5ed9e1b887.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:45 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.685834</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '90e47800207a414da64d55fc4269a858', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545817792235, 'applicantIds': '90e47800207a414da64d55fc4269a858', 'audio': None, 'caseId': '0440105018000620180794', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-26 17:49:52', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1d3d171e9edb4cbca9a0d3b31acf11be', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-26/ca3754c549484ea18b2948380aa067d48.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '1d3d171e9edb4cbca9a0d3b31acf11be', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 09:49:52 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.964055</t>
   </si>
   <si>
     <t>{'form': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '3c47fb4fbcaf49b5a9a5f23de90a42c2', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'caseId': '0440105018000620180119', 'infoVO': {'disputeContent': '2018年125日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤。王刚要求张兵赔德王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在米经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种张兵应当反过来赔偿自己的损长。', 'mediateDate': '2018-01-25', 'protocolContent': '一，张兵赔德王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张小美进行安抚和道歉二、王刚读担张兵所饲养的宠物狗被打伤后的全部治疗费用'}, 'mediatorId': '105002J1960043', 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '91e5935fad25468f9ffae4a69a921712', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}}</t>
@@ -1678,16 +1663,13 @@
     <t>{'code': 200, 'data': '0440105018000620180119', 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Wed, 26 Dec 2018 07:47:13 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.217016</t>
+    <t>0.244254</t>
   </si>
   <si>
     <t>{'caseId': '0440105018000620180119'}</t>
   </si>
   <si>
-    <t>0.147801</t>
+    <t>0.162079</t>
   </si>
 </sst>
 </file>
@@ -2097,10 +2079,10 @@
         <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -2136,10 +2118,10 @@
         <v>175</v>
       </c>
       <c r="P2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="R2" t="s">
         <v>39</v>
@@ -2148,7 +2130,7 @@
         <v>178</v>
       </c>
       <c r="T2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2234,13 +2216,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -2252,10 +2234,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -2267,13 +2249,13 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="O2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
@@ -2282,7 +2264,7 @@
         <v>178</v>
       </c>
       <c r="S2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2290,13 +2272,13 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -2308,10 +2290,10 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -2323,13 +2305,13 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -2338,7 +2320,7 @@
         <v>178</v>
       </c>
       <c r="S3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2346,13 +2328,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2364,10 +2346,10 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -2379,13 +2361,13 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O4" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="P4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
@@ -2480,13 +2462,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -2498,28 +2480,28 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>450</v>
+      </c>
+      <c r="O2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P2" t="s">
         <v>451</v>
-      </c>
-      <c r="J2" t="s">
-        <v>452</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>234</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P2" t="s">
-        <v>455</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
@@ -2533,13 +2515,13 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -2551,28 +2533,28 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J3" t="s">
         <v>248</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
         <v>249</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>250</v>
-      </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="O3" t="s">
+        <v>443</v>
+      </c>
+      <c r="P3" t="s">
         <v>454</v>
-      </c>
-      <c r="P3" t="s">
-        <v>458</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -2586,10 +2568,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
@@ -2604,10 +2586,10 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -2622,10 +2604,10 @@
         <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="P4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
@@ -2642,7 +2624,7 @@
         <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
@@ -2672,13 +2654,13 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O5" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q5" t="s">
         <v>39</v>
@@ -2692,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E6" t="s">
         <v>62</v>
@@ -2710,10 +2692,10 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
@@ -2725,13 +2707,13 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="O6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="P6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q6" t="s">
         <v>39</v>
@@ -2748,7 +2730,7 @@
         <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E7" t="s">
         <v>62</v>
@@ -2778,13 +2760,13 @@
         <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="O7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P7" t="s">
         <v>472</v>
-      </c>
-      <c r="P7" t="s">
-        <v>476</v>
       </c>
       <c r="Q7" t="s">
         <v>39</v>
@@ -2798,13 +2780,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2816,28 +2798,28 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" t="s">
         <v>232</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
         <v>233</v>
       </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>234</v>
-      </c>
       <c r="M8" t="s">
         <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q8" t="s">
         <v>39</v>
@@ -2851,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -2869,10 +2851,10 @@
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
@@ -2884,16 +2866,16 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P9" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="Q9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="R9" t="s">
         <v>39</v>
@@ -2907,13 +2889,13 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2925,28 +2907,28 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
+        <v>327</v>
+      </c>
+      <c r="J10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
         <v>329</v>
       </c>
-      <c r="J10" t="s">
-        <v>330</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>331</v>
-      </c>
       <c r="M10" t="s">
         <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="O10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q10" t="s">
         <v>39</v>
@@ -2960,10 +2942,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -2978,10 +2960,10 @@
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K11" t="s">
         <v>28</v>
@@ -2993,13 +2975,13 @@
         <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O11" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="P11" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Q11" t="s">
         <v>39</v>
@@ -3013,10 +2995,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D12" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E12" t="s">
         <v>62</v>
@@ -3031,10 +3013,10 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
@@ -3046,13 +3028,13 @@
         <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O12" t="s">
+        <v>486</v>
+      </c>
+      <c r="P12" t="s">
         <v>496</v>
-      </c>
-      <c r="P12" t="s">
-        <v>500</v>
       </c>
       <c r="Q12" t="s">
         <v>39</v>
@@ -3066,13 +3048,13 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E13" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -3084,28 +3066,28 @@
         <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K13" t="s">
         <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M13" t="s">
         <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O13" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q13" t="s">
         <v>39</v>
@@ -3197,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -3215,10 +3197,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -3230,13 +3212,13 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
@@ -3252,11 +3234,8 @@
       <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
-        <v>510</v>
-      </c>
       <c r="D3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -3268,10 +3247,10 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -3287,11 +3266,8 @@
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>510</v>
-      </c>
-      <c r="D4" t="s">
-        <v>514</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -3303,10 +3279,10 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -3401,10 +3377,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -3419,28 +3395,28 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="J2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O2" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="P2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
@@ -3454,13 +3430,13 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -3475,31 +3451,31 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="Q3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -3513,16 +3489,16 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -3534,31 +3510,31 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Q4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -3572,13 +3548,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
@@ -3593,31 +3569,31 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="P5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="Q5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="R5" t="s">
         <v>39</v>
@@ -3631,16 +3607,16 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -3652,31 +3628,31 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M6" t="s">
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P6" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Q6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
@@ -3690,13 +3666,13 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s">
         <v>62</v>
@@ -3711,31 +3687,31 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K7" t="s">
         <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M7" t="s">
         <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="P7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Q7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="R7" t="s">
         <v>39</v>
@@ -3749,10 +3725,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
         <v>305</v>
-      </c>
-      <c r="D8" t="s">
-        <v>307</v>
       </c>
       <c r="E8" t="s">
         <v>62</v>
@@ -3767,31 +3743,31 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
         <v>309</v>
       </c>
-      <c r="J8" t="s">
-        <v>310</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>311</v>
-      </c>
       <c r="O8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="P8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="Q8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -3808,7 +3784,7 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -3823,28 +3799,28 @@
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K9" t="s">
         <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M9" t="s">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="O9" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="P9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="Q9" t="s">
         <v>39</v>
@@ -3858,11 +3834,11 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s"/>
       <c r="D10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -3877,28 +3853,28 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" t="s">
+        <v>291</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
         <v>292</v>
       </c>
-      <c r="J10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>294</v>
-      </c>
       <c r="M10" t="s">
         <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="O10" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="P10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="Q10" t="s">
         <v>39</v>
@@ -4171,10 +4147,10 @@
         <v>54</v>
       </c>
       <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
         <v>55</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
       </c>
       <c r="R5" t="s">
         <v>39</v>
@@ -4191,13 +4167,13 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -4227,7 +4203,7 @@
         <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="s">
         <v>59</v>
@@ -4280,7 +4256,7 @@
         <v>67</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="s">
         <v>68</v>
@@ -4336,10 +4312,10 @@
         <v>67</v>
       </c>
       <c r="P8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" t="s">
         <v>73</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>74</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -4353,10 +4329,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -4374,10 +4350,10 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
         <v>77</v>
-      </c>
-      <c r="K9" t="s">
-        <v>78</v>
       </c>
       <c r="L9" t="s">
         <v>28</v>
@@ -4389,13 +4365,13 @@
         <v>28</v>
       </c>
       <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
         <v>79</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>80</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>73</v>
       </c>
       <c r="R9" t="s">
         <v>81</v>
@@ -4526,10 +4502,10 @@
         <v>86</v>
       </c>
       <c r="O2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" t="s">
         <v>87</v>
-      </c>
-      <c r="P2" t="s">
-        <v>88</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
@@ -4546,7 +4522,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -4561,10 +4537,10 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
         <v>90</v>
-      </c>
-      <c r="J3" t="s">
-        <v>91</v>
       </c>
       <c r="K3" t="s">
         <v>66</v>
@@ -4576,13 +4552,13 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
         <v>92</v>
-      </c>
-      <c r="O3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" t="s">
-        <v>93</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -4599,7 +4575,7 @@
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
@@ -4614,10 +4590,10 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
         <v>94</v>
-      </c>
-      <c r="J4" t="s">
-        <v>95</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -4629,10 +4605,10 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
         <v>96</v>
@@ -4793,7 +4769,7 @@
         <v>28</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s">
         <v>111</v>
@@ -5437,7 +5413,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>171</v>
@@ -5585,10 +5561,10 @@
         <v>186</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -5599,7 +5575,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>181</v>
@@ -5611,10 +5587,10 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -5638,10 +5614,10 @@
         <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q5" t="s">
         <v>193</v>
@@ -5697,7 +5673,7 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q6" t="s">
         <v>201</v>
@@ -5750,7 +5726,7 @@
         <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s">
         <v>205</v>
@@ -5812,10 +5788,10 @@
         <v>215</v>
       </c>
       <c r="P8" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q8" t="s">
         <v>216</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>217</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -5826,7 +5802,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
         <v>203</v>
@@ -5865,16 +5841,16 @@
         <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q9" t="s">
         <v>219</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>220</v>
-      </c>
-      <c r="R9" t="s">
-        <v>221</v>
       </c>
       <c r="S9" t="s">
         <v>39</v>
@@ -5885,7 +5861,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>195</v>
@@ -5894,13 +5870,13 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" t="s">
         <v>223</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>224</v>
-      </c>
-      <c r="G10" t="s">
-        <v>225</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -5924,13 +5900,13 @@
         <v>35</v>
       </c>
       <c r="O10" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q10" t="s">
         <v>226</v>
-      </c>
-      <c r="P10" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>227</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
@@ -5941,22 +5917,22 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
         <v>195</v>
       </c>
       <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>229</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>230</v>
-      </c>
-      <c r="G11" t="s">
-        <v>231</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -5968,25 +5944,25 @@
         <v>25</v>
       </c>
       <c r="K11" t="s">
+        <v>231</v>
+      </c>
+      <c r="L11" t="s">
         <v>232</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" t="s">
         <v>233</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" t="s">
-        <v>234</v>
       </c>
       <c r="O11" t="s">
         <v>200</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R11" t="s">
         <v>39</v>
@@ -5997,22 +5973,22 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
         <v>236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>237</v>
       </c>
       <c r="C12" t="s">
         <v>153</v>
       </c>
       <c r="E12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" t="s">
         <v>238</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>239</v>
-      </c>
-      <c r="G12" t="s">
-        <v>240</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -6036,13 +6012,13 @@
         <v>35</v>
       </c>
       <c r="O12" t="s">
+        <v>240</v>
+      </c>
+      <c r="P12" t="s">
         <v>241</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>242</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>243</v>
       </c>
       <c r="R12" t="s">
         <v>39</v>
@@ -6053,22 +6029,22 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
         <v>195</v>
       </c>
       <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
         <v>245</v>
       </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>246</v>
-      </c>
-      <c r="G13" t="s">
-        <v>247</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -6080,25 +6056,25 @@
         <v>25</v>
       </c>
       <c r="K13" t="s">
+        <v>247</v>
+      </c>
+      <c r="L13" t="s">
         <v>248</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
         <v>249</v>
       </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>250</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" t="s">
         <v>251</v>
-      </c>
-      <c r="P13" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>252</v>
       </c>
       <c r="R13" t="s">
         <v>39</v>
@@ -6205,7 +6181,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" t="s">
         <v>171</v>
@@ -6232,13 +6208,13 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q2" t="s">
         <v>254</v>
-      </c>
-      <c r="P2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>255</v>
       </c>
       <c r="R2" t="s">
         <v>39</v>
@@ -6288,16 +6264,16 @@
         <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q3" t="s">
         <v>256</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>257</v>
-      </c>
-      <c r="R3" t="s">
-        <v>258</v>
       </c>
       <c r="S3" t="s">
         <v>39</v>
@@ -6320,7 +6296,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
         <v>212</v>
@@ -6347,13 +6323,13 @@
         <v>35</v>
       </c>
       <c r="O4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" t="s">
         <v>260</v>
-      </c>
-      <c r="P4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>262</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -6364,7 +6340,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
@@ -6403,16 +6379,16 @@
         <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>262</v>
+      </c>
+      <c r="R5" t="s">
         <v>263</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>264</v>
-      </c>
-      <c r="R5" t="s">
-        <v>265</v>
       </c>
       <c r="S5" t="s">
         <v>39</v>
@@ -6435,10 +6411,10 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -6462,13 +6438,13 @@
         <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
@@ -6485,16 +6461,16 @@
         <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -6506,25 +6482,25 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L7" t="s">
         <v>232</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
         <v>233</v>
       </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>234</v>
-      </c>
       <c r="O7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R7" t="s">
         <v>39</v>
@@ -6538,19 +6514,19 @@
         <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
         <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -6574,13 +6550,13 @@
         <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -6591,22 +6567,22 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
         <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -6618,25 +6594,25 @@
         <v>25</v>
       </c>
       <c r="K9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" t="s">
         <v>248</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
         <v>249</v>
       </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
-        <v>250</v>
-      </c>
       <c r="O9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R9" t="s">
         <v>39</v>
@@ -6647,10 +6623,10 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>136</v>
@@ -6659,7 +6635,7 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G10" t="s">
         <v>131</v>
@@ -6689,10 +6665,10 @@
         <v>134</v>
       </c>
       <c r="P10" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
@@ -6703,22 +6679,22 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>153</v>
       </c>
       <c r="E11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" t="s">
         <v>283</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>284</v>
-      </c>
-      <c r="G11" t="s">
-        <v>285</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -6742,13 +6718,13 @@
         <v>35</v>
       </c>
       <c r="O11" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q11" t="s">
         <v>286</v>
-      </c>
-      <c r="P11" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>288</v>
       </c>
       <c r="R11" t="s">
         <v>39</v>
@@ -6759,22 +6735,22 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" t="s">
         <v>289</v>
-      </c>
-      <c r="C12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G12" t="s">
-        <v>291</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -6786,25 +6762,25 @@
         <v>25</v>
       </c>
       <c r="K12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" t="s">
+        <v>291</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
         <v>292</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>293</v>
       </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q12" t="s">
         <v>294</v>
-      </c>
-      <c r="O12" t="s">
-        <v>295</v>
-      </c>
-      <c r="P12" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>296</v>
       </c>
       <c r="R12" t="s">
         <v>39</v>
@@ -6815,10 +6791,10 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
         <v>129</v>
@@ -6827,7 +6803,7 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G13" t="s">
         <v>131</v>
@@ -6857,10 +6833,10 @@
         <v>134</v>
       </c>
       <c r="P13" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R13" t="s">
         <v>39</v>
@@ -6871,22 +6847,22 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
         <v>153</v>
       </c>
       <c r="E14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" t="s">
         <v>300</v>
-      </c>
-      <c r="F14" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" t="s">
-        <v>301</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -6910,13 +6886,13 @@
         <v>35</v>
       </c>
       <c r="O14" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>304</v>
       </c>
       <c r="R14" t="s">
         <v>39</v>
@@ -7014,19 +6990,19 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" t="s">
         <v>305</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>306</v>
-      </c>
-      <c r="F2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" t="s">
-        <v>308</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -7038,28 +7014,28 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" t="s">
         <v>309</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>310</v>
       </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>311</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>312</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>313</v>
-      </c>
-      <c r="R2" t="s">
-        <v>314</v>
       </c>
       <c r="S2" t="s">
         <v>39</v>
@@ -7073,19 +7049,19 @@
         <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" t="s">
         <v>315</v>
-      </c>
-      <c r="F3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3" t="s">
-        <v>317</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -7097,25 +7073,25 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M3" t="s">
         <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -7129,19 +7105,19 @@
         <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
         <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -7165,13 +7141,13 @@
         <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -7272,16 +7248,16 @@
         <v>195</v>
       </c>
       <c r="C2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" t="s">
         <v>326</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" t="s">
-        <v>328</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -7293,25 +7269,25 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
         <v>329</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>330</v>
       </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>331</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>332</v>
-      </c>
-      <c r="P2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>334</v>
       </c>
       <c r="R2" t="s">
         <v>39</v>
@@ -7361,16 +7337,16 @@
         <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>334</v>
+      </c>
+      <c r="R3" t="s">
         <v>335</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>336</v>
-      </c>
-      <c r="R3" t="s">
-        <v>337</v>
       </c>
       <c r="S3" t="s">
         <v>39</v>
@@ -7387,13 +7363,13 @@
         <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G4" t="s">
         <v>212</v>
@@ -7408,10 +7384,10 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -7420,13 +7396,13 @@
         <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -7437,7 +7413,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
@@ -7476,16 +7452,16 @@
         <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>343</v>
+      </c>
+      <c r="R5" t="s">
         <v>344</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>345</v>
-      </c>
-      <c r="R5" t="s">
-        <v>346</v>
       </c>
       <c r="S5" t="s">
         <v>39</v>
@@ -7502,16 +7478,16 @@
         <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -7523,10 +7499,10 @@
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M6" t="s">
         <v>28</v>
@@ -7535,13 +7511,13 @@
         <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
@@ -7558,16 +7534,16 @@
         <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -7579,25 +7555,25 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M7" t="s">
         <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="R7" t="s">
         <v>39</v>
@@ -7611,19 +7587,19 @@
         <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
         <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -7647,13 +7623,13 @@
         <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P8" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -7664,22 +7640,22 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
         <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -7691,25 +7667,25 @@
         <v>25</v>
       </c>
       <c r="K9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" t="s">
         <v>248</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
         <v>249</v>
       </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
-        <v>250</v>
-      </c>
       <c r="O9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Q9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R9" t="s">
         <v>39</v>
@@ -7720,10 +7696,10 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>136</v>
@@ -7732,7 +7708,7 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G10" t="s">
         <v>131</v>
@@ -7762,10 +7738,10 @@
         <v>134</v>
       </c>
       <c r="P10" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q10" t="s">
         <v>364</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>367</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
@@ -7776,22 +7752,22 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -7815,13 +7791,13 @@
         <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R11" t="s">
         <v>39</v>
@@ -7832,22 +7808,22 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -7859,25 +7835,25 @@
         <v>25</v>
       </c>
       <c r="K12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" t="s">
+        <v>291</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
         <v>292</v>
       </c>
-      <c r="L12" t="s">
-        <v>293</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" t="s">
-        <v>294</v>
-      </c>
       <c r="O12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P12" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R12" t="s">
         <v>39</v>
@@ -7888,22 +7864,22 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
@@ -7918,28 +7894,28 @@
         <v>25</v>
       </c>
       <c r="K13" t="s">
+        <v>376</v>
+      </c>
+      <c r="L13" t="s">
+        <v>377</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>292</v>
+      </c>
+      <c r="O13" t="s">
+        <v>378</v>
+      </c>
+      <c r="P13" t="s">
         <v>379</v>
       </c>
-      <c r="L13" t="s">
+      <c r="Q13" t="s">
         <v>380</v>
       </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" t="s">
-        <v>294</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="R13" t="s">
         <v>381</v>
-      </c>
-      <c r="P13" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>383</v>
-      </c>
-      <c r="R13" t="s">
-        <v>384</v>
       </c>
       <c r="S13" t="s">
         <v>39</v>
@@ -7950,25 +7926,25 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -7980,28 +7956,28 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M14" t="s">
         <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="R14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="S14" t="s">
         <v>39</v>
@@ -8012,22 +7988,22 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -8042,28 +8018,28 @@
         <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M15" t="s">
         <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O15" t="s">
+        <v>391</v>
+      </c>
+      <c r="P15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>393</v>
+      </c>
+      <c r="R15" t="s">
         <v>394</v>
-      </c>
-      <c r="P15" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>396</v>
-      </c>
-      <c r="R15" t="s">
-        <v>397</v>
       </c>
       <c r="S15" t="s">
         <v>39</v>
@@ -8074,25 +8050,25 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
@@ -8104,28 +8080,28 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M16" t="s">
         <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O16" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="S16" t="s">
         <v>39</v>
@@ -8136,22 +8112,22 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G17" t="s">
         <v>62</v>
@@ -8166,28 +8142,28 @@
         <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M17" t="s">
         <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O17" t="s">
+        <v>404</v>
+      </c>
+      <c r="P17" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>406</v>
+      </c>
+      <c r="R17" t="s">
         <v>407</v>
-      </c>
-      <c r="P17" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>409</v>
-      </c>
-      <c r="R17" t="s">
-        <v>410</v>
       </c>
       <c r="S17" t="s">
         <v>39</v>
@@ -8198,10 +8174,10 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
         <v>129</v>
@@ -8210,7 +8186,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G18" t="s">
         <v>131</v>
@@ -8240,10 +8216,10 @@
         <v>134</v>
       </c>
       <c r="P18" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R18" t="s">
         <v>39</v>
@@ -8254,22 +8230,22 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
         <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -8293,13 +8269,13 @@
         <v>35</v>
       </c>
       <c r="O19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P19" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="R19" t="s">
         <v>39</v>

--- a/InterfaceAuto/data/Intelligent_mediation_result.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t>Run</t>
   </si>
@@ -142,10 +142,10 @@
     <t>{'code': 200, 'data': {'complexCase': [{'audio': None, 'audioList': [], 'caseId': '3b5185a77f06bb9e186e91bbf5028a83', 'checkAddress': '广东省广州市海珠区泉塘路6号', 'checkCondition': '未发现异常', 'checkContent': '王记餐馆因为售卖不新鲜菜品导致多人食物中毒，拉肚子，现在有六个人在餐馆和老板争论维权要求赔偿，联系人号码15050561903。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 20:03:04', 'committeeId': '4401030010001', 'infoSource': 3, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.08, 'lng': 113.28, 'mobile': None, 'picture': 'jpg/2018-11-27/6f13bf7dd6594fbfbcb5c339d23db7ea0.jpg', 'pictureList': [], 'timeLine': '29天前', 'vedio': None, 'vedioList': [], 'warningGrade': 4, 'warningGradeDesc': None}, {'audio': None, 'audioList': [], 'caseId': '0e60ad88755dc44bbecbd86dcd324ecd', 'checkAddress': '广东省佛山市南海区海八东路1号', 'checkCondition': '未发现异常', 'checkContent': '锦江花园小区里有一栋居民楼出现高空抛物砸伤人事件，整栋楼的居民都不承认是自己扔的并发生争吵，联系人电话18053236225。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 20:00:35', 'committeeId': '4401030010001', 'infoSource': 2, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.07, 'lng': 113.18, 'mobile': None, 'picture': 'jpg/2018-11-27/7dcb137754344a5e815ce71680e54c6c3.jpg', 'pictureList': [], 'timeLine': '29天前', 'vedio': None, 'vedioList': [], 'warningGrade': 4, 'warningGradeDesc': None}], 'importantCase': [{'audio': None, 'audioList': [], 'caseId': 'a303ddf65dbc69594aafe2f0327b9a1f', 'checkAddress': '广东省广州市越秀区中山二路106号', 'checkCondition': '未发现异常', 'checkContent': '越秀区人民医院发生一起医患纠纷，一名医生给患者诊断错误开错药，现在患者家属正在医院索要赔偿，联系人电18360863739。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 19:57:52', 'committeeId': '4401030010001', 'infoSource': 4, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.13, 'lng': 113.29, 'mobile': None, 'picture': 'jpg/2018-11-27/968ae13931cb4dd69891481e3ecf4a490.jpg', 'pictureList': [], 'timeLine': '29天前', 'vedio': None, 'vedioList': [], 'warningGrade': 3, 'warningGradeDesc': None}, {'audio': None, 'audioList': [], 'caseId': '17f68d4de22fbb13a8cc2efd0a0a95ac', 'checkAddress': '广东省广州市从化区', 'checkCondition': '未发现异常', 'checkContent': '用人单位拖欠十二名，农民工工资农民工集体上门索要工资，联系电话18013818854。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 19:42:21', 'committeeId': '4401030010001', 'infoSource': 1, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.71, 'lng': 113.7, 'mobile': None, 'picture': 'jpg/2018-11-27/57b7f484199d4db4bd72dfe9fc27d7347.jpg', 'pictureList': [], 'timeLine': '29天前', 'vedio': None, 'vedioList': [], 'warningGrade': 3, 'warningGradeDesc': None}], 'caseID': None, 'total': 4}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:14 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.259823</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:43 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.242332</t>
   </si>
   <si>
     <t>200</t>
@@ -172,7 +172,7 @@
     <t>{'code': 200, 'data': {'audio': None, 'audioList': [], 'caseId': '3b5185a77f06bb9e186e91bbf5028a83', 'checkAddress': '广东省广州市海珠区泉塘路6号', 'checkCondition': '未发现异常', 'checkContent': '王记餐馆因为售卖不新鲜菜品导致多人食物中毒，拉肚子，现在有六个人在餐馆和老板争论维权要求赔偿，联系人号码15050561903。', 'checkPerson': '105002J1960043', 'checkPersonName': '汤杏养', 'checkStatus': 0, 'checkTime': '2018-11-27 20:03:04', 'committeeId': '4401030010001', 'infoSource': 3, 'infoSourceDesc': '信访', 'isCallPolice': 0, 'lat': 23.08, 'lng': 113.28, 'mobile': None, 'picture': 'jpg/2018-11-27/6f13bf7dd6594fbfbcb5c339d23db7ea0.jpg', 'pictureList': ['jpg/2018-11-27/6f13bf7dd6594fbfbcb5c339d23db7ea0.jpg'], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 4, 'warningGradeDesc': '疑难纠纷'}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.136165</t>
+    <t>0.154126</t>
   </si>
   <si>
     <t>queryForPage</t>
@@ -193,10 +193,13 @@
     <t>【纠纷排查接口】查询纠纷排查信息(分页)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'e5f1b2c327d22c7d67c1e3bc8a675c80', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:06:28', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'dc94902cfafd0d1458819b731303b7be', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:03:46', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '9d25f733a3bbd3d8f903d2b22036a87d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:00:01', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'b752d8ea1fd613e91427a4d862a864c0', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 08:56:04', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '909e666cd00c0df07e5f8c39647a6a6d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:48:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4ff30ef4b7469d1c7152f50a39f5830f', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:43:35', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '92b40ad2fa7b6ebe95cd3741782510a3', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:40:31', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '93b33aa6235dab8c3377fa5ec9886e73', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:45:51', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f5a3606535336ea3d0a4e49f4025b650', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '5a09c0404d1890c93f40d7af62dd0551', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:25:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 254}}</t>
-  </si>
-  <si>
-    <t>0.978077</t>
+    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '0c6fbe94ec28a4fe6e77a9f999446d3e', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:18:58', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '163d057a8055149b1cde1087c81dc9c0', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:16:28', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '5c8da1dce754e13bc562121ff2e59dc5', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:10:24', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'e5f1b2c327d22c7d67c1e3bc8a675c80', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:06:28', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'dc94902cfafd0d1458819b731303b7be', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:03:46', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '9d25f733a3bbd3d8f903d2b22036a87d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:00:01', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'b752d8ea1fd613e91427a4d862a864c0', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 08:56:04', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '909e666cd00c0df07e5f8c39647a6a6d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:48:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4ff30ef4b7469d1c7152f50a39f5830f', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:43:35', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '92b40ad2fa7b6ebe95cd3741782510a3', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:40:31', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 257}}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:44 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.17389</t>
   </si>
   <si>
     <t>必选无情况下不传参</t>
@@ -205,10 +208,7 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', '!=', []), ('data', 'list,key', ['audio', 'audioList', 'caseId', 'checkAddress', 'checkCondition', 'checkContent', 'checkPerson', 'checkPersonName', 'checkStatus', 'checkTime', 'committeeId', 'infoSource', 'infoSourceDesc', 'isCallPolice', 'lat', 'lng', 'mobile', 'picture', 'pictureList', 'timeLine', 'vedio', 'warningGradeDesc', 'vedioList', 'warningGrade'])]</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:15 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.134278</t>
+    <t>0.164728</t>
   </si>
   <si>
     <t>save</t>
@@ -235,10 +235,7 @@
     <t>{'code': 200, 'data': [], 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:16 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.174753</t>
+    <t>0.176599</t>
   </si>
   <si>
     <t>update</t>
@@ -253,7 +250,7 @@
     <t>【纠纷排查接口】更新纠纷排查信息</t>
   </si>
   <si>
-    <t>0.144806</t>
+    <t>0.166321</t>
   </si>
   <si>
     <t>upload_attachment</t>
@@ -271,13 +268,13 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\代用名身份证.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': ['jpg/2018-12-27/3b0729dad06e4e2db284321db77e82122.jpg'], 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:17 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.610906</t>
+    <t>{'code': 200, 'data': ['jpg/2018-12-27/1a1ef781bd4745e3a378451d343e227b9.jpg'], 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:45 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.642782</t>
   </si>
   <si>
     <t>query</t>
@@ -295,7 +292,10 @@
     <t>{'code': 200, 'data': {'address': '广州市荔湾区沙面大街18号地下', 'area': '街道', 'chargePerson': '尉仙雅', 'collectTime': None, 'committeeId': '4401030010001', 'committeeName': '沙面街翠洲社区居民委员会人民调解委员会', 'committeePic': None, 'committeeType': '居委会设调委会', 'createTime': 978278400000, 'email': None, 'faxNumber': '510000', 'fullMediatorCount': None, 'hzCommitteeType': None, 'partMediatorCount': None, 'phone': '020-81215219', 'postCode': None, 'remark': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.144985</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:46 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.172897</t>
   </si>
   <si>
     <t>{'info': {'address': 'string', 'area': 'string', 'chargePerson': 'string', 'collectTime': '2018-12-10T02:30:23.731Z', 'committeeId': 'string', 'committeeName': 'string', 'committeePic': 'string', 'committeeType': 'string', 'createTime': '2018-12-10T02:30:23.731Z', 'email': 'string', 'faxNumber': 'string', 'fullMediatorCount': 0, 'hzCommitteeType': 'string', 'partMediatorCount': 0, 'phone': 'string', 'postCode': 'string', 'remark': 'string'}}</t>
@@ -310,7 +310,7 @@
     <t>{'code': 200, 'data': None, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.137158</t>
+    <t>0.143626</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/committee/update</t>
@@ -319,7 +319,7 @@
     <t>【调解委员会接口】调解委员会信息更新</t>
   </si>
   <si>
-    <t>0.135537</t>
+    <t>0.134426</t>
   </si>
   <si>
     <t>interface_except</t>
@@ -365,13 +365,13 @@
     <t>【通用接口】身份证上传</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/354faf156fdb4d78a9a25c3dedbbb0050.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:20 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.201045</t>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/a967557bb24f4282b41b60eee9383f4b2.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:48 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.159451</t>
   </si>
   <si>
     <t>nationDictionary</t>
@@ -389,7 +389,10 @@
     <t>{'code': 200, 'data': [{'1': '汉族'}, {'2': '蒙古族'}, {'3': '回族'}, {'4': '藏族'}, {'5': '维吾尔族'}, {'6': '苗族'}, {'7': '彝族'}, {'8': '壮族'}, {'9': '布依族'}, {'10': '朝鲜族'}, {'11': '满族'}, {'12': '侗族'}, {'13': '瑶族'}, {'14': '白族'}, {'15': '土家族'}, {'16': '哈尼族'}, {'17': '哈萨克族'}, {'18': '傣族'}, {'19': '黎族'}, {'20': '傈僳族'}, {'21': '佤族'}, {'22': '畲族'}, {'23': '高山族'}, {'24': '拉祜族'}, {'25': '水族'}, {'26': '东乡族'}, {'27': '纳西族'}, {'28': '景颇族'}, {'29': '柯尔克孜族'}, {'30': '土族'}, {'31': '达斡尔族'}, {'32': '仫佬族'}, {'33': '羌族'}, {'34': '布朗族'}, {'35': '撒拉族'}, {'36': '毛南族'}, {'37': '仡佬族'}, {'38': '锡伯族'}, {'39': '阿昌族'}, {'40': '普米族'}, {'41': '塔吉克族'}, {'42': '怒族'}, {'43': '乌孜别克族'}, {'44': '俄罗斯族'}, {'45': '鄂温克族'}, {'46': '德昂族'}, {'47': '保安族'}, {'48': '裕固族'}, {'49': '京族'}, {'50': '塔塔尔族'}, {'51': '独龙族'}, {'52': '鄂伦春族'}, {'53': '赫哲族'}, {'54': '门巴族'}, {'55': '珞巴族'}, {'56': '基诺族'}, {'57': '其他'}, {'58': '外国血统'}], 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.189766</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:49 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.126442</t>
   </si>
   <si>
     <t>newIdentify</t>
@@ -432,7 +435,7 @@
     <t>{'code': 200, 'data': '修改成功', 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.141172</t>
+    <t>0.216189</t>
   </si>
   <si>
     <t>changeState</t>
@@ -447,10 +450,10 @@
     <t>【调解案件接口】案件状态更改接口</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:21 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.156718</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:50 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.147092</t>
   </si>
   <si>
     <t>getCaseDetail</t>
@@ -465,10 +468,10 @@
     <t>【调解案件接口】案件详情</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'acceptDate': 1543730751000, 'applicantIds': 'cd91b99450b142d0b51dd7c5a706a423', 'audio': None, 'caseId': '0440105018000620180057', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-02 14:05:51', 'difficultyLevel': None, 'disputeContent': '2018年11月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后,将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费;张兵认为王刚在未经自己允许的情况下擅自打伤其受狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1543075200000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:21', 'mediateAddress': None, 'mediateDate': 1543104000000, 'mediationId': None, 'mediationResult': '01', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '一、张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费并对受到惊吓的张美进行安抚和道歉;二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用。', 'protocolDate': None, 'remark': None, 'respondentIds': '7ac1ac1d1a6847d1892ff0631a70034a', 'state': 2, 'type': 2, 'video': None}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.153263</t>
+    <t>{'code': 200, 'data': {'acceptDate': 1543730751000, 'applicantIds': 'cd91b99450b142d0b51dd7c5a706a423', 'audio': None, 'caseId': '0440105018000620180057', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-02 14:05:51', 'difficultyLevel': None, 'disputeContent': '2018年11月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后,将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费;张兵认为王刚在未经自己允许的情况下擅自打伤其受狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1543075200000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:50', 'mediateAddress': None, 'mediateDate': 1543104000000, 'mediationId': None, 'mediationResult': '01', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '一、张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费并对受到惊吓的张美进行安抚和道歉;二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用。', 'protocolDate': None, 'remark': None, 'respondentIds': '7ac1ac1d1a6847d1892ff0631a70034a', 'state': 2, 'type': 2, 'video': None}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.139407</t>
   </si>
   <si>
     <t>getCaseHandleCount</t>
@@ -480,10 +483,10 @@
     <t>【调解案件接口】案件处理情况</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'mediatorCount': 160, 'supplyCount': 160, 'checkCount': 93}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.186073</t>
+    <t>{'code': 200, 'data': {'mediatorCount': 163, 'supplyCount': 163, 'checkCount': 96}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.16706</t>
   </si>
   <si>
     <t>getCaseInfoList</t>
@@ -498,13 +501,10 @@
     <t>【调解案件接口】调解案件列表</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180818', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:07:23', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:07:23', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872841000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180817', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:07:21', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:07:21', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180807', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:57', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:57', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872455000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180806', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:55', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:55', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180800', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 08:57:01', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 08:57:01', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872219000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180799', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 08:56:59', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 08:56:59', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180793', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:49:23', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:49:23', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817761000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180792', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:49:21', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:49:21', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180786', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-26 17:44:31', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:44:31', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545817469000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180785', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:44:29', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:44:29', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 2, 'total': 250}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:22 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.145729</t>
+    <t>{'code': 200, 'data': [{'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180839', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:55', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:55', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873594000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180838', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:54', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:54', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180832', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:17:22', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:17:22', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873441000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180831', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:17:21', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:17:21', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180825', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:11:19', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:11:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873078000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180824', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:11:18', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:11:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180818', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:07:23', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:07:23', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872841000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180817', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:07:21', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:07:21', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180807', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:57', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:57', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872455000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180806', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:55', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:55', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 2, 'total': 256}}</t>
+  </si>
+  <si>
+    <t>0.142691</t>
   </si>
   <si>
     <t>getRoomId</t>
@@ -519,10 +519,13 @@
     <t>【调解案件接口】获取房间号</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180057', 'roomId': '9841'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.143245</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180057', 'roomId': '1573'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:51 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.134179</t>
   </si>
   <si>
     <t>CaseNum</t>
@@ -555,16 +558,16 @@
     <t>{'code': 203, 'data': None, 'msg': '无数据', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:23 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>1.332623</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:52 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>1.123789</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t xml:space="preserve">case_data：{'CaseNum': 'case1', 'Module': 'informer', 'Interface': 'audio', '用例描述': '', 'QuotoSituation': None, 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'dispute_flow', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:23 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 1.332623, 'status_code': 200}
+    <t xml:space="preserve">case_data：{'CaseNum': 'case1', 'Module': 'informer', 'Interface': 'audio', '用例描述': '', 'QuotoSituation': None, 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'dispute_flow', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:52 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 1.123789, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 203
 </t>
   </si>
@@ -578,10 +581,7 @@
     <t>{'form': {'checkContent': '语音消息', 'infoSource': 1, 'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'picture': '', 'mobile': '', 'checkAddress': '广东省清远市佛冈县'}}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:24 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.267655</t>
+    <t>0.421154</t>
   </si>
   <si>
     <t>case3</t>
@@ -590,25 +590,28 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'list0,C=', {'checkContent': '语音消息', 'infoSource': 1, 'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'picture': '', 'mobile': '', 'checkAddress': '广东省清远市佛冈县'})]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '5c8da1dce754e13bc562121ff2e59dc5', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:10:24', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'e5f1b2c327d22c7d67c1e3bc8a675c80', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:06:28', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'dc94902cfafd0d1458819b731303b7be', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:03:46', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '9d25f733a3bbd3d8f903d2b22036a87d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:00:01', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'b752d8ea1fd613e91427a4d862a864c0', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 08:56:04', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '909e666cd00c0df07e5f8c39647a6a6d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:48:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4ff30ef4b7469d1c7152f50a39f5830f', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:43:35', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '92b40ad2fa7b6ebe95cd3741782510a3', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:40:31', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '93b33aa6235dab8c3377fa5ec9886e73', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:45:51', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f5a3606535336ea3d0a4e49f4025b650', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 15:37:48', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 255}}</t>
-  </si>
-  <si>
-    <t>0.288238</t>
+    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4624ecac134419a61e623f535eb139f9', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:30:53', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '0c6fbe94ec28a4fe6e77a9f999446d3e', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:18:58', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '163d057a8055149b1cde1087c81dc9c0', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:16:28', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '5c8da1dce754e13bc562121ff2e59dc5', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:10:24', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'e5f1b2c327d22c7d67c1e3bc8a675c80', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:06:28', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'dc94902cfafd0d1458819b731303b7be', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:03:46', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '9d25f733a3bbd3d8f903d2b22036a87d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:00:01', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'b752d8ea1fd613e91427a4d862a864c0', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 08:56:04', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '909e666cd00c0df07e5f8c39647a6a6d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:48:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4ff30ef4b7469d1c7152f50a39f5830f', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-26 17:43:35', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 258}}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:53 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.137385</t>
   </si>
   <si>
     <t>case4</t>
   </si>
   <si>
-    <t>{'caseCheckID': '5c8da1dce754e13bc562121ff2e59dc5'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200), ('data.caseId', '=', '5c8da1dce754e13bc562121ff2e59dc5')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '5c8da1dce754e13bc562121ff2e59dc5', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:10:24', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.132327</t>
+    <t>{'caseCheckID': '4624ecac134419a61e623f535eb139f9'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200), ('data.caseId', '=', '4624ecac134419a61e623f535eb139f9')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4624ecac134419a61e623f535eb139f9', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:30:53', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.147877</t>
   </si>
   <si>
     <t>case5</t>
@@ -629,13 +632,10 @@
     <t>【书面调解快速调解接口】快速调解保存案件信息</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180820'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:25 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.146248</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180841'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.144794</t>
   </si>
   <si>
     <t>case6</t>
@@ -647,13 +647,13 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.address', '=', '福建省龙岩市东城东宝路336号'), ('data.age', '=', 30), ('data.id', '=', '350802198808285516'), ('data.name', '=', '代用名'), ('data.nation', '=', '汉'), ('data.sex', '=', '男')]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/e8019b839cf54475adaa751bf1fa9ac67.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:27 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.152257</t>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/8ffee104719c4bcfa8a10552a0857f8b7.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:56 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.249716</t>
   </si>
   <si>
     <t>case7</t>
@@ -662,10 +662,10 @@
     <t>quick/saveNatural</t>
   </si>
   <si>
-    <t>{'case6_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/e8019b839cf54475adaa751bf1fa9ac67.jpg'], 'sex': '男', 'sexData': 1}}</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180820', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/e8019b839cf54475adaa751bf1fa9ac67.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
+    <t>{'case6_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/8ffee104719c4bcfa8a10552a0857f8b7.jpg'], 'sex': '男', 'sexData': 1}}</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180841', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/8ffee104719c4bcfa8a10552a0857f8b7.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
   </si>
   <si>
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'applicantIds')]</t>
@@ -677,43 +677,40 @@
     <t>【书面调解快速调解接口】快速调解保存当事人信息(自然人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'cdc9704922b2436b90f2f74638b1228b'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.163985</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.154878</t>
   </si>
   <si>
     <t>case8</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/7b82185c51ae43d6b18bf2a9349d00799.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:29 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.253895</t>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/e78dc412e11c474fa069ff078f3ab9929.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:58 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.087527</t>
   </si>
   <si>
     <t>case9</t>
   </si>
   <si>
-    <t>{'case8_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/7b82185c51ae43d6b18bf2a9349d00799.jpg'], 'sex': '男', 'sexData': 1}}</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180820', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/7b82185c51ae43d6b18bf2a9349d00799.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
+    <t>{'case8_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/e78dc412e11c474fa069ff078f3ab9929.jpg'], 'sex': '男', 'sexData': 1}}</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180841', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/e78dc412e11c474fa069ff078f3ab9929.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
   </si>
   <si>
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'respondentIds')]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'respondentIds': 'b7016308de5948e587739e9056be404b'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:30 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.154408</t>
+    <t>{'code': 200, 'data': {'respondentIds': '193090bd069f44dba64c9e329686c3ae'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.167853</t>
   </si>
   <si>
     <t>case10</t>
@@ -722,10 +719,10 @@
     <t>quick/saveResult</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180820', 'mediationResult': '01'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180820'), ('data', 'key', 'caseId')]</t>
+    <t>{'caseId': '0440103001000120180841', 'mediationResult': '01'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180841'), ('data', 'key', 'caseId')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/quick/saveResult</t>
@@ -740,7 +737,10 @@
 </t>
   </si>
   <si>
-    <t>0.204756</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:30:59 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.141284</t>
   </si>
   <si>
     <t>case11</t>
@@ -749,19 +749,19 @@
     <t>disputeCaseInfo</t>
   </si>
   <si>
-    <t>{'data': {'acceptDate': 1545873025000, 'applicantIds': 'cdc9704922b2436b90f2f74638b1228b', 'audio': None, 'caseId': '0440103001000120180820', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:25', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:30', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b7016308de5948e587739e9056be404b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case5_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '17', 'mediationAddress': '广东省清远市佛冈县', 'mediationDate': '2018-12-13'}}</t>
+    <t>{'data': {'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case5_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '17', 'mediationAddress': '广东省清远市佛冈县', 'mediationDate': '2018-12-13'}}</t>
   </si>
   <si>
     <t>{'page': 0, 'size': 10, 'state': 2}</t>
   </si>
   <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180820'), ('%data%applicantIds', '=', 'cdc9704922b2436b90f2f74638b1228b'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '道路交通事故纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', 'b7016308de5948e587739e9056be404b'), ('%data%type', '=', 1)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545873025000, 'applicantIds': 'cdc9704922b2436b90f2f74638b1228b', 'audio': None, 'caseId': '0440103001000120180820', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:25', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:30', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b7016308de5948e587739e9056be404b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872789000, 'applicantIds': 'f607b0fd2f404b8da2114f309377bb81', 'audio': None, 'caseId': '0440103001000120180813', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:29', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:34', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e47d749aeea46e2b73d3e1f5f166866', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872627000, 'applicantIds': '3be7d5429cb54b1fa9fd555c2e82b71b', 'audio': None, 'caseId': '0440103001000120180809', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:47', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:03:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'ddde885fbd1a4a6c8a30217ca6b58e26', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872402000, 'applicantIds': 'a643c17b31444c3889ce231a76d4cf8c', 'audio': None, 'caseId': '0440103001000120180802', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:02', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:07', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1d558c2c2a044906bc584b5e94615b3a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872164000, 'applicantIds': '89b2a25c9734438b81f143371cb8c911', 'audio': None, 'caseId': '0440103001000120180795', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 08:56:04', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 08:56:11', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb1a21e0564f4065a332c4ad810f6222', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817416000, 'applicantIds': '9dd9b95785774b739a752d29ff818c55', 'audio': None, 'caseId': '0440103001000120180781', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:36', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:42', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '89389ddb9ff84426bb5626e11038de5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817232000, 'applicantIds': '7e0de84fb14244a0a4738a9877c6e300', 'audio': None, 'caseId': '0440103001000120180774', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b628fadb131b4975bc1f5a11078ecca4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545809869000, 'applicantIds': '83039e1f7eb547ec89883e77a981a2f2', 'audio': None, 'caseId': '0440103001000120180760', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:37:49', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:37:54', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '5834e105c0e744d1a58b8c2cd2ab7f5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 161}}</t>
-  </si>
-  <si>
-    <t>0.152409</t>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180841'), ('%data%applicantIds', '=', 'f0301db1b4fb4d8db9e898593bf22124'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '道路交通事故纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', '193090bd069f44dba64c9e329686c3ae'), ('%data%type', '=', 1)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873538000, 'applicantIds': '3c1265b6bc4c4c26bb979f0c28f22d18', 'audio': None, 'caseId': '0440103001000120180834', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:18:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:05', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ca9e554040d45e692be570b8dcb492c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873389000, 'applicantIds': 'e6174e73198d46c18381b7a3f1e0a9ca', 'audio': None, 'caseId': '0440103001000120180827', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:29', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:34', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a1a47c3e048d4b72b85c45be5ff6f37c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873025000, 'applicantIds': 'cdc9704922b2436b90f2f74638b1228b', 'audio': None, 'caseId': '0440103001000120180820', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:25', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:30', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b7016308de5948e587739e9056be404b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872789000, 'applicantIds': 'f607b0fd2f404b8da2114f309377bb81', 'audio': None, 'caseId': '0440103001000120180813', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:29', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:34', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e47d749aeea46e2b73d3e1f5f166866', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872627000, 'applicantIds': '3be7d5429cb54b1fa9fd555c2e82b71b', 'audio': None, 'caseId': '0440103001000120180809', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:47', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:03:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'ddde885fbd1a4a6c8a30217ca6b58e26', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872402000, 'applicantIds': 'a643c17b31444c3889ce231a76d4cf8c', 'audio': None, 'caseId': '0440103001000120180802', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:02', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:07', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1d558c2c2a044906bc584b5e94615b3a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872164000, 'applicantIds': '89b2a25c9734438b81f143371cb8c911', 'audio': None, 'caseId': '0440103001000120180795', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 08:56:04', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 08:56:11', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb1a21e0564f4065a332c4ad810f6222', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817416000, 'applicantIds': '9dd9b95785774b739a752d29ff818c55', 'audio': None, 'caseId': '0440103001000120180781', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:36', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:42', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '89389ddb9ff84426bb5626e11038de5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 164}}</t>
+  </si>
+  <si>
+    <t>0.219553</t>
   </si>
   <si>
     <t>case12</t>
@@ -770,10 +770,10 @@
     <t>getFullCaseInfo</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180820'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180820'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180820', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/e8019b839cf54475adaa751bf1fa9ac67.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180820', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/7b82185c51ae43d6b18bf2a9349d00799.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545873025000, 'applicantIds': 'cdc9704922b2436b90f2f74638b1228b', 'audio': None, 'caseId': '0440103001000120180820', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:25', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:30', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b7016308de5948e587739e9056be404b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
+    <t>{'caseId': '0440103001000120180841'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180841'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180841', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/8ffee104719c4bcfa8a10552a0857f8b7.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180841', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/e78dc412e11c474fa069ff078f3ab9929.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/getFullCaseInfo</t>
@@ -788,121 +788,121 @@
 </t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-27/e8019b839cf54475adaa751bf1fa9ac67.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': 'cdc9704922b2436b90f2f74638b1228b', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545873025000, 'applicantIds': 'cdc9704922b2436b90f2f74638b1228b', 'audio': None, 'caseId': '0440103001000120180820', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:25', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:30', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b7016308de5948e587739e9056be404b', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-27/7b82185c51ae43d6b18bf2a9349d00799.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': 'b7016308de5948e587739e9056be404b', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:31 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.153715</t>
+    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-27/8ffee104719c4bcfa8a10552a0857f8b7.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': 'f0301db1b4fb4d8db9e898593bf22124', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-27/e78dc412e11c474fa069ff078f3ab9929.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '193090bd069f44dba64c9e329686c3ae', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.137726</t>
   </si>
   <si>
     <t>{'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '14', 'mediationAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediationDate': '2018-12-14'}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180821'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.147783</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/954d5e96316f4a07bfe7bb83808192c80.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:33 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.259918</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180821', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/954d5e96316f4a07bfe7bb83808192c80.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.163936</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/9f868b488ac640f7aac29f23bcd5823f6.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:36 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.172165</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180821', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/9f868b488ac640f7aac29f23bcd5823f6.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'respondentIds': '88118fb4148f49399c2fc77f579b64a6'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.148091</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180821', 'mediationResult': '02'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180821'), ('data', 'key', 'caseId')]</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:37 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.183038</t>
-  </si>
-  <si>
-    <t>{'data': {'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case1_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '14', 'mediationAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediationDate': '2018-12-14'}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180821'), ('%data%applicantIds', '=', '46dbbcf100204c2d8ed3d7fe1222803a'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '电子商务纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县高岗镇高镇村(近829县道)'), ('%data%mediationResult', '=', '调解不成功'), ('%data%respondentIds', '=', '88118fb4148f49399c2fc77f579b64a6')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873025000, 'applicantIds': 'cdc9704922b2436b90f2f74638b1228b', 'audio': None, 'caseId': '0440103001000120180820', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:25', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:30', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b7016308de5948e587739e9056be404b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872789000, 'applicantIds': 'f607b0fd2f404b8da2114f309377bb81', 'audio': None, 'caseId': '0440103001000120180813', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:29', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:34', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e47d749aeea46e2b73d3e1f5f166866', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872627000, 'applicantIds': '3be7d5429cb54b1fa9fd555c2e82b71b', 'audio': None, 'caseId': '0440103001000120180809', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:47', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:03:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'ddde885fbd1a4a6c8a30217ca6b58e26', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872402000, 'applicantIds': 'a643c17b31444c3889ce231a76d4cf8c', 'audio': None, 'caseId': '0440103001000120180802', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:02', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:07', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1d558c2c2a044906bc584b5e94615b3a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872164000, 'applicantIds': '89b2a25c9734438b81f143371cb8c911', 'audio': None, 'caseId': '0440103001000120180795', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 08:56:04', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 08:56:11', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb1a21e0564f4065a332c4ad810f6222', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817416000, 'applicantIds': '9dd9b95785774b739a752d29ff818c55', 'audio': None, 'caseId': '0440103001000120180781', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:36', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:42', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '89389ddb9ff84426bb5626e11038de5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817232000, 'applicantIds': '7e0de84fb14244a0a4738a9877c6e300', 'audio': None, 'caseId': '0440103001000120180774', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b628fadb131b4975bc1f5a11078ecca4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 162}}</t>
-  </si>
-  <si>
-    <t>0.170974</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180821'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180821'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180821', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/954d5e96316f4a07bfe7bb83808192c80.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180821', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/9f868b488ac640f7aac29f23bcd5823f6.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/954d5e96316f4a07bfe7bb83808192c80.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '46dbbcf100204c2d8ed3d7fe1222803a', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/9f868b488ac640f7aac29f23bcd5823f6.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '88118fb4148f49399c2fc77f579b64a6', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.159019</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180821', 'state': 3}</t>
-  </si>
-  <si>
-    <t>0.175726</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180821', 'data': {'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:38', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}}</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180842'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:00 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.158225</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/7b71a9d7fa964bdd81f64a238f2f5f4e6.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:02 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.763166</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180842', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/7b71a9d7fa964bdd81f64a238f2f5f4e6.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:03 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.202573</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/24a2b15f338040b2a98f4550c72da0845.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:05 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.597548</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180842', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/24a2b15f338040b2a98f4550c72da0845.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:06 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.224555</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180842', 'mediationResult': '02'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180842'), ('data', 'key', 'caseId')]</t>
+  </si>
+  <si>
+    <t>0.144753</t>
+  </si>
+  <si>
+    <t>{'data': {'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:06', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case1_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '14', 'mediationAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediationDate': '2018-12-14'}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180842'), ('%data%applicantIds', '=', '7a8f2b31eb964037b26cb0805d4fd2a2'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '电子商务纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县高岗镇高镇村(近829县道)'), ('%data%mediationResult', '=', '调解不成功'), ('%data%respondentIds', '=', '061f10f7fe004c1a9852a7ac1f08529d')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:06', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873538000, 'applicantIds': '3c1265b6bc4c4c26bb979f0c28f22d18', 'audio': None, 'caseId': '0440103001000120180834', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:18:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:05', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ca9e554040d45e692be570b8dcb492c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873389000, 'applicantIds': 'e6174e73198d46c18381b7a3f1e0a9ca', 'audio': None, 'caseId': '0440103001000120180827', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:29', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:34', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a1a47c3e048d4b72b85c45be5ff6f37c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873025000, 'applicantIds': 'cdc9704922b2436b90f2f74638b1228b', 'audio': None, 'caseId': '0440103001000120180820', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:25', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:30', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b7016308de5948e587739e9056be404b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872789000, 'applicantIds': 'f607b0fd2f404b8da2114f309377bb81', 'audio': None, 'caseId': '0440103001000120180813', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:29', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:34', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e47d749aeea46e2b73d3e1f5f166866', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872627000, 'applicantIds': '3be7d5429cb54b1fa9fd555c2e82b71b', 'audio': None, 'caseId': '0440103001000120180809', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:47', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:03:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'ddde885fbd1a4a6c8a30217ca6b58e26', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872402000, 'applicantIds': 'a643c17b31444c3889ce231a76d4cf8c', 'audio': None, 'caseId': '0440103001000120180802', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:02', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:07', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1d558c2c2a044906bc584b5e94615b3a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872164000, 'applicantIds': '89b2a25c9734438b81f143371cb8c911', 'audio': None, 'caseId': '0440103001000120180795', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 08:56:04', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 08:56:11', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb1a21e0564f4065a332c4ad810f6222', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 165}}</t>
+  </si>
+  <si>
+    <t>0.155016</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180842'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180842'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180842', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/7b71a9d7fa964bdd81f64a238f2f5f4e6.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180842', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/24a2b15f338040b2a98f4550c72da0845.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:06', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/7b71a9d7fa964bdd81f64a238f2f5f4e6.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '7a8f2b31eb964037b26cb0805d4fd2a2', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:06', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/24a2b15f338040b2a98f4550c72da0845.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '061f10f7fe004c1a9852a7ac1f08529d', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:07 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.153931</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180842', 'state': 3}</t>
+  </si>
+  <si>
+    <t>0.145661</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180842', 'data': {'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:07', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}}</t>
   </si>
   <si>
     <t>{'page': 0, 'size': 100, 'state': 3}</t>
   </si>
   <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180821'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:38', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872870000, 'applicantIds': '90930d1767b640bfa1704aec68f1793e', 'audio': None, 'caseId': '0440105018000620180819', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:07:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:07:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'f74fab09445b43248bdd1419b0eaded3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '15d4f131b35248888fc98d7c10195123', 'audio': None, 'caseId': '0440103001000120180816', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:07:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '1b0884227ef240edb9bac5d0adffb12b', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872808000, 'applicantIds': '6121fc31801f4e358befb2fdc92f91a2', 'audio': None, 'caseId': '0440105018000620180815', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '84e4b2d757c4482c8777ad763a573e5c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872795000, 'applicantIds': '358d17fd19954fa0a91d9fd75f43f772', 'audio': None, 'caseId': '0440103001000120180814', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:35', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:42', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e3a14b7406d47b1a883bfd691f0ce70', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1544716800000, 'applicantIds': 'b8c3c8490ccd4407a93b87e91f51da3e', 'audio': None, 'caseId': '0440103001000120180812', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:09', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:04:15', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '881531faf4fa48059aff8c8377015ca3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872648000, 'applicantIds': 'ab384b73046e4f829a8f3456b9975b16', 'audio': None, 'caseId': '0440105018000620180811', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:08', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:08', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '83c6a86822c44d9e934586fff610da79', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872634000, 'applicantIds': '07a1a2c19295402c86be6452104bab85', 'audio': None, 'caseId': '0440103001000120180810', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:02', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cec5ee682e894dcebb8c5e0fe4c347da', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872485000, 'applicantIds': 'a08214eedec34d27b3d6da5d8defa49e', 'audio': None, 'caseId': '0440105018000620180808', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:01:25', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:01:25', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd4c26396fb494ee39bfcdfb1123de0dc', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '0a87cadac5d74f78804f39786ea3527a', 'audio': None, 'caseId': '0440103001000120180805', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:23', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:00:51', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'f06a6cbdce4a4d8c9989fd371a82db4e', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:38 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.160997</t>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180842'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:07', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873623000, 'applicantIds': '00f48e949ae04464bfcbcf406cf05b25', 'audio': None, 'caseId': '0440105018000620180840', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:20:23', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:20:23', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '7cdbd73c8a6945448ad0f697fe1f6a32', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '9333f6f3dc8a4cc9892f13d2733ecd2e', 'audio': None, 'caseId': '0440103001000120180837', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:21', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:19:50', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '90b9ffbf2c3c4503a60c6f8a17a6d184', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873560000, 'applicantIds': '428bd739054345cfb27af6dfec5b6d78', 'audio': None, 'caseId': '0440105018000620180836', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:20', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:20', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ef74406f346b4b2cb2c586041e47ffe1', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873546000, 'applicantIds': '5dfa8d7a47ab4fe4a79e1abf421b7eaf', 'audio': None, 'caseId': '0440103001000120180835', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:06', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:14', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'dca5037164544781be0e140e88744dfa', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873470000, 'applicantIds': 'f7b51f15282a418aae2bc1ab6fb35512', 'audio': None, 'caseId': '0440105018000620180833', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:17:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:17:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ddccb544f5d34875becde64ff13e3cb9', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '5326fdf8cb07497ba74783fe5e8e1e74', 'audio': None, 'caseId': '0440103001000120180830', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:17:17', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'c536f3a5ebd94b369a989403df0b155c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873408000, 'applicantIds': 'cf93fbbeb16f4f168c69264b2d43437e', 'audio': None, 'caseId': '0440105018000620180829', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d2dce5bcb4e46ba97b02d18c8fd5168', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873395000, 'applicantIds': 'cd152c8015f34416b289ef16eaa2b36d', 'audio': None, 'caseId': '0440103001000120180828', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:35', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:43', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6ab73087856b4723933ea53abfd83a12', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873107000, 'applicantIds': '60e59ee360da4bed93b56fb8e54c9b8c', 'audio': None, 'caseId': '0440105018000620180826', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:11:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:11:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '88607f27d00c4709a53fb9239dd78e55', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.139593</t>
   </si>
   <si>
     <t>record</t>
@@ -911,7 +911,7 @@
     <t>uploadSituation</t>
   </si>
   <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180821')]</t>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180842')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/record/uploadSituation</t>
@@ -924,40 +924,40 @@
 </t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180821', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180821', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180821', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.180451</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180821', 'inputState': 2}</t>
-  </si>
-  <si>
-    <t>0.174484</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180842', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180842', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180842', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:08 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.136271</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180842', 'inputState': 2}</t>
+  </si>
+  <si>
+    <t>0.181219</t>
   </si>
   <si>
     <t>case13</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180821', 'data': {'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:39', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case12_input': {'caseId': '0440103001000120180821', 'inputState': 2}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180821'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1), ('%data%type', '=', 1)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:39', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872870000, 'applicantIds': '90930d1767b640bfa1704aec68f1793e', 'audio': None, 'caseId': '0440105018000620180819', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:07:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:07:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'f74fab09445b43248bdd1419b0eaded3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '15d4f131b35248888fc98d7c10195123', 'audio': None, 'caseId': '0440103001000120180816', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:07:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '1b0884227ef240edb9bac5d0adffb12b', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872808000, 'applicantIds': '6121fc31801f4e358befb2fdc92f91a2', 'audio': None, 'caseId': '0440105018000620180815', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '84e4b2d757c4482c8777ad763a573e5c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872795000, 'applicantIds': '358d17fd19954fa0a91d9fd75f43f772', 'audio': None, 'caseId': '0440103001000120180814', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:35', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:42', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e3a14b7406d47b1a883bfd691f0ce70', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1544716800000, 'applicantIds': 'b8c3c8490ccd4407a93b87e91f51da3e', 'audio': None, 'caseId': '0440103001000120180812', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:09', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:04:15', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '881531faf4fa48059aff8c8377015ca3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872648000, 'applicantIds': 'ab384b73046e4f829a8f3456b9975b16', 'audio': None, 'caseId': '0440105018000620180811', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:08', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:08', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '83c6a86822c44d9e934586fff610da79', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872634000, 'applicantIds': '07a1a2c19295402c86be6452104bab85', 'audio': None, 'caseId': '0440103001000120180810', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:02', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cec5ee682e894dcebb8c5e0fe4c347da', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872485000, 'applicantIds': 'a08214eedec34d27b3d6da5d8defa49e', 'audio': None, 'caseId': '0440105018000620180808', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:01:25', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:01:25', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd4c26396fb494ee39bfcdfb1123de0dc', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '0a87cadac5d74f78804f39786ea3527a', 'audio': None, 'caseId': '0440103001000120180805', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:23', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:00:51', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'f06a6cbdce4a4d8c9989fd371a82db4e', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:39 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.142493</t>
+    <t>{'caseId': '0440103001000120180842', 'data': {'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:08', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case12_input': {'caseId': '0440103001000120180842', 'inputState': 2}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180842'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1), ('%data%type', '=', 1)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:08', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873623000, 'applicantIds': '00f48e949ae04464bfcbcf406cf05b25', 'audio': None, 'caseId': '0440105018000620180840', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:20:23', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:20:23', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '7cdbd73c8a6945448ad0f697fe1f6a32', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '9333f6f3dc8a4cc9892f13d2733ecd2e', 'audio': None, 'caseId': '0440103001000120180837', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:21', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:19:50', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '90b9ffbf2c3c4503a60c6f8a17a6d184', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873560000, 'applicantIds': '428bd739054345cfb27af6dfec5b6d78', 'audio': None, 'caseId': '0440105018000620180836', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:20', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:20', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ef74406f346b4b2cb2c586041e47ffe1', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873546000, 'applicantIds': '5dfa8d7a47ab4fe4a79e1abf421b7eaf', 'audio': None, 'caseId': '0440103001000120180835', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:06', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:14', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'dca5037164544781be0e140e88744dfa', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873470000, 'applicantIds': 'f7b51f15282a418aae2bc1ab6fb35512', 'audio': None, 'caseId': '0440105018000620180833', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:17:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:17:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ddccb544f5d34875becde64ff13e3cb9', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '5326fdf8cb07497ba74783fe5e8e1e74', 'audio': None, 'caseId': '0440103001000120180830', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:17:17', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'c536f3a5ebd94b369a989403df0b155c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873408000, 'applicantIds': 'cf93fbbeb16f4f168c69264b2d43437e', 'audio': None, 'caseId': '0440105018000620180829', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d2dce5bcb4e46ba97b02d18c8fd5168', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873395000, 'applicantIds': 'cd152c8015f34416b289ef16eaa2b36d', 'audio': None, 'caseId': '0440103001000120180828', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:35', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:43', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6ab73087856b4723933ea53abfd83a12', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873107000, 'applicantIds': '60e59ee360da4bed93b56fb8e54c9b8c', 'audio': None, 'caseId': '0440105018000620180826', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:11:47', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:11:47', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '88607f27d00c4709a53fb9239dd78e55', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.139068</t>
   </si>
   <si>
     <t>recognize</t>
   </si>
   <si>
-    <t>{'applicantList': {'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '74a758f2c52540fbb5145a6901167962', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}, 'disputeCaseInfo': {'acceptDate': 1545873044572, 'applicantIds': '74a758f2c52540fbb5145a6901167962', 'audio': None, 'caseId': '0440105018000620180822', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:44', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:44', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8f2c93d605d14eb8b8435a6331209cba', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondentList': {'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '8f2c93d605d14eb8b8435a6331209cba', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}}</t>
+    <t>{'applicantList': {'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'f0e586da66324e488540872d5b8afcc8', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}, 'disputeCaseInfo': {'acceptDate': 1545874273976, 'applicantIds': 'f0e586da66324e488540872d5b8afcc8', 'audio': None, 'caseId': '0440105018000620180843', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ed50bbe6b9c5445da97eba7831a7617c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondentList': {'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'ed50bbe6b9c5445da97eba7831a7617c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}}</t>
   </si>
   <si>
     <t>{'mediatorId': '105002J1960043'}</t>
@@ -975,22 +975,22 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\调解协议书.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '74a758f2c52540fbb5145a6901167962', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545873044572, 'applicantIds': '74a758f2c52540fbb5145a6901167962', 'audio': None, 'caseId': '0440105018000620180822', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:44', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:44', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8f2c93d605d14eb8b8435a6331209cba', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/f4d8d7606c0e4b4babb9dd631615b0636.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '8f2c93d605d14eb8b8435a6331209cba', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:44 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.331249</t>
-  </si>
-  <si>
-    <t>{'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '74a758f2c52540fbb5145a6901167962', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545873044572, 'applicantIds': '74a758f2c52540fbb5145a6901167962', 'audio': None, 'caseId': '0440105018000620180822', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:44', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:44', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8f2c93d605d14eb8b8435a6331209cba', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/f4d8d7606c0e4b4babb9dd631615b0636.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '8f2c93d605d14eb8b8435a6331209cba', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '74a758f2c52540fbb5145a6901167962', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '8f2c93d605d14eb8b8435a6331209cba', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}], 'caseId': '0440105018000620180822', 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'mediatorId': '105002J1960043'}</t>
-  </si>
-  <si>
-    <t>{'form': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '74a758f2c52540fbb5145a6901167962', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'caseId': '0440105018000620180822', 'infoVO': {'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'}, 'mediatorId': '105002J1960043', 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '8f2c93d605d14eb8b8435a6331209cba', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('data', '=', '0440105018000620180822')]</t>
+    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'f0e586da66324e488540872d5b8afcc8', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545874273976, 'applicantIds': 'f0e586da66324e488540872d5b8afcc8', 'audio': None, 'caseId': '0440105018000620180843', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ed50bbe6b9c5445da97eba7831a7617c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/6aae3986141a412a83b96718d6a78b236.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'ed50bbe6b9c5445da97eba7831a7617c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:13 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.2699</t>
+  </si>
+  <si>
+    <t>{'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'f0e586da66324e488540872d5b8afcc8', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545874273976, 'applicantIds': 'f0e586da66324e488540872d5b8afcc8', 'audio': None, 'caseId': '0440105018000620180843', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ed50bbe6b9c5445da97eba7831a7617c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/6aae3986141a412a83b96718d6a78b236.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'ed50bbe6b9c5445da97eba7831a7617c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'f0e586da66324e488540872d5b8afcc8', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'ed50bbe6b9c5445da97eba7831a7617c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}], 'caseId': '0440105018000620180843', 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'mediatorId': '105002J1960043'}</t>
+  </si>
+  <si>
+    <t>{'form': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'f0e586da66324e488540872d5b8afcc8', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'caseId': '0440105018000620180843', 'infoVO': {'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'}, 'mediatorId': '105002J1960043', 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'ed50bbe6b9c5445da97eba7831a7617c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('data', '=', '0440105018000620180843')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/record/save</t>
@@ -999,25 +999,25 @@
     <t>【案件补录接口】补录信息提交</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': '0440105018000620180822', 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.150111</t>
-  </si>
-  <si>
-    <t>{'case1_data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '74a758f2c52540fbb5145a6901167962', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545873044572, 'applicantIds': '74a758f2c52540fbb5145a6901167962', 'audio': None, 'caseId': '0440105018000620180822', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:44', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:44', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8f2c93d605d14eb8b8435a6331209cba', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/f4d8d7606c0e4b4babb9dd631615b0636.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '8f2c93d605d14eb8b8435a6331209cba', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'caseId': '0440105018000620180822', 'applicantList_partyId': '74a758f2c52540fbb5145a6901167962', 'respondentList_partyId': '8f2c93d605d14eb8b8435a6331209cba', 'disputeCaseInfo': {'acceptDate': 1545873044572, 'applicantIds': '74a758f2c52540fbb5145a6901167962', 'audio': None, 'caseId': '0440105018000620180822', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:44', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:44', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8f2c93d605d14eb8b8435a6331209cba', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'data': {'acceptDate': 1545873045000, 'applicantIds': '74a758f2c52540fbb5145a6901167962', 'audio': None, 'caseId': '0440105018000620180822', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:45', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8f2c93d605d14eb8b8435a6331209cba', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440105018000620180822'), ('%data%applicantIds', '=', '74a758f2c52540fbb5145a6901167962'), ('%data%respondentIds', '=', '8f2c93d605d14eb8b8435a6331209cba'), ('%data%committeeId', '=', '4401050180006'), ('%data%disputeContent', '=', '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。'), ('%data%mediationResult', '=', '调解成功'), ('%data%mediatorId', '=', '105002J1960043'), ('%data%protocolContent', '=', '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 4), ('%data%type', '=', 2)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545873045000, 'applicantIds': '74a758f2c52540fbb5145a6901167962', 'audio': None, 'caseId': '0440105018000620180822', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:45', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8f2c93d605d14eb8b8435a6331209cba', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:39', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872870000, 'applicantIds': '90930d1767b640bfa1704aec68f1793e', 'audio': None, 'caseId': '0440105018000620180819', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:07:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:07:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'f74fab09445b43248bdd1419b0eaded3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '15d4f131b35248888fc98d7c10195123', 'audio': None, 'caseId': '0440103001000120180816', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:07:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '1b0884227ef240edb9bac5d0adffb12b', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872808000, 'applicantIds': '6121fc31801f4e358befb2fdc92f91a2', 'audio': None, 'caseId': '0440105018000620180815', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '84e4b2d757c4482c8777ad763a573e5c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872795000, 'applicantIds': '358d17fd19954fa0a91d9fd75f43f772', 'audio': None, 'caseId': '0440103001000120180814', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:35', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:42', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e3a14b7406d47b1a883bfd691f0ce70', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1544716800000, 'applicantIds': 'b8c3c8490ccd4407a93b87e91f51da3e', 'audio': None, 'caseId': '0440103001000120180812', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:09', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:04:15', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '881531faf4fa48059aff8c8377015ca3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872648000, 'applicantIds': 'ab384b73046e4f829a8f3456b9975b16', 'audio': None, 'caseId': '0440105018000620180811', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:08', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:08', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '83c6a86822c44d9e934586fff610da79', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872634000, 'applicantIds': '07a1a2c19295402c86be6452104bab85', 'audio': None, 'caseId': '0440103001000120180810', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:02', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cec5ee682e894dcebb8c5e0fe4c347da', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872485000, 'applicantIds': 'a08214eedec34d27b3d6da5d8defa49e', 'audio': None, 'caseId': '0440105018000620180808', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:01:25', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:01:25', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd4c26396fb494ee39bfcdfb1123de0dc', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:45 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.150648</t>
+    <t>{'code': 200, 'data': '0440105018000620180843', 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:14 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.232912</t>
+  </si>
+  <si>
+    <t>{'case1_data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'f0e586da66324e488540872d5b8afcc8', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545874273976, 'applicantIds': 'f0e586da66324e488540872d5b8afcc8', 'audio': None, 'caseId': '0440105018000620180843', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ed50bbe6b9c5445da97eba7831a7617c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/6aae3986141a412a83b96718d6a78b236.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'ed50bbe6b9c5445da97eba7831a7617c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'caseId': '0440105018000620180843', 'applicantList_partyId': 'f0e586da66324e488540872d5b8afcc8', 'respondentList_partyId': 'ed50bbe6b9c5445da97eba7831a7617c', 'disputeCaseInfo': {'acceptDate': 1545874273976, 'applicantIds': 'f0e586da66324e488540872d5b8afcc8', 'audio': None, 'caseId': '0440105018000620180843', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:13', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:13', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ed50bbe6b9c5445da97eba7831a7617c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'data': {'acceptDate': 1545874274000, 'applicantIds': 'f0e586da66324e488540872d5b8afcc8', 'audio': None, 'caseId': '0440105018000620180843', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:14', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:14', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ed50bbe6b9c5445da97eba7831a7617c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440105018000620180843'), ('%data%applicantIds', '=', 'f0e586da66324e488540872d5b8afcc8'), ('%data%respondentIds', '=', 'ed50bbe6b9c5445da97eba7831a7617c'), ('%data%committeeId', '=', '4401050180006'), ('%data%disputeContent', '=', '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。'), ('%data%mediationResult', '=', '调解成功'), ('%data%mediatorId', '=', '105002J1960043'), ('%data%protocolContent', '=', '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 4), ('%data%type', '=', 2)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545874274000, 'applicantIds': 'f0e586da66324e488540872d5b8afcc8', 'audio': None, 'caseId': '0440105018000620180843', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:14', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:14', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ed50bbe6b9c5445da97eba7831a7617c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:08', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873623000, 'applicantIds': '00f48e949ae04464bfcbcf406cf05b25', 'audio': None, 'caseId': '0440105018000620180840', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:20:23', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:20:23', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '7cdbd73c8a6945448ad0f697fe1f6a32', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '9333f6f3dc8a4cc9892f13d2733ecd2e', 'audio': None, 'caseId': '0440103001000120180837', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:21', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:19:50', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '90b9ffbf2c3c4503a60c6f8a17a6d184', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873560000, 'applicantIds': '428bd739054345cfb27af6dfec5b6d78', 'audio': None, 'caseId': '0440105018000620180836', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:20', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:20', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ef74406f346b4b2cb2c586041e47ffe1', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873546000, 'applicantIds': '5dfa8d7a47ab4fe4a79e1abf421b7eaf', 'audio': None, 'caseId': '0440103001000120180835', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:06', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:14', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'dca5037164544781be0e140e88744dfa', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873470000, 'applicantIds': 'f7b51f15282a418aae2bc1ab6fb35512', 'audio': None, 'caseId': '0440105018000620180833', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:17:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:17:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ddccb544f5d34875becde64ff13e3cb9', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '5326fdf8cb07497ba74783fe5e8e1e74', 'audio': None, 'caseId': '0440103001000120180830', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:17:17', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'c536f3a5ebd94b369a989403df0b155c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873408000, 'applicantIds': 'cf93fbbeb16f4f168c69264b2d43437e', 'audio': None, 'caseId': '0440105018000620180829', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d2dce5bcb4e46ba97b02d18c8fd5168', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873395000, 'applicantIds': 'cd152c8015f34416b289ef16eaa2b36d', 'audio': None, 'caseId': '0440103001000120180828', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:35', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:43', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6ab73087856b4723933ea53abfd83a12', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.152153</t>
   </si>
   <si>
     <t>written/saveCaseInfo</t>
@@ -1041,25 +1041,25 @@
 </t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180823'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.136252</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/ddf025c15b4b43f5bfd5629f4782216a3.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:47 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.280055</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180844'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.150612</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/be552c5ad9c841b1aaacb5662613bb7e9.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:17 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.265785</t>
   </si>
   <si>
     <t>written/saveNatural</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180823', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/ddf025c15b4b43f5bfd5629f4782216a3.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}</t>
+    <t>{'caseId': '0440103001000120180844', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/be552c5ad9c841b1aaacb5662613bb7e9.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/written/saveNatural</t>
@@ -1068,40 +1068,37 @@
     <t>【书面调解快速调解接口】书面调解保存当事人信息(自然人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'b82072169c98458098b56375ff5d340f'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:48 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.152081</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/ac67cba3a5fe4d9abcf7a467866e54234.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:50 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.110624</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180823', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/ac67cba3a5fe4d9abcf7a467866e54234.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'respondentIds': 'a4260d6856cf484da8672412f6280bfb'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.158778</t>
+    <t>{'code': 200, 'data': {'applicantIds': '0cf6dfaeff2f4f84b58d477656922dbc'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.182595</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/97ecc1374cda4927a087add00277cf389.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:20 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.204813</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180844', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/97ecc1374cda4927a087add00277cf389.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'respondentIds': '2ebb3fec63824e66b11812517f4a76f8'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.17208</t>
   </si>
   <si>
     <t>written/saveResult</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180823', 'implementCondition': '01', 'implementType': '01', 'isSatisfied': '01', 'mediationResult': '01', 'money': 1000.0, 'protocolContent': '协议内容啦啦啦', 'protocolDate': '2018-12-24'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'caseId'), ('data', 'key', 'caseId'), ('data.caseId', '=', '0440103001000120180823')]</t>
+    <t>{'caseId': '0440103001000120180844', 'implementCondition': '01', 'implementType': '01', 'isSatisfied': '01', 'mediationResult': '01', 'money': 1000.0, 'protocolContent': '协议内容啦啦啦', 'protocolDate': '2018-12-24'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'caseId'), ('data', 'key', 'caseId'), ('data.caseId', '=', '0440103001000120180844')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/written/saveResult</t>
@@ -1110,64 +1107,64 @@
     <t>【书面调解快速调解接口】书面调解保存调解结果</t>
   </si>
   <si>
-    <t>0.215017</t>
-  </si>
-  <si>
-    <t>{'data': {'acceptDate': 1544716800000, 'applicantIds': 'b82072169c98458098b56375ff5d340f', 'audio': None, 'caseId': '0440103001000120180823', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:10:51', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'a4260d6856cf484da8672412f6280bfb', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case1_input': {'committeeId': '4401030010001', 'mediatorId': '105002J1960043', 'acceptDate': '2018-12-14', 'casePrediction': '01', 'caseSource': '01', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': '2018-12-14', 'disputeType': '1'}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180823'), ('%data%applicantIds', '=', 'b82072169c98458098b56375ff5d340f'), ('%data%disputeContent', '=', '纠纷事实111'), ('%data%disputeType', '=', '婚姻家庭纠纷'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', 'a4260d6856cf484da8672412f6280bfb')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': 'b82072169c98458098b56375ff5d340f', 'audio': None, 'caseId': '0440103001000120180823', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:10:51', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'a4260d6856cf484da8672412f6280bfb', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873025000, 'applicantIds': 'cdc9704922b2436b90f2f74638b1228b', 'audio': None, 'caseId': '0440103001000120180820', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:25', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:30', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b7016308de5948e587739e9056be404b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872789000, 'applicantIds': 'f607b0fd2f404b8da2114f309377bb81', 'audio': None, 'caseId': '0440103001000120180813', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:29', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:34', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e47d749aeea46e2b73d3e1f5f166866', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872627000, 'applicantIds': '3be7d5429cb54b1fa9fd555c2e82b71b', 'audio': None, 'caseId': '0440103001000120180809', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:47', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:03:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'ddde885fbd1a4a6c8a30217ca6b58e26', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872402000, 'applicantIds': 'a643c17b31444c3889ce231a76d4cf8c', 'audio': None, 'caseId': '0440103001000120180802', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:02', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:07', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1d558c2c2a044906bc584b5e94615b3a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872164000, 'applicantIds': '89b2a25c9734438b81f143371cb8c911', 'audio': None, 'caseId': '0440103001000120180795', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 08:56:04', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 08:56:11', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb1a21e0564f4065a332c4ad810f6222', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817416000, 'applicantIds': '9dd9b95785774b739a752d29ff818c55', 'audio': None, 'caseId': '0440103001000120180781', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:43:36', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:43:42', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '89389ddb9ff84426bb5626e11038de5a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817232000, 'applicantIds': '7e0de84fb14244a0a4738a9877c6e300', 'audio': None, 'caseId': '0440103001000120180774', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:40:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:40:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b628fadb131b4975bc1f5a11078ecca4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545810352000, 'applicantIds': '9253243284d941d58f5a2bac12eb5fc3', 'audio': None, 'caseId': '0440103001000120180767', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 15:45:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 15:45:56', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '260d23fbb913486bb3fb932a0986ae27', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 162}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:51 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.203555</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180823'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180823'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180823', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/ddf025c15b4b43f5bfd5629f4782216a3.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180823', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/ac67cba3a5fe4d9abcf7a467866e54234.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1544716800000, 'applicantIds': 'b82072169c98458098b56375ff5d340f', 'audio': None, 'caseId': '0440103001000120180823', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:10:51', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'a4260d6856cf484da8672412f6280bfb', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3})]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/ddf025c15b4b43f5bfd5629f4782216a3.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': 'b82072169c98458098b56375ff5d340f', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1544716800000, 'applicantIds': 'b82072169c98458098b56375ff5d340f', 'audio': None, 'caseId': '0440103001000120180823', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:10:51', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'a4260d6856cf484da8672412f6280bfb', 'state': 2, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/ac67cba3a5fe4d9abcf7a467866e54234.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': 'a4260d6856cf484da8672412f6280bfb', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.182024</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180823', 'state': 3}</t>
-  </si>
-  <si>
-    <t>0.15877</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180823', 'data': {'acceptDate': 1544716800000, 'applicantIds': 'b82072169c98458098b56375ff5d340f', 'audio': None, 'caseId': '0440103001000120180823', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:10:52', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'a4260d6856cf484da8672412f6280bfb', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180823'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': 'b82072169c98458098b56375ff5d340f', 'audio': None, 'caseId': '0440103001000120180823', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:10:52', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'a4260d6856cf484da8672412f6280bfb', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873045000, 'applicantIds': '74a758f2c52540fbb5145a6901167962', 'audio': None, 'caseId': '0440105018000620180822', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:45', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8f2c93d605d14eb8b8435a6331209cba', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:39', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872870000, 'applicantIds': '90930d1767b640bfa1704aec68f1793e', 'audio': None, 'caseId': '0440105018000620180819', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:07:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:07:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'f74fab09445b43248bdd1419b0eaded3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '15d4f131b35248888fc98d7c10195123', 'audio': None, 'caseId': '0440103001000120180816', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:07:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '1b0884227ef240edb9bac5d0adffb12b', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872808000, 'applicantIds': '6121fc31801f4e358befb2fdc92f91a2', 'audio': None, 'caseId': '0440105018000620180815', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '84e4b2d757c4482c8777ad763a573e5c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872795000, 'applicantIds': '358d17fd19954fa0a91d9fd75f43f772', 'audio': None, 'caseId': '0440103001000120180814', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:35', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:42', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e3a14b7406d47b1a883bfd691f0ce70', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1544716800000, 'applicantIds': 'b8c3c8490ccd4407a93b87e91f51da3e', 'audio': None, 'caseId': '0440103001000120180812', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:09', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:04:15', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '881531faf4fa48059aff8c8377015ca3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872648000, 'applicantIds': 'ab384b73046e4f829a8f3456b9975b16', 'audio': None, 'caseId': '0440105018000620180811', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:08', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:08', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '83c6a86822c44d9e934586fff610da79', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872634000, 'applicantIds': '07a1a2c19295402c86be6452104bab85', 'audio': None, 'caseId': '0440103001000120180810', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:02', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cec5ee682e894dcebb8c5e0fe4c347da', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:52 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.141771</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180823')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180823', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180823', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180823', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.164222</t>
+    <t>0.224743</t>
+  </si>
+  <si>
+    <t>{'data': {'acceptDate': 1544716800000, 'applicantIds': '0cf6dfaeff2f4f84b58d477656922dbc', 'audio': None, 'caseId': '0440103001000120180844', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:15', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:31:20', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '2ebb3fec63824e66b11812517f4a76f8', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case1_input': {'committeeId': '4401030010001', 'mediatorId': '105002J1960043', 'acceptDate': '2018-12-14', 'casePrediction': '01', 'caseSource': '01', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': '2018-12-14', 'disputeType': '1'}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180844'), ('%data%applicantIds', '=', '0cf6dfaeff2f4f84b58d477656922dbc'), ('%data%disputeContent', '=', '纠纷事实111'), ('%data%disputeType', '=', '婚姻家庭纠纷'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', '2ebb3fec63824e66b11812517f4a76f8')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '0cf6dfaeff2f4f84b58d477656922dbc', 'audio': None, 'caseId': '0440103001000120180844', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:15', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:31:20', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '2ebb3fec63824e66b11812517f4a76f8', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873538000, 'applicantIds': '3c1265b6bc4c4c26bb979f0c28f22d18', 'audio': None, 'caseId': '0440103001000120180834', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:18:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:05', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ca9e554040d45e692be570b8dcb492c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873389000, 'applicantIds': 'e6174e73198d46c18381b7a3f1e0a9ca', 'audio': None, 'caseId': '0440103001000120180827', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:29', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:34', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a1a47c3e048d4b72b85c45be5ff6f37c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873025000, 'applicantIds': 'cdc9704922b2436b90f2f74638b1228b', 'audio': None, 'caseId': '0440103001000120180820', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:25', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:30', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'b7016308de5948e587739e9056be404b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872789000, 'applicantIds': 'f607b0fd2f404b8da2114f309377bb81', 'audio': None, 'caseId': '0440103001000120180813', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:29', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:34', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e47d749aeea46e2b73d3e1f5f166866', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872627000, 'applicantIds': '3be7d5429cb54b1fa9fd555c2e82b71b', 'audio': None, 'caseId': '0440103001000120180809', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:47', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:03:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'ddde885fbd1a4a6c8a30217ca6b58e26', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872402000, 'applicantIds': 'a643c17b31444c3889ce231a76d4cf8c', 'audio': None, 'caseId': '0440103001000120180802', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:00:02', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:00:07', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '1d558c2c2a044906bc584b5e94615b3a', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872164000, 'applicantIds': '89b2a25c9734438b81f143371cb8c911', 'audio': None, 'caseId': '0440103001000120180795', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 08:56:04', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 08:56:11', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cb1a21e0564f4065a332c4ad810f6222', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545817706000, 'applicantIds': '2dc9d5f003f34e749808673a6aff3ae0', 'audio': None, 'caseId': '0440103001000120180788', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-26 17:48:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-26 17:48:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4138da95d9144bdda27ed2c10e1ca062', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 165}}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:21 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.153362</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180844'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180844'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180844', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/be552c5ad9c841b1aaacb5662613bb7e9.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180844', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/97ecc1374cda4927a087add00277cf389.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1544716800000, 'applicantIds': '0cf6dfaeff2f4f84b58d477656922dbc', 'audio': None, 'caseId': '0440103001000120180844', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:15', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:31:20', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '2ebb3fec63824e66b11812517f4a76f8', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3})]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/be552c5ad9c841b1aaacb5662613bb7e9.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '0cf6dfaeff2f4f84b58d477656922dbc', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1544716800000, 'applicantIds': '0cf6dfaeff2f4f84b58d477656922dbc', 'audio': None, 'caseId': '0440103001000120180844', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:15', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:31:20', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '2ebb3fec63824e66b11812517f4a76f8', 'state': 2, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/97ecc1374cda4927a087add00277cf389.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '2ebb3fec63824e66b11812517f4a76f8', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.141886</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180844', 'state': 3}</t>
+  </si>
+  <si>
+    <t>0.14811</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180844', 'data': {'acceptDate': 1544716800000, 'applicantIds': '0cf6dfaeff2f4f84b58d477656922dbc', 'audio': None, 'caseId': '0440103001000120180844', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:15', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:31:22', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '2ebb3fec63824e66b11812517f4a76f8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180844'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '0cf6dfaeff2f4f84b58d477656922dbc', 'audio': None, 'caseId': '0440103001000120180844', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:15', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:31:22', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '2ebb3fec63824e66b11812517f4a76f8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545874274000, 'applicantIds': 'f0e586da66324e488540872d5b8afcc8', 'audio': None, 'caseId': '0440105018000620180843', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:14', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:14', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ed50bbe6b9c5445da97eba7831a7617c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:08', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873623000, 'applicantIds': '00f48e949ae04464bfcbcf406cf05b25', 'audio': None, 'caseId': '0440105018000620180840', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:20:23', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:20:23', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '7cdbd73c8a6945448ad0f697fe1f6a32', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '9333f6f3dc8a4cc9892f13d2733ecd2e', 'audio': None, 'caseId': '0440103001000120180837', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:21', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:19:50', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '90b9ffbf2c3c4503a60c6f8a17a6d184', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873560000, 'applicantIds': '428bd739054345cfb27af6dfec5b6d78', 'audio': None, 'caseId': '0440105018000620180836', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:20', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:20', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ef74406f346b4b2cb2c586041e47ffe1', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873546000, 'applicantIds': '5dfa8d7a47ab4fe4a79e1abf421b7eaf', 'audio': None, 'caseId': '0440103001000120180835', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:06', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:14', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'dca5037164544781be0e140e88744dfa', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873470000, 'applicantIds': 'f7b51f15282a418aae2bc1ab6fb35512', 'audio': None, 'caseId': '0440105018000620180833', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:17:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:17:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ddccb544f5d34875becde64ff13e3cb9', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '5326fdf8cb07497ba74783fe5e8e1e74', 'audio': None, 'caseId': '0440103001000120180830', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:17:17', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'c536f3a5ebd94b369a989403df0b155c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873408000, 'applicantIds': 'cf93fbbeb16f4f168c69264b2d43437e', 'audio': None, 'caseId': '0440105018000620180829', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d2dce5bcb4e46ba97b02d18c8fd5168', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.14752</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180844')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180844', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180844', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180844', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:22 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.172931</t>
   </si>
   <si>
     <t>photo</t>
@@ -1188,13 +1185,13 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\人民调解调查记录.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/8693ac075424410e82b5df1771e50f6f2.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/a3b8527f313d4ab2b4082cb968e371520.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/1a0e550e58184f698a575e09d2745f1d4.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:10:58 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.972151</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/6c926ea8df344638ac92dc6b8fe46b656.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/56922a534ba94f41879fb9fd1e8d3c840.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/0504b910861b45b0b13761222ad5d3757.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:28 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.770081</t>
   </si>
   <si>
     <t>人民调解证据材料上传</t>
@@ -1209,10 +1206,10 @@
     <t>{'code': 201001, 'data': None, 'msg': '文件类型错误', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:02 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.747611</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:31 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.513414</t>
   </si>
   <si>
     <t>case14</t>
@@ -1227,13 +1224,13 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\人民调解回访记录.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/8693ac075424410e82b5df1771e50f6f2.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/e2d8b8f7e0864c858b792a8f1805720b8.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/1a0e550e58184f698a575e09d2745f1d4.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:06 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>4.207721</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/6c926ea8df344638ac92dc6b8fe46b656.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/73146cc0902148e989231a72919fc2326.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/0504b910861b45b0b13761222ad5d3757.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.061539</t>
   </si>
   <si>
     <t>case15</t>
@@ -1248,10 +1245,10 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\司法确认申请书.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:10 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>4.038583</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:38 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.895629</t>
   </si>
   <si>
     <t>case16</t>
@@ -1266,52 +1263,52 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\卷宗情况说明.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/1a49aa08b12a41a882ff586de36120ca2.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/e2d8b8f7e0864c858b792a8f1805720b8.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/1a0e550e58184f698a575e09d2745f1d4.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:13 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.784352</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/cdece2616f914839bf6df557f2bce3841.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/73146cc0902148e989231a72919fc2326.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/0504b910861b45b0b13761222ad5d3757.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:41 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.599969</t>
   </si>
   <si>
     <t>case17</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180823', 'inputState': 2}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:14 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.22824</t>
+    <t>{'caseId': '0440103001000120180844', 'inputState': 2}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:42 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.204439</t>
   </si>
   <si>
     <t>case18</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180823', 'data': {'acceptDate': 1544716800000, 'applicantIds': 'b82072169c98458098b56375ff5d340f', 'audio': None, 'caseId': '0440103001000120180823', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:11:14', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'a4260d6856cf484da8672412f6280bfb', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case17_input': {'caseId': '0440103001000120180823', 'inputState': 2}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180823'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3), ('%data%type', '=', 2)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': 'b82072169c98458098b56375ff5d340f', 'audio': None, 'caseId': '0440103001000120180823', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:11:14', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'a4260d6856cf484da8672412f6280bfb', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873045000, 'applicantIds': '74a758f2c52540fbb5145a6901167962', 'audio': None, 'caseId': '0440105018000620180822', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:45', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:45', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8f2c93d605d14eb8b8435a6331209cba', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873032000, 'applicantIds': '46dbbcf100204c2d8ed3d7fe1222803a', 'audio': None, 'caseId': '0440103001000120180821', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:10:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:10:39', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '88118fb4148f49399c2fc77f579b64a6', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545872870000, 'applicantIds': '90930d1767b640bfa1704aec68f1793e', 'audio': None, 'caseId': '0440105018000620180819', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:07:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:07:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'f74fab09445b43248bdd1419b0eaded3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '15d4f131b35248888fc98d7c10195123', 'audio': None, 'caseId': '0440103001000120180816', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:07:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '1b0884227ef240edb9bac5d0adffb12b', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872808000, 'applicantIds': '6121fc31801f4e358befb2fdc92f91a2', 'audio': None, 'caseId': '0440105018000620180815', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '84e4b2d757c4482c8777ad763a573e5c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872795000, 'applicantIds': '358d17fd19954fa0a91d9fd75f43f772', 'audio': None, 'caseId': '0440103001000120180814', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:06:35', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:06:42', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6e3a14b7406d47b1a883bfd691f0ce70', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1544716800000, 'applicantIds': 'b8c3c8490ccd4407a93b87e91f51da3e', 'audio': None, 'caseId': '0440103001000120180812', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:09', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:04:15', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '881531faf4fa48059aff8c8377015ca3', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545872648000, 'applicantIds': 'ab384b73046e4f829a8f3456b9975b16', 'audio': None, 'caseId': '0440105018000620180811', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:04:08', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:08', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '83c6a86822c44d9e934586fff610da79', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545872634000, 'applicantIds': '07a1a2c19295402c86be6452104bab85', 'audio': None, 'caseId': '0440103001000120180810', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:03:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:04:02', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'cec5ee682e894dcebb8c5e0fe4c347da', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>0.138903</t>
+    <t>{'caseId': '0440103001000120180844', 'data': {'acceptDate': 1544716800000, 'applicantIds': '0cf6dfaeff2f4f84b58d477656922dbc', 'audio': None, 'caseId': '0440103001000120180844', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:15', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:31:42', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '2ebb3fec63824e66b11812517f4a76f8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case17_input': {'caseId': '0440103001000120180844', 'inputState': 2}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180844'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3), ('%data%type', '=', 2)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '0cf6dfaeff2f4f84b58d477656922dbc', 'audio': None, 'caseId': '0440103001000120180844', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:15', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:31:42', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '2ebb3fec63824e66b11812517f4a76f8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545874274000, 'applicantIds': 'f0e586da66324e488540872d5b8afcc8', 'audio': None, 'caseId': '0440105018000620180843', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:14', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:14', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ed50bbe6b9c5445da97eba7831a7617c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545874260000, 'applicantIds': '7a8f2b31eb964037b26cb0805d4fd2a2', 'audio': None, 'caseId': '0440103001000120180842', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:31:00', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:31:08', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '061f10f7fe004c1a9852a7ac1f08529d', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873623000, 'applicantIds': '00f48e949ae04464bfcbcf406cf05b25', 'audio': None, 'caseId': '0440105018000620180840', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:20:23', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:20:23', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '7cdbd73c8a6945448ad0f697fe1f6a32', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '9333f6f3dc8a4cc9892f13d2733ecd2e', 'audio': None, 'caseId': '0440103001000120180837', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:21', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:19:50', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '90b9ffbf2c3c4503a60c6f8a17a6d184', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873560000, 'applicantIds': '428bd739054345cfb27af6dfec5b6d78', 'audio': None, 'caseId': '0440105018000620180836', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:20', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:20', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ef74406f346b4b2cb2c586041e47ffe1', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545873546000, 'applicantIds': '5dfa8d7a47ab4fe4a79e1abf421b7eaf', 'audio': None, 'caseId': '0440103001000120180835', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:19:06', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:14', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'dca5037164544781be0e140e88744dfa', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873470000, 'applicantIds': 'f7b51f15282a418aae2bc1ab6fb35512', 'audio': None, 'caseId': '0440105018000620180833', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:17:50', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:17:50', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'ddccb544f5d34875becde64ff13e3cb9', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '5326fdf8cb07497ba74783fe5e8e1e74', 'audio': None, 'caseId': '0440103001000120180830', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:49', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 09:17:17', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'c536f3a5ebd94b369a989403df0b155c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545873408000, 'applicantIds': 'cf93fbbeb16f4f168c69264b2d43437e', 'audio': None, 'caseId': '0440105018000620180829', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:16:48', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:16:48', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '5d2dce5bcb4e46ba97b02d18c8fd5168', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.16696</t>
   </si>
   <si>
     <t>files=data\声音1.mp3</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:15 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>1.110712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'audio', '用例描述': 'files=data\\声音1.mp3', 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'informer', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:15 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 1.110712, 'status_code': 200}
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:43 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>1.174949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'audio', '用例描述': 'files=data\\声音1.mp3', 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'informer', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:43 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 1.174949, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 203
 </t>
   </si>
@@ -1334,10 +1331,13 @@
     <t>{'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarInfo(IntelligentHelperServiceImpl.java:115)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarInfo(IntelligentHelperController.java:51)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarInfo(&lt;generated&gt;)', 'pager': None}</t>
   </si>
   <si>
-    <t>0.134843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarInfo', '用例描述': '', 'Input': {'code': '1'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.content', '!=', '""')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarInfo', 'Interface_description': '【智能辅调接口】根据纠纷类型获取类案', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarInfo(IntelligentHelperServiceImpl.java:115)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarInfo(IntelligentHelperController.java:51)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarInfo(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:15 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.134843, 'status_code': 200}
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:44 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.203376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarInfo', '用例描述': '', 'Input': {'code': '1'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.content', '!=', '""')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarInfo', 'Interface_description': '【智能辅调接口】根据纠纷类型获取类案', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarInfo(IntelligentHelperServiceImpl.java:115)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarInfo(IntelligentHelperController.java:51)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarInfo(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:44 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.203376, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 202
 </t>
   </si>
@@ -1360,13 +1360,10 @@
     <t>{'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarLaw(IntelligentHelperServiceImpl.java:147)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarLaw(IntelligentHelperController.java:62)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarLaw(&lt;generated&gt;)', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:16 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.141805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarLaw', '用例描述': '', 'Input': {'code': '9'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.id', '=', 'a4f241e1f5c1e9872f80ccb08a8d3576')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarLaw', 'Interface_description': '【智能辅调接口】根据纠纷类型获取法条', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarLaw(IntelligentHelperServiceImpl.java:147)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarLaw(IntelligentHelperController.java:62)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarLaw(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:16 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.141805, 'status_code': 200}
+    <t>0.129406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarLaw', '用例描述': '', 'Input': {'code': '9'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.id', '=', 'a4f241e1f5c1e9872f80ccb08a8d3576')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarLaw', 'Interface_description': '【智能辅调接口】根据纠纷类型获取法条', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{nBDejaBVRWe9PQsbrfUGug}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarLaw(IntelligentHelperServiceImpl.java:147)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarLaw(IntelligentHelperController.java:62)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$30f6216e.getSimilarLaw(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:44 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.129406, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 202
 </t>
   </si>
@@ -1389,7 +1386,7 @@
     <t>{'code': 200, 'data': {'content': [{'content': '人民调解的技巧与方法\n\n一、调解员应当学习做到“五会”\n（1）“听”——要求调解员做到不偏听、不偏信、不要先入为主的处理问题。\n（2）“问”——问清楚事情的来龙去脉，有针对性的一问一答，加强语言口才的思考。\n（3）“找”——找到纠纷问题的根源所在，解开双方的心结，避免误会的深入。\n（4）“诊”——诊断出矛盾的关键点，因人而宜、因事而异，化解纠纷。\n（5）“结”——通过调解彻底了结纠纷，不留隐患，制作《人民调解协议书》。\n\n二、调解员应当掌握的基本方法\n（1）“拉家常析症结”：通过与纠纷当事人拉家常从而拉进相互间的距离，从中找到矛盾症结所在，为调解工作找准切入点。\n（2）“分开谈明歧意”：在了解掌握纠纷症结的前提下，找出矛盾的焦点是关键。将双方僵持的当事人分开，分别进行谈话，询问各自诉求，找到双方主张的差距，有的放矢、循循善诱地开展教育引导。\n（3）“互谅解定方案”：调解员应当心平气和、耐心倾听、阐明利弊、动情晓理。用“法”理顺关系，用“理”化解隔阂，用“情”沟通思想，促使当事人换位思考，互谅互让，化针尖对麦芒为握手言和。\n（4）“赋真情促履行”：在调解的过程中，调解员应当做到“想当事人所想，解当事人所难”，使当事人充分感受到工作的公正和情感的真切，换来当事人从内心接受调解的方案，并主动履行协议。\n\n三、调解的技巧\n（1）语言技巧：在调解工作中，运用语言技巧，有助于调解工作的顺利进行。主要包括以下五个方面：一是语言降温、二是话语引人、三是用语适当、四是巧妙用语、五是引用谚语。\n（2）方法技巧：指在调解矛盾纠纷的过程中，针对具体的纠纷当事人的特点以及矛盾纠纷过程中不同阶段的不同特点，灵活巧妙的运用调解方式、方法的技能。调解方法灵活多样，不能一成不变。\n    主要包括以下十点内容：“冷却降温法”、“换位思考法”、“扶正祛邪法”、“逆向求助法”、“案例引导法”、“亲友疏导法”、“亲情融化法”、“舆论压迫法”、“背靠背处理法”、“过错剖析法”。\n', 'disputeType': 0, 'id': '5963763d5c6836590de011f63da8fa2e'}], 'pageable': {'sort': {'sorted': False, 'unsorted': True}, 'pageSize': 10, 'pageNumber': 0, 'offset': 0, 'paged': True, 'unpaged': False}, 'totalElements': 1, 'totalPages': 1, 'last': True, 'first': True, 'sort': {'sorted': False, 'unsorted': True}, 'numberOfElements': 1, 'size': 10, 'number': 0}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.149449</t>
+    <t>0.153365</t>
   </si>
   <si>
     <t>getCaseInfo</t>
@@ -1410,7 +1407,7 @@
     <t>{'code': 200, 'data': {'acceptDate': 1543334400000, 'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92', 'audio': None, 'caseId': '0440103001000120180040', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-11-28 13:41:12', 'difficultyLevel': '02', 'disputeContent': '张三和李四离婚，现在在争小孩的抚养权。', 'disputeDate': 1543334400000, 'disputeType': '1', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-06 17:11:44', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '01', 'mediatorId': '105002J1960043', 'picture': '', 'protocolContent': '123', 'protocolDate': 1543334400000, 'remark': '', 'respondentIds': 'cb2fd6b38e154beab97c1193a9f2dd6c', 'state': 3, 'type': 2, 'video': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.142727</t>
+    <t>0.172184</t>
   </si>
   <si>
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180040'), ('data.applicant.type', 'dict_list_dict,=', 1)]</t>
@@ -1419,10 +1416,10 @@
     <t>{'code': 200, 'data': {'applicant': [1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1], 'disputeCaseInfo': {'acceptDate': 1543334400000, 'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92', 'audio': None, 'caseId': '0440103001000120180040', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-11-28 13:41:12', 'difficultyLevel': '02', 'disputeContent': '张三和李四离婚，现在在争小孩的抚养权。', 'disputeDate': 1543334400000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-06 17:11:44', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': '', 'protocolContent': '123', 'protocolDate': 1543334400000, 'remark': '', 'respondentIds': 'cb2fd6b38e154beab97c1193a9f2dd6c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-11-28/3f37393e949b4102acf79be0ee1ced013.jpg', 'job': '', 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '南京市浦口区天华东路103号26幢1002室', 'partyIDNumber': '320682198403135590', 'partyIDType': '111', 'partyId': 'cb2fd6b38e154beab97c1193a9f2dd6c', 'partyName': '包坤涛', 'partyNum': 1, 'partyPhone': '', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:17 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.201885</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:45 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.228362</t>
   </si>
   <si>
     <t>getParties</t>
@@ -1437,16 +1434,16 @@
     <t>【书面调解快速调解接口】获取当事人信息</t>
   </si>
   <si>
-    <t>0.136326</t>
+    <t>0.166999</t>
   </si>
   <si>
     <t>{'committeeId': '4401030010001', 'disputeContent': 'balabala…', 'disputeType': '01', 'mediationDate': '2018-11-23'}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180824'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.151104</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180845'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.170565</t>
   </si>
   <si>
     <t>quick/saveCompany</t>
@@ -1461,22 +1458,22 @@
     <t>【书面调解快速调解接口】快速调解保存当事人信息(法人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,79c6f062b4734d6aafd40c791ee8ca6e'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.14339</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,85c1be7eb5844989a367d186eb9db35f'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:46 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.166241</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180040', 'partyIDNumber': '111111111111111111', 'partyIDType': '111', 'partyName': 'lily', 'partyType': '02', 'type': 1}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,f96b8c2614084dd38d62ec1a111caf2a'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:18 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.156184</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,a7826e1bbc964d46af11e82fb6e1d306'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.196181</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180041', 'mediationResult': '01'}</t>
@@ -1488,7 +1485,7 @@
     <t>{'code': 200, 'data': {'caseId': '0440103001000120180041'}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.151684</t>
+    <t>0.167896</t>
   </si>
   <si>
     <t>uploadFile</t>
@@ -1500,13 +1497,13 @@
     <t>【书面调解快速调解接口】调解结果附件上传</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'picture': 'jpg/2018-12-27/45181759a6c44b62a70f3c525b3c8bf05.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:19 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.415077</t>
+    <t>{'code': 200, 'data': {'picture': 'jpg/2018-12-27/7cad9b2bd2e7476fa69ab2f10da6d3e07.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:47 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.440957</t>
   </si>
   <si>
     <t>{'acceptDate': '2018-11-23', 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeType': '01', 'mediatorId': '105002J1960043'}</t>
@@ -1515,10 +1512,10 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'caseId')]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180825'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.226176</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180846'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.18437</t>
   </si>
   <si>
     <t>written/saveCompany</t>
@@ -1533,22 +1530,22 @@
     <t>【书面调解快速调解接口】书面调解保存当事人信息(法人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,54b737fc4de74462a9ee9721740f1fe3'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.176645</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,cff3c6fc86d844dab0b5343f5a787fd5'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:48 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.186152</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180051', 'partyIDNumber': '111111111111111111', 'partyIDType': '111', 'partyName': '张三', 'partyNum': '1', 'partyType': '01', 'type': 1}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'b437472619f04bd6bbf239cd52ab1ad8,4a6ee07a79af42bba7bc7cd62e5f8370,70174aa69d6c4a3eb49b5a30d98dc911,24b427f7c13940ab8a2aab981ccc539f,c6efa0b35cc34cbfa283d55f8ffe6645,be7f028e2b3d4b569ffc62596db423d3,3c8d08c2dcce475fadcd39bf95901bb5,d87700607bd144e8924c13f3fb905b72,7052d2ac3e414a00a5b13c8ceff7eef0,89379c2f7b9f4f619a797904453100da,9b59c135dd6c4bce982b6fdfbd3b9026,e2b3731e218b43f78cf3f8e6e95a38ad,3b1c9b5e15d5452981d5eea05ee563bf,37bdaf1a6a204510b695f9f328497e8d,5a82c786c5434f0f98a99b693fe39ee3,8c0ec340ddb24de79529aa89c7b59fff,b301300de253430880683da9741c3067,362bed174df84ff1acdb8cb0a3e15339,05a0d90660d64728b7731ed035c14dea'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:20 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.177625</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'b437472619f04bd6bbf239cd52ab1ad8,4a6ee07a79af42bba7bc7cd62e5f8370,70174aa69d6c4a3eb49b5a30d98dc911,24b427f7c13940ab8a2aab981ccc539f,c6efa0b35cc34cbfa283d55f8ffe6645,be7f028e2b3d4b569ffc62596db423d3,3c8d08c2dcce475fadcd39bf95901bb5,d87700607bd144e8924c13f3fb905b72,7052d2ac3e414a00a5b13c8ceff7eef0,89379c2f7b9f4f619a797904453100da,9b59c135dd6c4bce982b6fdfbd3b9026,e2b3731e218b43f78cf3f8e6e95a38ad,3b1c9b5e15d5452981d5eea05ee563bf,37bdaf1a6a204510b695f9f328497e8d,5a82c786c5434f0f98a99b693fe39ee3,8c0ec340ddb24de79529aa89c7b59fff,b301300de253430880683da9741c3067,362bed174df84ff1acdb8cb0a3e15339,9cd0d315cf294e14b35cf42277ad0f45'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.192224</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180051', 'implementCondition': '01', 'implementType': '01', 'isSatisfied': '01', 'mediationResult': '01', 'money': 1000.0, 'protocolContent': 'balabala…', 'protocolDate': '2018-11-23'}</t>
@@ -1557,7 +1554,7 @@
     <t>{'code': 200, 'data': {'caseId': '0440103001000120180051'}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.158176</t>
+    <t>0.181148</t>
   </si>
   <si>
     <t>getMediator</t>
@@ -1575,7 +1572,10 @@
     <t>{'code': 200, 'data': {'appearance': '群众', 'birth': 993916800000, 'committeeID': '4401050180006', 'committeePosition': '委员', 'education': '普通高中', 'generateType': '推选', 'identityID': '440121196407012123', 'injured': None, 'introduction': None, 'isExperienced': None, 'isHire': '否', 'isPartTime': '兼职', 'location': '赤岗街道赤岗社区居民委员会人民调解委员会', 'marriageStatus': None, 'mediationID': None, 'meditorID': '105002J1960043', 'mobile': None, 'name': '汤杏养', 'nation': '汉族', 'otherRule': None, 'phone': '89663154', 'photo': None, 'position': None, 'profession': None, 'qualification': None, 'sex': '女', 'workUnit': None, 'workYear': 10, 'email': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.132416</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:49 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.146975</t>
   </si>
   <si>
     <t>headers={"Content-Type":"application/json"}
@@ -1613,58 +1613,55 @@
     <t>{'code': 200, 'data': {'caseId': '0440105018000620180057', 'mediationAgreement': None, 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': None, 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:21 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.136716</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/1a49aa08b12a41a882ff586de36120ca2.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/e2d8b8f7e0864c858b792a8f1805720b8.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/8799e0f0d31d4e5a8e0526130c15e5761.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:26 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.757731</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:30 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.700732</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/1a49aa08b12a41a882ff586de36120ca2.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/690e195377db4831a591a5e28ee50dd71.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/8799e0f0d31d4e5a8e0526130c15e5761.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.1469</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:38 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.915389</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/8b4a9736242646f9976e959955e8a9c35.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/690e195377db4831a591a5e28ee50dd71.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/8799e0f0d31d4e5a8e0526130c15e5761.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:41 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.737116</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '60e59ee360da4bed93b56fb8e54c9b8c', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545873106533, 'applicantIds': '60e59ee360da4bed93b56fb8e54c9b8c', 'audio': None, 'caseId': '0440105018000620180826', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:11:46', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:11:46', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '88607f27d00c4709a53fb9239dd78e55', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/bb172a5e67e145939ebed9e2200020555.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '88607f27d00c4709a53fb9239dd78e55', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:46 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.346146</t>
+    <t>0.228069</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/cdece2616f914839bf6df557f2bce3841.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/73146cc0902148e989231a72919fc2326.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/3fe25d7a40b24996b72fd5830542207f3.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:55 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.831039</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:31:59 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.670817</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/cdece2616f914839bf6df557f2bce3841.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/065405f0eb9d41b4a86d4dafaa603b5f8.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/3fe25d7a40b24996b72fd5830542207f3.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:32:02 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.050409</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:32:06 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.832777</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/90f07295a71a4c0a81c6cf763fd507811.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/065405f0eb9d41b4a86d4dafaa603b5f8.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/3fe25d7a40b24996b72fd5830542207f3.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:32:09 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.715455</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'f44ad05845d149978bad685d62007c3d', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545874334917, 'applicantIds': 'f44ad05845d149978bad685d62007c3d', 'audio': None, 'caseId': '0440105018000620180847', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 09:32:14', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:32:14', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '62eb0abbe9fc4de1a2c3c3045b4c0e14', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/7dbf9a25fcfd4ecf834c6451985c95367.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '62eb0abbe9fc4de1a2c3c3045b4c0e14', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:32:14 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.33413</t>
   </si>
   <si>
     <t>{'form': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '3c47fb4fbcaf49b5a9a5f23de90a42c2', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'caseId': '0440105018000620180119', 'infoVO': {'disputeContent': '2018年125日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤。王刚要求张兵赔德王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在米经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种张兵应当反过来赔偿自己的损长。', 'mediateDate': '2018-01-25', 'protocolContent': '一，张兵赔德王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张小美进行安抚和道歉二、王刚读担张兵所饲养的宠物狗被打伤后的全部治疗费用'}, 'mediatorId': '105002J1960043', 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '91e5935fad25468f9ffae4a69a921712', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}}</t>
@@ -1673,16 +1670,16 @@
     <t>{'code': 200, 'data': '0440105018000620180119', 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.157359</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:32:15 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.165087</t>
   </si>
   <si>
     <t>{'caseId': '0440105018000620180119'}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 01:11:47 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.132808</t>
+    <t>0.133585</t>
   </si>
 </sst>
 </file>
@@ -2089,13 +2086,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -2110,10 +2107,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -2125,25 +2122,25 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P2" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q2" t="s">
         <v>420</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" t="s">
         <v>421</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>176</v>
-      </c>
-      <c r="T2" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2229,13 +2226,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" t="s">
         <v>423</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>424</v>
-      </c>
-      <c r="E2" t="s">
-        <v>425</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -2247,10 +2244,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" t="s">
         <v>426</v>
-      </c>
-      <c r="J2" t="s">
-        <v>427</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -2262,10 +2259,10 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
+        <v>427</v>
+      </c>
+      <c r="O2" t="s">
         <v>428</v>
-      </c>
-      <c r="O2" t="s">
-        <v>420</v>
       </c>
       <c r="P2" t="s">
         <v>429</v>
@@ -2274,7 +2271,7 @@
         <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S2" t="s">
         <v>430</v>
@@ -2321,19 +2318,19 @@
         <v>436</v>
       </c>
       <c r="O3" t="s">
+        <v>428</v>
+      </c>
+      <c r="P3" t="s">
         <v>437</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>177</v>
+      </c>
+      <c r="S3" t="s">
         <v>438</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>176</v>
-      </c>
-      <c r="S3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2341,13 +2338,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" t="s">
         <v>440</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>441</v>
-      </c>
-      <c r="E4" t="s">
-        <v>442</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2359,10 +2356,10 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" t="s">
         <v>443</v>
-      </c>
-      <c r="J4" t="s">
-        <v>444</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -2374,13 +2371,13 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
+        <v>444</v>
+      </c>
+      <c r="O4" t="s">
+        <v>428</v>
+      </c>
+      <c r="P4" t="s">
         <v>445</v>
-      </c>
-      <c r="O4" t="s">
-        <v>437</v>
-      </c>
-      <c r="P4" t="s">
-        <v>446</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
@@ -2475,13 +2472,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" t="s">
         <v>447</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>448</v>
-      </c>
-      <c r="E2" t="s">
-        <v>449</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -2493,28 +2490,28 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J2" t="s">
         <v>450</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
         <v>451</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P2" t="s">
         <v>452</v>
-      </c>
-      <c r="O2" t="s">
-        <v>437</v>
-      </c>
-      <c r="P2" t="s">
-        <v>453</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
@@ -2531,10 +2528,10 @@
         <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -2561,13 +2558,13 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
+        <v>454</v>
+      </c>
+      <c r="O3" t="s">
         <v>455</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>456</v>
-      </c>
-      <c r="P3" t="s">
-        <v>457</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -2581,10 +2578,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" t="s">
         <v>458</v>
-      </c>
-      <c r="D4" t="s">
-        <v>459</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
@@ -2599,10 +2596,10 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>459</v>
+      </c>
+      <c r="J4" t="s">
         <v>460</v>
-      </c>
-      <c r="J4" t="s">
-        <v>461</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -2617,10 +2614,10 @@
         <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
@@ -2634,10 +2631,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
@@ -2652,10 +2649,10 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
@@ -2667,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
+        <v>463</v>
+      </c>
+      <c r="O5" t="s">
+        <v>455</v>
+      </c>
+      <c r="P5" t="s">
         <v>464</v>
-      </c>
-      <c r="O5" t="s">
-        <v>456</v>
-      </c>
-      <c r="P5" t="s">
-        <v>465</v>
       </c>
       <c r="Q5" t="s">
         <v>39</v>
@@ -2687,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" t="s">
         <v>466</v>
-      </c>
-      <c r="D6" t="s">
-        <v>467</v>
       </c>
       <c r="E6" t="s">
         <v>62</v>
@@ -2705,10 +2702,10 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J6" t="s">
         <v>468</v>
-      </c>
-      <c r="J6" t="s">
-        <v>469</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
@@ -2720,10 +2717,10 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
+        <v>469</v>
+      </c>
+      <c r="O6" t="s">
         <v>470</v>
-      </c>
-      <c r="O6" t="s">
-        <v>456</v>
       </c>
       <c r="P6" t="s">
         <v>471</v>
@@ -2776,10 +2773,10 @@
         <v>473</v>
       </c>
       <c r="O7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P7" t="s">
         <v>474</v>
-      </c>
-      <c r="P7" t="s">
-        <v>475</v>
       </c>
       <c r="Q7" t="s">
         <v>39</v>
@@ -2793,13 +2790,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" t="s">
         <v>476</v>
-      </c>
-      <c r="E8" t="s">
-        <v>477</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2811,28 +2808,28 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" t="s">
         <v>231</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
         <v>232</v>
       </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>233</v>
-      </c>
       <c r="M8" t="s">
         <v>28</v>
       </c>
       <c r="N8" t="s">
+        <v>477</v>
+      </c>
+      <c r="O8" t="s">
+        <v>470</v>
+      </c>
+      <c r="P8" t="s">
         <v>478</v>
-      </c>
-      <c r="O8" t="s">
-        <v>474</v>
-      </c>
-      <c r="P8" t="s">
-        <v>479</v>
       </c>
       <c r="Q8" t="s">
         <v>39</v>
@@ -2846,10 +2843,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -2864,10 +2861,10 @@
         <v>25</v>
       </c>
       <c r="I9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J9" t="s">
         <v>481</v>
-      </c>
-      <c r="J9" t="s">
-        <v>482</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
@@ -2882,13 +2879,13 @@
         <v>310</v>
       </c>
       <c r="O9" t="s">
+        <v>482</v>
+      </c>
+      <c r="P9" t="s">
         <v>483</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>484</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>485</v>
       </c>
       <c r="R9" t="s">
         <v>39</v>
@@ -2905,10 +2902,10 @@
         <v>326</v>
       </c>
       <c r="D10" t="s">
+        <v>485</v>
+      </c>
+      <c r="E10" t="s">
         <v>486</v>
-      </c>
-      <c r="E10" t="s">
-        <v>487</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2935,13 +2932,13 @@
         <v>28</v>
       </c>
       <c r="N10" t="s">
+        <v>487</v>
+      </c>
+      <c r="O10" t="s">
+        <v>483</v>
+      </c>
+      <c r="P10" t="s">
         <v>488</v>
-      </c>
-      <c r="O10" t="s">
-        <v>484</v>
-      </c>
-      <c r="P10" t="s">
-        <v>489</v>
       </c>
       <c r="Q10" t="s">
         <v>39</v>
@@ -2955,10 +2952,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
+        <v>489</v>
+      </c>
+      <c r="D11" t="s">
         <v>490</v>
-      </c>
-      <c r="D11" t="s">
-        <v>491</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -2973,10 +2970,10 @@
         <v>25</v>
       </c>
       <c r="I11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J11" t="s">
         <v>492</v>
-      </c>
-      <c r="J11" t="s">
-        <v>493</v>
       </c>
       <c r="K11" t="s">
         <v>28</v>
@@ -2988,10 +2985,10 @@
         <v>28</v>
       </c>
       <c r="N11" t="s">
+        <v>493</v>
+      </c>
+      <c r="O11" t="s">
         <v>494</v>
-      </c>
-      <c r="O11" t="s">
-        <v>484</v>
       </c>
       <c r="P11" t="s">
         <v>495</v>
@@ -3044,10 +3041,10 @@
         <v>497</v>
       </c>
       <c r="O12" t="s">
+        <v>494</v>
+      </c>
+      <c r="P12" t="s">
         <v>498</v>
-      </c>
-      <c r="P12" t="s">
-        <v>499</v>
       </c>
       <c r="Q12" t="s">
         <v>39</v>
@@ -3061,13 +3058,13 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -3079,10 +3076,10 @@
         <v>25</v>
       </c>
       <c r="I13" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" t="s">
         <v>353</v>
-      </c>
-      <c r="J13" t="s">
-        <v>354</v>
       </c>
       <c r="K13" t="s">
         <v>28</v>
@@ -3094,13 +3091,13 @@
         <v>28</v>
       </c>
       <c r="N13" t="s">
+        <v>500</v>
+      </c>
+      <c r="O13" t="s">
+        <v>494</v>
+      </c>
+      <c r="P13" t="s">
         <v>501</v>
-      </c>
-      <c r="O13" t="s">
-        <v>498</v>
-      </c>
-      <c r="P13" t="s">
-        <v>502</v>
       </c>
       <c r="Q13" t="s">
         <v>39</v>
@@ -3192,10 +3189,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
         <v>503</v>
-      </c>
-      <c r="D2" t="s">
-        <v>504</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -3210,10 +3207,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
+        <v>504</v>
+      </c>
+      <c r="J2" t="s">
         <v>505</v>
-      </c>
-      <c r="J2" t="s">
-        <v>506</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -3225,10 +3222,10 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
+        <v>506</v>
+      </c>
+      <c r="O2" t="s">
         <v>507</v>
-      </c>
-      <c r="O2" t="s">
-        <v>498</v>
       </c>
       <c r="P2" t="s">
         <v>508</v>
@@ -3277,7 +3274,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>512</v>
@@ -3426,10 +3423,10 @@
         <v>519</v>
       </c>
       <c r="O2" t="s">
+        <v>507</v>
+      </c>
+      <c r="P2" t="s">
         <v>520</v>
-      </c>
-      <c r="P2" t="s">
-        <v>521</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
@@ -3443,13 +3440,13 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
         <v>375</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>376</v>
-      </c>
-      <c r="D3" t="s">
-        <v>377</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -3464,10 +3461,10 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J3" t="s">
         <v>378</v>
-      </c>
-      <c r="J3" t="s">
-        <v>379</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -3479,16 +3476,16 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O3" t="s">
+        <v>521</v>
+      </c>
+      <c r="P3" t="s">
         <v>522</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>523</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>524</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -3502,16 +3499,16 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" t="s">
         <v>384</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>385</v>
-      </c>
-      <c r="E4" t="s">
-        <v>386</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -3523,10 +3520,10 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J4" t="s">
         <v>378</v>
-      </c>
-      <c r="J4" t="s">
-        <v>379</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -3538,16 +3535,16 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P4" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q4" t="s">
         <v>525</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>526</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -3561,13 +3558,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" t="s">
         <v>391</v>
-      </c>
-      <c r="D5" t="s">
-        <v>392</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
@@ -3582,10 +3579,10 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
+        <v>377</v>
+      </c>
+      <c r="J5" t="s">
         <v>378</v>
-      </c>
-      <c r="J5" t="s">
-        <v>379</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
@@ -3597,16 +3594,16 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O5" t="s">
+        <v>526</v>
+      </c>
+      <c r="P5" t="s">
         <v>527</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>528</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>529</v>
       </c>
       <c r="R5" t="s">
         <v>39</v>
@@ -3620,16 +3617,16 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" t="s">
         <v>398</v>
       </c>
-      <c r="D6" t="s">
-        <v>399</v>
-      </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -3641,10 +3638,10 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J6" t="s">
         <v>378</v>
-      </c>
-      <c r="J6" t="s">
-        <v>379</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
@@ -3656,16 +3653,16 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P6" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q6" t="s">
         <v>530</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>531</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
@@ -3679,13 +3676,13 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" t="s">
         <v>404</v>
-      </c>
-      <c r="D7" t="s">
-        <v>405</v>
       </c>
       <c r="E7" t="s">
         <v>62</v>
@@ -3700,10 +3697,10 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J7" t="s">
         <v>378</v>
-      </c>
-      <c r="J7" t="s">
-        <v>379</v>
       </c>
       <c r="K7" t="s">
         <v>28</v>
@@ -3715,16 +3712,16 @@
         <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P7" t="s">
         <v>532</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>533</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>534</v>
       </c>
       <c r="R7" t="s">
         <v>39</v>
@@ -3774,13 +3771,13 @@
         <v>310</v>
       </c>
       <c r="O8" t="s">
+        <v>534</v>
+      </c>
+      <c r="P8" t="s">
         <v>535</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>536</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>537</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -3797,7 +3794,7 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -3827,10 +3824,10 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
+        <v>538</v>
+      </c>
+      <c r="O9" t="s">
         <v>539</v>
-      </c>
-      <c r="O9" t="s">
-        <v>536</v>
       </c>
       <c r="P9" t="s">
         <v>540</v>
@@ -3881,13 +3878,13 @@
         <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O10" t="s">
+        <v>539</v>
+      </c>
+      <c r="P10" t="s">
         <v>542</v>
-      </c>
-      <c r="P10" t="s">
-        <v>543</v>
       </c>
       <c r="Q10" t="s">
         <v>39</v>
@@ -4160,10 +4157,10 @@
         <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
         <v>39</v>
@@ -4180,13 +4177,13 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -4216,7 +4213,7 @@
         <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
         <v>59</v>
@@ -4269,10 +4266,10 @@
         <v>67</v>
       </c>
       <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>69</v>
       </c>
       <c r="R7" t="s">
         <v>39</v>
@@ -4286,10 +4283,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
       </c>
       <c r="E8" t="s">
         <v>62</v>
@@ -4307,10 +4304,10 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
         <v>72</v>
-      </c>
-      <c r="K8" t="s">
-        <v>73</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -4325,10 +4322,10 @@
         <v>67</v>
       </c>
       <c r="P8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -4342,10 +4339,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -4363,10 +4360,10 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
         <v>77</v>
-      </c>
-      <c r="K9" t="s">
-        <v>78</v>
       </c>
       <c r="L9" t="s">
         <v>28</v>
@@ -4378,16 +4375,16 @@
         <v>28</v>
       </c>
       <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
         <v>79</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>81</v>
-      </c>
-      <c r="R9" t="s">
-        <v>82</v>
       </c>
       <c r="S9" t="s">
         <v>39</v>
@@ -4479,10 +4476,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -4497,10 +4494,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
         <v>85</v>
-      </c>
-      <c r="J2" t="s">
-        <v>86</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -4512,10 +4509,10 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s">
         <v>87</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
       </c>
       <c r="P2" t="s">
         <v>88</v>
@@ -4568,7 +4565,7 @@
         <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
         <v>93</v>
@@ -4585,7 +4582,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>89</v>
@@ -4621,7 +4618,7 @@
         <v>92</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
         <v>96</v>
@@ -4782,7 +4779,7 @@
         <v>28</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s">
         <v>111</v>
@@ -4841,10 +4838,10 @@
         <v>118</v>
       </c>
       <c r="U3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="V3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W3" t="s">
         <v>39</v>
@@ -4855,7 +4852,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -4867,10 +4864,10 @@
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
@@ -4884,10 +4881,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -4899,10 +4896,10 @@
         <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
@@ -4994,13 +4991,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -5012,10 +5009,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -5027,13 +5024,13 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
@@ -5047,13 +5044,13 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -5065,10 +5062,10 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -5080,13 +5077,13 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -5100,13 +5097,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -5118,10 +5115,10 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -5133,13 +5130,13 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
@@ -5153,13 +5150,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -5171,10 +5168,10 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
@@ -5186,13 +5183,13 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5" t="s">
         <v>39</v>
@@ -5206,10 +5203,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -5224,10 +5221,10 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
@@ -5239,10 +5236,10 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O6" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P6" t="s">
         <v>157</v>
@@ -5262,7 +5259,7 @@
         <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
         <v>159</v>
@@ -5295,10 +5292,10 @@
         <v>162</v>
       </c>
       <c r="O7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7" t="s">
         <v>39</v>
@@ -5328,10 +5325,10 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5393,22 +5390,22 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -5420,10 +5417,10 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
@@ -5432,33 +5429,33 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
         <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -5467,10 +5464,10 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -5497,7 +5494,7 @@
         <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q3" t="s">
         <v>182</v>
@@ -5514,7 +5511,7 @@
         <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -5553,10 +5550,10 @@
         <v>185</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -5567,10 +5564,10 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -5579,10 +5576,10 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -5606,13 +5603,13 @@
         <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R5" t="s">
         <v>39</v>
@@ -5623,22 +5620,22 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -5650,10 +5647,10 @@
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M6" t="s">
         <v>28</v>
@@ -5662,10 +5659,10 @@
         <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Q6" t="s">
         <v>200</v>
@@ -5718,7 +5715,7 @@
         <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s">
         <v>204</v>
@@ -5741,7 +5738,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
         <v>208</v>
@@ -5833,7 +5830,7 @@
         <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
         <v>217</v>
@@ -5856,7 +5853,7 @@
         <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>208</v>
@@ -5895,10 +5892,10 @@
         <v>224</v>
       </c>
       <c r="P10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" t="s">
         <v>225</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>226</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
@@ -5909,22 +5906,22 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
         <v>227</v>
       </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>228</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>229</v>
-      </c>
-      <c r="G11" t="s">
-        <v>230</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -5936,22 +5933,22 @@
         <v>25</v>
       </c>
       <c r="K11" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" t="s">
         <v>231</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" t="s">
         <v>232</v>
       </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>199</v>
+      </c>
+      <c r="P11" t="s">
         <v>233</v>
-      </c>
-      <c r="O11" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" t="s">
-        <v>225</v>
       </c>
       <c r="Q11" t="s">
         <v>234</v>
@@ -5971,7 +5968,7 @@
         <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
         <v>237</v>
@@ -5992,10 +5989,10 @@
         <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s">
         <v>28</v>
@@ -6007,7 +6004,7 @@
         <v>240</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q12" t="s">
         <v>241</v>
@@ -6024,7 +6021,7 @@
         <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
         <v>243</v>
@@ -6063,10 +6060,10 @@
         <v>249</v>
       </c>
       <c r="P13" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q13" t="s">
         <v>250</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>251</v>
       </c>
       <c r="R13" t="s">
         <v>39</v>
@@ -6096,10 +6093,10 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6161,22 +6158,22 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -6188,10 +6185,10 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
@@ -6200,10 +6197,10 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P2" t="s">
         <v>253</v>
-      </c>
-      <c r="P2" t="s">
-        <v>250</v>
       </c>
       <c r="Q2" t="s">
         <v>254</v>
@@ -6217,7 +6214,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
         <v>202</v>
@@ -6256,7 +6253,7 @@
         <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
         <v>255</v>
@@ -6279,7 +6276,7 @@
         <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
         <v>208</v>
@@ -6332,7 +6329,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>202</v>
@@ -6371,7 +6368,7 @@
         <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
         <v>262</v>
@@ -6391,10 +6388,10 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>208</v>
@@ -6433,10 +6430,10 @@
         <v>266</v>
       </c>
       <c r="P6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
@@ -6450,19 +6447,19 @@
         <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -6474,22 +6471,22 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" t="s">
         <v>231</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
         <v>232</v>
       </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>233</v>
-      </c>
       <c r="O7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q7" t="s">
         <v>271</v>
@@ -6509,7 +6506,7 @@
         <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
         <v>272</v>
@@ -6530,10 +6527,10 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -6545,7 +6542,7 @@
         <v>274</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q8" t="s">
         <v>275</v>
@@ -6562,7 +6559,7 @@
         <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
         <v>243</v>
@@ -6601,10 +6598,10 @@
         <v>278</v>
       </c>
       <c r="P9" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R9" t="s">
         <v>39</v>
@@ -6621,16 +6618,16 @@
         <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -6642,10 +6639,10 @@
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s">
         <v>28</v>
@@ -6654,13 +6651,13 @@
         <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
@@ -6671,22 +6668,22 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
         <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -6698,10 +6695,10 @@
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s">
         <v>28</v>
@@ -6710,10 +6707,10 @@
         <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Q11" t="s">
         <v>287</v>
@@ -6769,10 +6766,10 @@
         <v>294</v>
       </c>
       <c r="P12" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R12" t="s">
         <v>39</v>
@@ -6789,16 +6786,16 @@
         <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -6810,10 +6807,10 @@
         <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s">
         <v>28</v>
@@ -6822,13 +6819,13 @@
         <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P13" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R13" t="s">
         <v>39</v>
@@ -6839,22 +6836,22 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -6866,10 +6863,10 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s">
         <v>28</v>
@@ -6878,10 +6875,10 @@
         <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Q14" t="s">
         <v>303</v>
@@ -6914,10 +6911,10 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6979,7 +6976,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>288</v>
@@ -7038,7 +7035,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
         <v>288</v>
@@ -7080,10 +7077,10 @@
         <v>319</v>
       </c>
       <c r="P3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -7100,16 +7097,16 @@
         <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -7121,10 +7118,10 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -7133,10 +7130,10 @@
         <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q4" t="s">
         <v>325</v>
@@ -7169,10 +7166,10 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7234,10 +7231,10 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>326</v>
@@ -7276,7 +7273,7 @@
         <v>332</v>
       </c>
       <c r="P2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q2" t="s">
         <v>333</v>
@@ -7290,7 +7287,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
         <v>202</v>
@@ -7329,7 +7326,7 @@
         <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
         <v>334</v>
@@ -7352,7 +7349,7 @@
         <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
         <v>337</v>
@@ -7391,10 +7388,10 @@
         <v>341</v>
       </c>
       <c r="P4" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q4" t="s">
         <v>342</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>343</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -7405,7 +7402,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>202</v>
@@ -7444,16 +7441,16 @@
         <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q5" t="s">
         <v>344</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>345</v>
-      </c>
-      <c r="R5" t="s">
-        <v>346</v>
       </c>
       <c r="S5" t="s">
         <v>39</v>
@@ -7464,10 +7461,10 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>337</v>
@@ -7476,7 +7473,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G6" t="s">
         <v>223</v>
@@ -7503,13 +7500,13 @@
         <v>35</v>
       </c>
       <c r="O6" t="s">
+        <v>347</v>
+      </c>
+      <c r="P6" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q6" t="s">
         <v>348</v>
-      </c>
-      <c r="P6" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>349</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
@@ -7523,19 +7520,19 @@
         <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>350</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>351</v>
-      </c>
-      <c r="G7" t="s">
-        <v>352</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -7547,10 +7544,10 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L7" t="s">
         <v>353</v>
-      </c>
-      <c r="L7" t="s">
-        <v>354</v>
       </c>
       <c r="M7" t="s">
         <v>28</v>
@@ -7562,10 +7559,10 @@
         <v>332</v>
       </c>
       <c r="P7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R7" t="s">
         <v>39</v>
@@ -7582,16 +7579,16 @@
         <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
         <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -7603,10 +7600,10 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -7615,13 +7612,13 @@
         <v>35</v>
       </c>
       <c r="O8" t="s">
+        <v>357</v>
+      </c>
+      <c r="P8" t="s">
         <v>358</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>359</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>360</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -7635,7 +7632,7 @@
         <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
         <v>243</v>
@@ -7644,10 +7641,10 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" t="s">
         <v>361</v>
-      </c>
-      <c r="G9" t="s">
-        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -7671,13 +7668,13 @@
         <v>248</v>
       </c>
       <c r="O9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P9" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q9" t="s">
         <v>363</v>
-      </c>
-      <c r="P9" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>364</v>
       </c>
       <c r="R9" t="s">
         <v>39</v>
@@ -7694,16 +7691,16 @@
         <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -7715,10 +7712,10 @@
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s">
         <v>28</v>
@@ -7727,13 +7724,13 @@
         <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
@@ -7744,22 +7741,22 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
         <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" t="s">
         <v>367</v>
-      </c>
-      <c r="F11" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" t="s">
-        <v>368</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -7771,10 +7768,10 @@
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s">
         <v>28</v>
@@ -7783,13 +7780,13 @@
         <v>35</v>
       </c>
       <c r="O11" t="s">
+        <v>368</v>
+      </c>
+      <c r="P11" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q11" t="s">
         <v>369</v>
-      </c>
-      <c r="P11" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>371</v>
       </c>
       <c r="R11" t="s">
         <v>39</v>
@@ -7812,10 +7809,10 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -7839,13 +7836,13 @@
         <v>293</v>
       </c>
       <c r="O12" t="s">
+        <v>371</v>
+      </c>
+      <c r="P12" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q12" t="s">
         <v>373</v>
-      </c>
-      <c r="P12" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>374</v>
       </c>
       <c r="R12" t="s">
         <v>39</v>
@@ -7862,16 +7859,16 @@
         <v>288</v>
       </c>
       <c r="C13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" t="s">
         <v>375</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
         <v>376</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>377</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
@@ -7886,10 +7883,10 @@
         <v>25</v>
       </c>
       <c r="K13" t="s">
+        <v>377</v>
+      </c>
+      <c r="L13" t="s">
         <v>378</v>
-      </c>
-      <c r="L13" t="s">
-        <v>379</v>
       </c>
       <c r="M13" t="s">
         <v>28</v>
@@ -7898,16 +7895,16 @@
         <v>293</v>
       </c>
       <c r="O13" t="s">
+        <v>379</v>
+      </c>
+      <c r="P13" t="s">
         <v>380</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>381</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>382</v>
-      </c>
-      <c r="R13" t="s">
-        <v>383</v>
       </c>
       <c r="S13" t="s">
         <v>39</v>
@@ -7918,25 +7915,25 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
         <v>384</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>385</v>
-      </c>
-      <c r="G14" t="s">
-        <v>386</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -7948,10 +7945,10 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
+        <v>377</v>
+      </c>
+      <c r="L14" t="s">
         <v>378</v>
-      </c>
-      <c r="L14" t="s">
-        <v>379</v>
       </c>
       <c r="M14" t="s">
         <v>28</v>
@@ -7960,16 +7957,16 @@
         <v>293</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q14" t="s">
         <v>387</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>388</v>
-      </c>
-      <c r="R14" t="s">
-        <v>389</v>
       </c>
       <c r="S14" t="s">
         <v>39</v>
@@ -7980,22 +7977,22 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>391</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>392</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -8010,10 +8007,10 @@
         <v>25</v>
       </c>
       <c r="K15" t="s">
+        <v>377</v>
+      </c>
+      <c r="L15" t="s">
         <v>378</v>
-      </c>
-      <c r="L15" t="s">
-        <v>379</v>
       </c>
       <c r="M15" t="s">
         <v>28</v>
@@ -8022,16 +8019,16 @@
         <v>293</v>
       </c>
       <c r="O15" t="s">
+        <v>392</v>
+      </c>
+      <c r="P15" t="s">
         <v>393</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>394</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>395</v>
-      </c>
-      <c r="R15" t="s">
-        <v>396</v>
       </c>
       <c r="S15" t="s">
         <v>39</v>
@@ -8042,25 +8039,25 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
         <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>398</v>
       </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>399</v>
-      </c>
       <c r="G16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
@@ -8072,10 +8069,10 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
+        <v>377</v>
+      </c>
+      <c r="L16" t="s">
         <v>378</v>
-      </c>
-      <c r="L16" t="s">
-        <v>379</v>
       </c>
       <c r="M16" t="s">
         <v>28</v>
@@ -8084,16 +8081,16 @@
         <v>293</v>
       </c>
       <c r="O16" t="s">
+        <v>399</v>
+      </c>
+      <c r="P16" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q16" t="s">
         <v>400</v>
       </c>
-      <c r="P16" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>401</v>
-      </c>
-      <c r="R16" t="s">
-        <v>402</v>
       </c>
       <c r="S16" t="s">
         <v>39</v>
@@ -8104,22 +8101,22 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B17" t="s">
         <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
         <v>404</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>405</v>
       </c>
       <c r="G17" t="s">
         <v>62</v>
@@ -8134,10 +8131,10 @@
         <v>25</v>
       </c>
       <c r="K17" t="s">
+        <v>377</v>
+      </c>
+      <c r="L17" t="s">
         <v>378</v>
-      </c>
-      <c r="L17" t="s">
-        <v>379</v>
       </c>
       <c r="M17" t="s">
         <v>28</v>
@@ -8146,16 +8143,16 @@
         <v>293</v>
       </c>
       <c r="O17" t="s">
+        <v>405</v>
+      </c>
+      <c r="P17" t="s">
         <v>406</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>407</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>408</v>
-      </c>
-      <c r="R17" t="s">
-        <v>409</v>
       </c>
       <c r="S17" t="s">
         <v>39</v>
@@ -8166,22 +8163,22 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
         <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
@@ -8193,10 +8190,10 @@
         <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s">
         <v>28</v>
@@ -8205,13 +8202,13 @@
         <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P18" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q18" t="s">
         <v>412</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>413</v>
       </c>
       <c r="R18" t="s">
         <v>39</v>
@@ -8222,22 +8219,22 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B19" t="s">
         <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
+        <v>414</v>
+      </c>
+      <c r="F19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" t="s">
         <v>415</v>
-      </c>
-      <c r="F19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" t="s">
-        <v>416</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -8249,10 +8246,10 @@
         <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M19" t="s">
         <v>28</v>
@@ -8261,13 +8258,13 @@
         <v>35</v>
       </c>
       <c r="O19" t="s">
+        <v>416</v>
+      </c>
+      <c r="P19" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q19" t="s">
         <v>417</v>
-      </c>
-      <c r="P19" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>418</v>
       </c>
       <c r="R19" t="s">
         <v>39</v>

--- a/InterfaceAuto/data/Intelligent_mediation_result.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t>Run</t>
   </si>
@@ -145,10 +145,10 @@
     <t>{'code': 200, 'data': {'complexCase': [{'audio': None, 'audioList': [], 'caseId': '3b5185a77f06bb9e186e91bbf5028a83', 'checkAddress': '广东省广州市海珠区泉塘路6号', 'checkCondition': '未发现异常', 'checkContent': '王记餐馆因为售卖不新鲜菜品导致多人食物中毒，拉肚子，现在有六个人在餐馆和老板争论维权要求赔偿，联系人号码15050561903。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 20:03:04', 'committeeId': '4401030010001', 'infoSource': 3, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.08, 'lng': 113.28, 'mobile': None, 'picture': 'jpg/2018-11-27/6f13bf7dd6594fbfbcb5c339d23db7ea0.jpg', 'pictureList': [], 'timeLine': '29天前', 'vedio': None, 'vedioList': [], 'warningGrade': 4, 'warningGradeDesc': None}, {'audio': None, 'audioList': [], 'caseId': '0e60ad88755dc44bbecbd86dcd324ecd', 'checkAddress': '广东省佛山市南海区海八东路1号', 'checkCondition': '未发现异常', 'checkContent': '锦江花园小区里有一栋居民楼出现高空抛物砸伤人事件，整栋楼的居民都不承认是自己扔的并发生争吵，联系人电话18053236225。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 20:00:35', 'committeeId': '4401030010001', 'infoSource': 2, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.07, 'lng': 113.18, 'mobile': None, 'picture': 'jpg/2018-11-27/7dcb137754344a5e815ce71680e54c6c3.jpg', 'pictureList': [], 'timeLine': '29天前', 'vedio': None, 'vedioList': [], 'warningGrade': 4, 'warningGradeDesc': None}], 'importantCase': [{'audio': None, 'audioList': [], 'caseId': 'a303ddf65dbc69594aafe2f0327b9a1f', 'checkAddress': '广东省广州市越秀区中山二路106号', 'checkCondition': '未发现异常', 'checkContent': '越秀区人民医院发生一起医患纠纷，一名医生给患者诊断错误开错药，现在患者家属正在医院索要赔偿，联系人电18360863739。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 19:57:52', 'committeeId': '4401030010001', 'infoSource': 4, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.13, 'lng': 113.29, 'mobile': None, 'picture': 'jpg/2018-11-27/968ae13931cb4dd69891481e3ecf4a490.jpg', 'pictureList': [], 'timeLine': '29天前', 'vedio': None, 'vedioList': [], 'warningGrade': 3, 'warningGradeDesc': None}, {'audio': None, 'audioList': [], 'caseId': '17f68d4de22fbb13a8cc2efd0a0a95ac', 'checkAddress': '广东省广州市从化区', 'checkCondition': '未发现异常', 'checkContent': '用人单位拖欠十二名，农民工工资农民工集体上门索要工资，联系电话18013818854。', 'checkPerson': '105002J1960043', 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-11-27 19:42:21', 'committeeId': '4401030010001', 'infoSource': 1, 'infoSourceDesc': None, 'isCallPolice': 0, 'lat': 23.71, 'lng': 113.7, 'mobile': None, 'picture': 'jpg/2018-11-27/57b7f484199d4db4bd72dfe9fc27d7347.jpg', 'pictureList': [], 'timeLine': '29天前', 'vedio': None, 'vedioList': [], 'warningGrade': 3, 'warningGradeDesc': None}], 'caseID': None, 'total': 4}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:11 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.22382</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.912057</t>
   </si>
   <si>
     <t>200</t>
@@ -175,10 +175,10 @@
     <t>{'code': 200, 'data': {'audio': None, 'audioList': [], 'caseId': '3b5185a77f06bb9e186e91bbf5028a83', 'checkAddress': '广东省广州市海珠区泉塘路6号', 'checkCondition': '未发现异常', 'checkContent': '王记餐馆因为售卖不新鲜菜品导致多人食物中毒，拉肚子，现在有六个人在餐馆和老板争论维权要求赔偿，联系人号码15050561903。', 'checkPerson': '105002J1960043', 'checkPersonName': '汤杏养', 'checkStatus': 0, 'checkTime': '2018-11-27 20:03:04', 'committeeId': '4401030010001', 'infoSource': 3, 'infoSourceDesc': '信访', 'isCallPolice': 0, 'lat': 23.08, 'lng': 113.28, 'mobile': None, 'picture': 'jpg/2018-11-27/6f13bf7dd6594fbfbcb5c339d23db7ea0.jpg', 'pictureList': ['jpg/2018-11-27/6f13bf7dd6594fbfbcb5c339d23db7ea0.jpg'], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 4, 'warningGradeDesc': '疑难纠纷'}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:12 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.17968</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:35 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.412801</t>
   </si>
   <si>
     <t>queryForPage</t>
@@ -199,10 +199,10 @@
     <t>【纠纷排查接口】查询纠纷排查信息(分页)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '6602ff6a3fd66f82a6fbfc8cb6bb11fe', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:48:31', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '009d4576b7f205b96de4a0b657703d4c', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:45:14', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f7ea7b6d9caca95a4be1ce821f423d2d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:10:12', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '82f4239572c7a800b3de44a52d577217', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:04:09', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '06236131dd7e91c16f83eb027cf95832', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:02:42', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '0e5b58803dc189f818e1a871a65ebaad', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:00:44', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4e6fd3c3f1d4149d95c9653117f4438a', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:37:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '05cbae442fe12130318a17146fca8d71', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:33:42', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4624ecac134419a61e623f535eb139f9', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:30:53', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '0c6fbe94ec28a4fe6e77a9f999446d3e', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:18:58', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 266}}</t>
-  </si>
-  <si>
-    <t>0.148162</t>
+    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'c4958f8bff04d6c8f6c7e8878c6fae27', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:51:22', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '6602ff6a3fd66f82a6fbfc8cb6bb11fe', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:48:31', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '009d4576b7f205b96de4a0b657703d4c', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:45:14', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f7ea7b6d9caca95a4be1ce821f423d2d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:10:12', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '82f4239572c7a800b3de44a52d577217', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:04:09', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '06236131dd7e91c16f83eb027cf95832', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:02:42', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '0e5b58803dc189f818e1a871a65ebaad', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:00:44', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4e6fd3c3f1d4149d95c9653117f4438a', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:37:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '05cbae442fe12130318a17146fca8d71', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:33:42', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4624ecac134419a61e623f535eb139f9', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:30:53', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 267}}</t>
+  </si>
+  <si>
+    <t>0.411413</t>
   </si>
   <si>
     <t>必选无情况下不传参</t>
@@ -211,7 +211,7 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', '!=', []), ('data', 'list,key', ['audio', 'audioList', 'caseId', 'checkAddress', 'checkCondition', 'checkContent', 'checkPerson', 'checkPersonName', 'checkStatus', 'checkTime', 'committeeId', 'infoSource', 'infoSourceDesc', 'isCallPolice', 'lat', 'lng', 'mobile', 'picture', 'pictureList', 'timeLine', 'vedio', 'warningGradeDesc', 'vedioList', 'warningGrade'])]</t>
   </si>
   <si>
-    <t>0.164039</t>
+    <t>0.518158</t>
   </si>
   <si>
     <t>save</t>
@@ -238,10 +238,10 @@
     <t>{'code': 200, 'data': [], 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:13 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.196096</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:36 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.453675</t>
   </si>
   <si>
     <t>update</t>
@@ -256,7 +256,10 @@
     <t>【纠纷排查接口】更新纠纷排查信息</t>
   </si>
   <si>
-    <t>0.144313</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:37 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.151443</t>
   </si>
   <si>
     <t>upload_attachment</t>
@@ -274,13 +277,10 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\代用名身份证.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': ['jpg/2018-12-27/a7656d24ec054604818479325526d0984.jpg'], 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:14 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.640766</t>
+    <t>{'code': 200, 'data': ['jpg/2018-12-27/85ac9e7511e54aad921a11f349e1a90f1.jpg'], 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.632438</t>
   </si>
   <si>
     <t>query</t>
@@ -298,7 +298,10 @@
     <t>{'code': 200, 'data': {'address': '广州市荔湾区沙面大街18号地下', 'area': '街道', 'chargePerson': '尉仙雅', 'collectTime': None, 'committeeId': '4401030010001', 'committeeName': '沙面街翠洲社区居民委员会人民调解委员会', 'committeePic': None, 'committeeType': '居委会设调委会', 'createTime': 978278400000, 'email': None, 'faxNumber': '510000', 'fullMediatorCount': None, 'hzCommitteeType': None, 'partMediatorCount': None, 'phone': '020-81215219', 'postCode': None, 'remark': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.138779</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:38 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.134782</t>
   </si>
   <si>
     <t>{'info': {'address': 'string', 'area': 'string', 'chargePerson': 'string', 'collectTime': '2018-12-10T02:30:23.731Z', 'committeeId': 'string', 'committeeName': 'string', 'committeePic': 'string', 'committeeType': 'string', 'createTime': '2018-12-10T02:30:23.731Z', 'email': 'string', 'faxNumber': 'string', 'fullMediatorCount': 0, 'hzCommitteeType': 'string', 'partMediatorCount': 0, 'phone': 'string', 'postCode': 'string', 'remark': 'string'}}</t>
@@ -313,7 +316,7 @@
     <t>{'code': 200, 'data': None, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.176185</t>
+    <t>0.52472</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/committee/update</t>
@@ -322,10 +325,7 @@
     <t>【调解委员会接口】调解委员会信息更新</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:15 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.182371</t>
+    <t>0.141962</t>
   </si>
   <si>
     <t>interface_except</t>
@@ -371,13 +371,13 @@
     <t>【通用接口】身份证上传</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/5d4c2095e2124d70bc34fc894e7707c40.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:17 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.279092</t>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/1ce0d967fe6f4d2ea255f7953df369ae6.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:41 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.142378</t>
   </si>
   <si>
     <t>nationDictionary</t>
@@ -395,7 +395,7 @@
     <t>{'code': 200, 'data': [{'1': '汉族'}, {'2': '蒙古族'}, {'3': '回族'}, {'4': '藏族'}, {'5': '维吾尔族'}, {'6': '苗族'}, {'7': '彝族'}, {'8': '壮族'}, {'9': '布依族'}, {'10': '朝鲜族'}, {'11': '满族'}, {'12': '侗族'}, {'13': '瑶族'}, {'14': '白族'}, {'15': '土家族'}, {'16': '哈尼族'}, {'17': '哈萨克族'}, {'18': '傣族'}, {'19': '黎族'}, {'20': '傈僳族'}, {'21': '佤族'}, {'22': '畲族'}, {'23': '高山族'}, {'24': '拉祜族'}, {'25': '水族'}, {'26': '东乡族'}, {'27': '纳西族'}, {'28': '景颇族'}, {'29': '柯尔克孜族'}, {'30': '土族'}, {'31': '达斡尔族'}, {'32': '仫佬族'}, {'33': '羌族'}, {'34': '布朗族'}, {'35': '撒拉族'}, {'36': '毛南族'}, {'37': '仡佬族'}, {'38': '锡伯族'}, {'39': '阿昌族'}, {'40': '普米族'}, {'41': '塔吉克族'}, {'42': '怒族'}, {'43': '乌孜别克族'}, {'44': '俄罗斯族'}, {'45': '鄂温克族'}, {'46': '德昂族'}, {'47': '保安族'}, {'48': '裕固族'}, {'49': '京族'}, {'50': '塔塔尔族'}, {'51': '独龙族'}, {'52': '鄂伦春族'}, {'53': '赫哲族'}, {'54': '门巴族'}, {'55': '珞巴族'}, {'56': '基诺族'}, {'57': '其他'}, {'58': '外国血统'}], 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.166334</t>
+    <t>0.126114</t>
   </si>
   <si>
     <t>newIdentify</t>
@@ -438,10 +438,7 @@
     <t>{'code': 200, 'data': '修改成功', 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:18 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.212934</t>
+    <t>0.147515</t>
   </si>
   <si>
     <t>changeState</t>
@@ -456,7 +453,10 @@
     <t>【调解案件接口】案件状态更改接口</t>
   </si>
   <si>
-    <t>0.169062</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:42 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.156234</t>
   </si>
   <si>
     <t>getCaseDetail</t>
@@ -471,13 +471,10 @@
     <t>【调解案件接口】案件详情</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'acceptDate': 1543730751000, 'applicantIds': 'cd91b99450b142d0b51dd7c5a706a423', 'audio': None, 'caseId': '0440105018000620180057', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-02 14:05:51', 'difficultyLevel': None, 'disputeContent': '2018年11月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后,将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费;张兵认为王刚在未经自己允许的情况下擅自打伤其受狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1543075200000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:19', 'mediateAddress': None, 'mediateDate': 1543104000000, 'mediationId': None, 'mediationResult': '01', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '一、张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费并对受到惊吓的张美进行安抚和道歉;二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用。', 'protocolDate': None, 'remark': None, 'respondentIds': '7ac1ac1d1a6847d1892ff0631a70034a', 'state': 2, 'type': 2, 'video': None}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:19 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.148921</t>
+    <t>{'code': 200, 'data': {'acceptDate': 1543730751000, 'applicantIds': 'cd91b99450b142d0b51dd7c5a706a423', 'audio': None, 'caseId': '0440105018000620180057', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-02 14:05:51', 'difficultyLevel': None, 'disputeContent': '2018年11月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后,将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费;张兵认为王刚在未经自己允许的情况下擅自打伤其受狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1543075200000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:42', 'mediateAddress': None, 'mediateDate': 1543104000000, 'mediationId': None, 'mediationResult': '01', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '一、张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费并对受到惊吓的张美进行安抚和道歉;二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用。', 'protocolDate': None, 'remark': None, 'respondentIds': '7ac1ac1d1a6847d1892ff0631a70034a', 'state': 2, 'type': 2, 'video': None}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.150466</t>
   </si>
   <si>
     <t>getCaseHandleCount</t>
@@ -489,10 +486,10 @@
     <t>【调解案件接口】案件处理情况</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'mediatorCount': 171, 'supplyCount': 171, 'checkCount': 108}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.164052</t>
+    <t>{'code': 200, 'data': {'mediatorCount': 172, 'supplyCount': 172, 'checkCount': 109}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.158955</t>
   </si>
   <si>
     <t>getCaseInfoList</t>
@@ -507,10 +504,13 @@
     <t>【调解案件接口】调解案件列表</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180891', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:25', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:25', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889763000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180890', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:23', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:23', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180884', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:10', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:10', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889568000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180883', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:08', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:08', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180878', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 10:11:21', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:11:21', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545876678000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180877', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:11:18', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:11:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180871', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 10:05:29', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:05:30', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545876325000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180870', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:05:25', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:05:25', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1544716800000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180865', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 10:01:18', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:01:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180860', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 09:38:18', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:38:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}], 'msg': '成功', 'pager': {'page': 2, 'total': 271}}</t>
-  </si>
-  <si>
-    <t>0.177986</t>
+    <t>{'code': 200, 'data': [{'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180898', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:52:16', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:52:16', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889934000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180897', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:52:14', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:52:14', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180891', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:25', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:25', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889763000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180890', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:23', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:23', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180884', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:10', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:10', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889568000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180883', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:08', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:08', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180878', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 10:11:21', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:11:21', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545876678000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180877', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:11:18', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:11:18', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1542902400000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180871', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 10:05:29', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:05:30', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545876325000, 'applicantIds': None, 'audio': None, 'caseId': '0440103001000120180870', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:05:25', 'difficultyLevel': None, 'disputeContent': 'balabala…', 'disputeDate': None, 'disputeType': '01', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:05:25', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': None, 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': None, 'state': 1, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 2, 'total': 273}}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:43 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.176694</t>
   </si>
   <si>
     <t>getRoomId</t>
@@ -525,13 +525,10 @@
     <t>【调解案件接口】获取房间号</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180057', 'roomId': '8799'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:20 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.163808</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180057', 'roomId': '6161'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.137928</t>
   </si>
   <si>
     <t>CaseNum</t>
@@ -558,7 +555,7 @@
     <t>【语音识别】语音识别</t>
   </si>
   <si>
-    <t>祁欢</t>
+    <t>周意</t>
   </si>
   <si>
     <t>[('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))]</t>
@@ -567,16 +564,16 @@
     <t>{'code': 203, 'data': None, 'msg': '无数据', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:21 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>1.203483</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:44 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>1.174845</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t xml:space="preserve">case_data：{'CaseNum': 'case1', 'Module': 'informer', 'Interface': 'audio', '用例描述': '', 'QuotoSituation': None, 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'dispute_flow', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'leader': '祁欢', 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:21 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 1.203483, 'status_code': 200}
+    <t xml:space="preserve">case_data：{'CaseNum': 'case1', 'Module': 'informer', 'Interface': 'audio', '用例描述': '', 'QuotoSituation': None, 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'dispute_flow', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'leader': '周意', 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:44 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 1.174845, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 203
 </t>
   </si>
@@ -590,7 +587,10 @@
     <t>{'form': {'checkContent': '语音消息', 'infoSource': 1, 'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'picture': '', 'mobile': '', 'checkAddress': '广东省清远市佛冈县'}}</t>
   </si>
   <si>
-    <t>0.189567</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:45 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.164318</t>
   </si>
   <si>
     <t>case3</t>
@@ -599,28 +599,25 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'list0,C=', {'checkContent': '语音消息', 'infoSource': 1, 'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'picture': '', 'mobile': '', 'checkAddress': '广东省清远市佛冈县'})]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'c4958f8bff04d6c8f6c7e8878c6fae27', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:51:22', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '6602ff6a3fd66f82a6fbfc8cb6bb11fe', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:48:31', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '009d4576b7f205b96de4a0b657703d4c', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:45:14', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f7ea7b6d9caca95a4be1ce821f423d2d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:10:12', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '82f4239572c7a800b3de44a52d577217', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:04:09', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '06236131dd7e91c16f83eb027cf95832', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:02:42', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '0e5b58803dc189f818e1a871a65ebaad', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:00:44', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4e6fd3c3f1d4149d95c9653117f4438a', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:37:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '05cbae442fe12130318a17146fca8d71', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:33:42', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4624ecac134419a61e623f535eb139f9', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:30:53', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 267}}</t>
-  </si>
-  <si>
-    <t>0.171578</t>
+    <t>{'code': 200, 'data': [{'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'a1e66d51583db67d662bd15211d96cb1', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:55:45', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'c4958f8bff04d6c8f6c7e8878c6fae27', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:51:22', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '6602ff6a3fd66f82a6fbfc8cb6bb11fe', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:48:31', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '009d4576b7f205b96de4a0b657703d4c', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:45:14', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'f7ea7b6d9caca95a4be1ce821f423d2d', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:10:12', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '82f4239572c7a800b3de44a52d577217', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:04:09', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '06236131dd7e91c16f83eb027cf95832', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:02:42', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '0e5b58803dc189f818e1a871a65ebaad', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 10:00:44', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '4e6fd3c3f1d4149d95c9653117f4438a', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:37:25', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': '05cbae442fe12130318a17146fca8d71', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 09:33:42', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}], 'msg': '成功', 'pager': {'page': 10, 'total': 268}}</t>
+  </si>
+  <si>
+    <t>0.140964</t>
   </si>
   <si>
     <t>case4</t>
   </si>
   <si>
-    <t>{'caseCheckID': 'c4958f8bff04d6c8f6c7e8878c6fae27'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200), ('data.caseId', '=', 'c4958f8bff04d6c8f6c7e8878c6fae27')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'c4958f8bff04d6c8f6c7e8878c6fae27', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:51:22', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:22 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.1739</t>
+    <t>{'caseCheckID': 'a1e66d51583db67d662bd15211d96cb1'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('code', '=', 200), ('data.caseId', '=', 'a1e66d51583db67d662bd15211d96cb1')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'audio': 'mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3', 'audioList': ['mp3/2018-12-11/2e02116aaef94f8c8fde76ae54a8f63d6.mp3'], 'caseId': 'a1e66d51583db67d662bd15211d96cb1', 'checkAddress': '广东省清远市佛冈县', 'checkCondition': None, 'checkContent': '语音消息', 'checkPerson': None, 'checkPersonName': None, 'checkStatus': 0, 'checkTime': '2018-12-27 13:55:45', 'committeeId': None, 'infoSource': 1, 'infoSourceDesc': '群众', 'isCallPolice': 0, 'lat': 23.88, 'lng': 113.57, 'mobile': '', 'picture': '', 'pictureList': [], 'timeLine': None, 'vedio': None, 'vedioList': [], 'warningGrade': 1, 'warningGradeDesc': '简单纠纷'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.156061</t>
   </si>
   <si>
     <t>case5</t>
@@ -641,10 +638,10 @@
     <t>【书面调解快速调解接口】快速调解保存案件信息</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180893'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.230199</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180900'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.158416</t>
   </si>
   <si>
     <t>case6</t>
@@ -656,13 +653,13 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.address', '=', '福建省龙岩市东城东宝路336号'), ('data.age', '=', 30), ('data.id', '=', '350802198808285516'), ('data.name', '=', '代用名'), ('data.nation', '=', '汉'), ('data.sex', '=', '男')]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/4178cd1481e445e59aa25992c3cb23ce3.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:25 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.219945</t>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/a21a2be09b1e401c8d957326215e76d78.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:48 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.08672</t>
   </si>
   <si>
     <t>case7</t>
@@ -671,10 +668,10 @@
     <t>quick/saveNatural</t>
   </si>
   <si>
-    <t>{'case6_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/4178cd1481e445e59aa25992c3cb23ce3.jpg'], 'sex': '男', 'sexData': 1}}</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180893', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/4178cd1481e445e59aa25992c3cb23ce3.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
+    <t>{'case6_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/a21a2be09b1e401c8d957326215e76d78.jpg'], 'sex': '男', 'sexData': 1}}</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180900', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/a21a2be09b1e401c8d957326215e76d78.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
   </si>
   <si>
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'applicantIds')]</t>
@@ -686,43 +683,40 @@
     <t>【书面调解快速调解接口】快速调解保存当事人信息(自然人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': '3d5278fa436045a7b2379c66abad88fb'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.16688</t>
+    <t>{'code': 200, 'data': {'applicantIds': '06eb4f94d9b5449cae153884962bb151'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.232924</t>
   </si>
   <si>
     <t>case8</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/14a61a808ec14b9a85e99e43535e32466.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:27 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.189247</t>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/28c9b1f6a87047f68499860b8ff4a6ab7.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:50 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.049114</t>
   </si>
   <si>
     <t>case9</t>
   </si>
   <si>
-    <t>{'case8_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/14a61a808ec14b9a85e99e43535e32466.jpg'], 'sex': '男', 'sexData': 1}}</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180893', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/14a61a808ec14b9a85e99e43535e32466.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
+    <t>{'case8_data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/28c9b1f6a87047f68499860b8ff4a6ab7.jpg'], 'sex': '男', 'sexData': 1}}</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180900', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/28c9b1f6a87047f68499860b8ff4a6ab7.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
   </si>
   <si>
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'respondentIds')]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'respondentIds': '4f334225e98844fab796cf5adbbf105b'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:28 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.194297</t>
+    <t>{'code': 200, 'data': {'respondentIds': 'e0e003e78d6046248ad660ebeaaab10e'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.165403</t>
   </si>
   <si>
     <t>case10</t>
@@ -731,10 +725,10 @@
     <t>quick/saveResult</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180893', 'mediationResult': '01'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180893'), ('data', 'key', 'caseId')]</t>
+    <t>{'caseId': '0440103001000120180900', 'mediationResult': '01'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180900'), ('data', 'key', 'caseId')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/quick/saveResult</t>
@@ -749,7 +743,10 @@
 </t>
   </si>
   <si>
-    <t>0.225565</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:51 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.159963</t>
   </si>
   <si>
     <t>case11</t>
@@ -758,19 +755,19 @@
     <t>disputeCaseInfo</t>
   </si>
   <si>
-    <t>{'data': {'acceptDate': 1545889883000, 'applicantIds': '3d5278fa436045a7b2379c66abad88fb', 'audio': None, 'caseId': '0440103001000120180893', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:23', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:28', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f334225e98844fab796cf5adbbf105b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case5_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '17', 'mediationAddress': '广东省清远市佛冈县', 'mediationDate': '2018-12-13'}}</t>
+    <t>{'data': {'acceptDate': 1545890146000, 'applicantIds': '06eb4f94d9b5449cae153884962bb151', 'audio': None, 'caseId': '0440103001000120180900', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:51', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e0e003e78d6046248ad660ebeaaab10e', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case5_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '17', 'mediationAddress': '广东省清远市佛冈县', 'mediationDate': '2018-12-13'}}</t>
   </si>
   <si>
     <t>{'page': 0, 'size': 10, 'state': 2}</t>
   </si>
   <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180893'), ('%data%applicantIds', '=', '3d5278fa436045a7b2379c66abad88fb'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '道路交通事故纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', '4f334225e98844fab796cf5adbbf105b'), ('%data%type', '=', 1)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545889883000, 'applicantIds': '3d5278fa436045a7b2379c66abad88fb', 'audio': None, 'caseId': '0440103001000120180893', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:23', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:28', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f334225e98844fab796cf5adbbf105b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889712000, 'applicantIds': '7e5dc71515254c8b9d5f18dda344a609', 'audio': None, 'caseId': '0440103001000120180886', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'bd0e4235f2344848a7016ad4f4f47a09', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889515000, 'applicantIds': 'c2c119d0d13a4632a8243df9090c57cc', 'audio': None, 'caseId': '0440103001000120180879', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:15', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:21', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '42f5005181db4cfa91217b02c6aa9656', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876614000, 'applicantIds': 'c78913cf35184d5d967b63ff68e10e3d', 'audio': None, 'caseId': '0440103001000120180873', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:10:14', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:10:20', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ccceaa5ba7d4cb9b3adead2632b23a4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876251000, 'applicantIds': '66e046950feb4f28bc9ee219676d5f0f', 'audio': None, 'caseId': '0440103001000120180866', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:04:11', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:04:18', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e338926d5b5145e698b5cef94e53e038', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876046000, 'applicantIds': 'fcf0063d92ec4fa68b715e0db2df4925', 'audio': None, 'caseId': '0440103001000120180862', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:00:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:00:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7aa16f8340684443b1b409d646b9e898', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874646000, 'applicantIds': '8ecfd3743e9844f794b43a0b0a897156', 'audio': None, 'caseId': '0440103001000120180855', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:37:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:37:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'c577423f60b44ec685773043be635207', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874423000, 'applicantIds': '71a2dcc4bf2944be830f1cfb18840bc1', 'audio': None, 'caseId': '0440103001000120180848', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:33:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:33:49', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6867a8014de146d08a48445bcc898546', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545873538000, 'applicantIds': '3c1265b6bc4c4c26bb979f0c28f22d18', 'audio': None, 'caseId': '0440103001000120180834', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:18:58', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:19:05', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ca9e554040d45e692be570b8dcb492c', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 172}}</t>
-  </si>
-  <si>
-    <t>0.13883</t>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180900'), ('%data%applicantIds', '=', '06eb4f94d9b5449cae153884962bb151'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '道路交通事故纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', 'e0e003e78d6046248ad660ebeaaab10e'), ('%data%type', '=', 1)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545890146000, 'applicantIds': '06eb4f94d9b5449cae153884962bb151', 'audio': None, 'caseId': '0440103001000120180900', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:51', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e0e003e78d6046248ad660ebeaaab10e', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889883000, 'applicantIds': '3d5278fa436045a7b2379c66abad88fb', 'audio': None, 'caseId': '0440103001000120180893', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:23', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:28', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f334225e98844fab796cf5adbbf105b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889712000, 'applicantIds': '7e5dc71515254c8b9d5f18dda344a609', 'audio': None, 'caseId': '0440103001000120180886', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'bd0e4235f2344848a7016ad4f4f47a09', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889515000, 'applicantIds': 'c2c119d0d13a4632a8243df9090c57cc', 'audio': None, 'caseId': '0440103001000120180879', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:15', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:21', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '42f5005181db4cfa91217b02c6aa9656', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876614000, 'applicantIds': 'c78913cf35184d5d967b63ff68e10e3d', 'audio': None, 'caseId': '0440103001000120180873', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:10:14', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:10:20', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ccceaa5ba7d4cb9b3adead2632b23a4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876251000, 'applicantIds': '66e046950feb4f28bc9ee219676d5f0f', 'audio': None, 'caseId': '0440103001000120180866', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:04:11', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:04:18', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e338926d5b5145e698b5cef94e53e038', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876046000, 'applicantIds': 'fcf0063d92ec4fa68b715e0db2df4925', 'audio': None, 'caseId': '0440103001000120180862', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:00:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:00:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7aa16f8340684443b1b409d646b9e898', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874646000, 'applicantIds': '8ecfd3743e9844f794b43a0b0a897156', 'audio': None, 'caseId': '0440103001000120180855', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:37:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:37:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'c577423f60b44ec685773043be635207', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874423000, 'applicantIds': '71a2dcc4bf2944be830f1cfb18840bc1', 'audio': None, 'caseId': '0440103001000120180848', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:33:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:33:49', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6867a8014de146d08a48445bcc898546', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 173}}</t>
+  </si>
+  <si>
+    <t>0.139512</t>
   </si>
   <si>
     <t>case12</t>
@@ -779,10 +776,10 @@
     <t>getFullCaseInfo</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180893'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180893'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180893', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/4178cd1481e445e59aa25992c3cb23ce3.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180893', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/14a61a808ec14b9a85e99e43535e32466.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545889883000, 'applicantIds': '3d5278fa436045a7b2379c66abad88fb', 'audio': None, 'caseId': '0440103001000120180893', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:23', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:28', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f334225e98844fab796cf5adbbf105b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
+    <t>{'caseId': '0440103001000120180900'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180900'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180900', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/a21a2be09b1e401c8d957326215e76d78.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180900', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'jpg/2018-12-27/28c9b1f6a87047f68499860b8ff4a6ab7.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545890146000, 'applicantIds': '06eb4f94d9b5449cae153884962bb151', 'audio': None, 'caseId': '0440103001000120180900', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:51', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e0e003e78d6046248ad660ebeaaab10e', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/getFullCaseInfo</t>
@@ -797,118 +794,115 @@
 </t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-27/4178cd1481e445e59aa25992c3cb23ce3.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '3d5278fa436045a7b2379c66abad88fb', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545889883000, 'applicantIds': '3d5278fa436045a7b2379c66abad88fb', 'audio': None, 'caseId': '0440103001000120180893', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:23', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:28', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f334225e98844fab796cf5adbbf105b', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-27/14a61a808ec14b9a85e99e43535e32466.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '4f334225e98844fab796cf5adbbf105b', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:29 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.16162</t>
+    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-27/a21a2be09b1e401c8d957326215e76d78.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '06eb4f94d9b5449cae153884962bb151', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545890146000, 'applicantIds': '06eb4f94d9b5449cae153884962bb151', 'audio': None, 'caseId': '0440103001000120180900', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:51', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e0e003e78d6046248ad660ebeaaab10e', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'jpg/2018-12-27/28c9b1f6a87047f68499860b8ff4a6ab7.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': 'e0e003e78d6046248ad660ebeaaab10e', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.137684</t>
   </si>
   <si>
     <t>{'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '14', 'mediationAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediationDate': '2018-12-14'}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180894'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.171232</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/5c625abf47304c5f91498b0f5de5b0276.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:32 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.314244</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180894', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/5c625abf47304c5f91498b0f5de5b0276.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicantIds': '08a1bb78e9a44bae898934d75f558e7e'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.156407</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/baf6b30423ee47dfa2551a9277c974262.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.138815</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180894', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/baf6b30423ee47dfa2551a9277c974262.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.16191</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180894', 'mediationResult': '02'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180894'), ('data', 'key', 'caseId')]</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:35 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.161205</t>
-  </si>
-  <si>
-    <t>{'data': {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:35', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case1_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '14', 'mediationAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediationDate': '2018-12-14'}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180894'), ('%data%applicantIds', '=', '08a1bb78e9a44bae898934d75f558e7e'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '电子商务纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县高岗镇高镇村(近829县道)'), ('%data%mediationResult', '=', '调解不成功'), ('%data%respondentIds', '=', 'a8eb4ce799b24350b8ef7c0f83867735')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:35', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889883000, 'applicantIds': '3d5278fa436045a7b2379c66abad88fb', 'audio': None, 'caseId': '0440103001000120180893', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:23', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:28', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f334225e98844fab796cf5adbbf105b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889712000, 'applicantIds': '7e5dc71515254c8b9d5f18dda344a609', 'audio': None, 'caseId': '0440103001000120180886', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'bd0e4235f2344848a7016ad4f4f47a09', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889515000, 'applicantIds': 'c2c119d0d13a4632a8243df9090c57cc', 'audio': None, 'caseId': '0440103001000120180879', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:15', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:21', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '42f5005181db4cfa91217b02c6aa9656', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876614000, 'applicantIds': 'c78913cf35184d5d967b63ff68e10e3d', 'audio': None, 'caseId': '0440103001000120180873', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:10:14', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:10:20', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ccceaa5ba7d4cb9b3adead2632b23a4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876251000, 'applicantIds': '66e046950feb4f28bc9ee219676d5f0f', 'audio': None, 'caseId': '0440103001000120180866', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:04:11', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:04:18', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e338926d5b5145e698b5cef94e53e038', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876046000, 'applicantIds': 'fcf0063d92ec4fa68b715e0db2df4925', 'audio': None, 'caseId': '0440103001000120180862', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:00:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:00:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7aa16f8340684443b1b409d646b9e898', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874646000, 'applicantIds': '8ecfd3743e9844f794b43a0b0a897156', 'audio': None, 'caseId': '0440103001000120180855', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:37:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:37:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'c577423f60b44ec685773043be635207', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874423000, 'applicantIds': '71a2dcc4bf2944be830f1cfb18840bc1', 'audio': None, 'caseId': '0440103001000120180848', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:33:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:33:49', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6867a8014de146d08a48445bcc898546', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 173}}</t>
-  </si>
-  <si>
-    <t>0.168576</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180894'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180894'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180894', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/5c625abf47304c5f91498b0f5de5b0276.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180894', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/baf6b30423ee47dfa2551a9277c974262.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:35', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/5c625abf47304c5f91498b0f5de5b0276.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '08a1bb78e9a44bae898934d75f558e7e', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:35', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/baf6b30423ee47dfa2551a9277c974262.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': 'a8eb4ce799b24350b8ef7c0f83867735', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.156882</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180894', 'state': 3}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:36 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.160867</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180894', 'data': {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:36', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}}</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180901'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.150165</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/02ba7569d7a54135921cf4da7087f3b50.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:54 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.061228</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180901', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/02ba7569d7a54135921cf4da7087f3b50.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicantIds': '5921015582304501bc02e34c30cfe52f'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.1557</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/fa8f9fa034024e05bc7419a707e93d943.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:56 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.269827</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180901', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/fa8f9fa034024e05bc7419a707e93d943.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'respondentIds': '0337315568d3405dbddf02dab74c35b1'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:57 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.177831</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180901', 'mediationResult': '02'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.caseId', '=', '0440103001000120180901'), ('data', 'key', 'caseId')]</t>
+  </si>
+  <si>
+    <t>0.14727</t>
+  </si>
+  <si>
+    <t>{'data': {'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:57', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case1_input': {'committeeId': '4401030010001', 'disputeContent': '111', 'disputeType': '14', 'mediationAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediationDate': '2018-12-14'}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180901'), ('%data%applicantIds', '=', '5921015582304501bc02e34c30cfe52f'), ('%data%disputeContent', '=', '111'), ('%data%disputeType', '=', '电子商务纠纷'), ('%data%mediateAddress', '=', '广东省清远市佛冈县高岗镇高镇村(近829县道)'), ('%data%mediationResult', '=', '调解不成功'), ('%data%respondentIds', '=', '0337315568d3405dbddf02dab74c35b1')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:57', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545890146000, 'applicantIds': '06eb4f94d9b5449cae153884962bb151', 'audio': None, 'caseId': '0440103001000120180900', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:51', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e0e003e78d6046248ad660ebeaaab10e', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889883000, 'applicantIds': '3d5278fa436045a7b2379c66abad88fb', 'audio': None, 'caseId': '0440103001000120180893', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:23', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:28', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f334225e98844fab796cf5adbbf105b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889712000, 'applicantIds': '7e5dc71515254c8b9d5f18dda344a609', 'audio': None, 'caseId': '0440103001000120180886', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'bd0e4235f2344848a7016ad4f4f47a09', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889515000, 'applicantIds': 'c2c119d0d13a4632a8243df9090c57cc', 'audio': None, 'caseId': '0440103001000120180879', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:15', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:21', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '42f5005181db4cfa91217b02c6aa9656', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876614000, 'applicantIds': 'c78913cf35184d5d967b63ff68e10e3d', 'audio': None, 'caseId': '0440103001000120180873', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:10:14', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:10:20', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ccceaa5ba7d4cb9b3adead2632b23a4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876251000, 'applicantIds': '66e046950feb4f28bc9ee219676d5f0f', 'audio': None, 'caseId': '0440103001000120180866', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:04:11', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:04:18', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e338926d5b5145e698b5cef94e53e038', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876046000, 'applicantIds': 'fcf0063d92ec4fa68b715e0db2df4925', 'audio': None, 'caseId': '0440103001000120180862', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:00:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:00:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7aa16f8340684443b1b409d646b9e898', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874646000, 'applicantIds': '8ecfd3743e9844f794b43a0b0a897156', 'audio': None, 'caseId': '0440103001000120180855', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:37:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:37:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'c577423f60b44ec685773043be635207', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874423000, 'applicantIds': '71a2dcc4bf2944be830f1cfb18840bc1', 'audio': None, 'caseId': '0440103001000120180848', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:33:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:33:49', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6867a8014de146d08a48445bcc898546', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 174}}</t>
+  </si>
+  <si>
+    <t>0.145085</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180901'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180901'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180901', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/02ba7569d7a54135921cf4da7087f3b50.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180901', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/fa8f9fa034024e05bc7419a707e93d943.jpg', 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:57', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1})]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/02ba7569d7a54135921cf4da7087f3b50.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '5921015582304501bc02e34c30cfe52f', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:57', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 2, 'type': 1, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/fa8f9fa034024e05bc7419a707e93d943.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '0337315568d3405dbddf02dab74c35b1', 'partyName': '代用名', 'partyNum': None, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': None, 'sexStr': None, 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.163228</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180901', 'state': 3}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:58 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.217223</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180901', 'data': {'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:58', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}}</t>
   </si>
   <si>
     <t>{'page': 0, 'size': 100, 'state': 3}</t>
   </si>
   <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180894'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:36', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889719000, 'applicantIds': 'ed698256ccbf40768f38f2c19fe2bf38', 'audio': None, 'caseId': '0440103001000120180887', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d20c0bd852b444199bf36c0e32ee9ff', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889598000, 'applicantIds': 'b26eac0a4ad94d228f0102f3aa8f98c7', 'audio': None, 'caseId': '0440105018000620180885', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:38', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:38', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1a21ed57d8744d97ae6a481e59459809', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'c6f1050359ce47da91367f5d4d671dfe', 'audio': None, 'caseId': '0440103001000120180882', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:36', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:46:05', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b873abbbea2d4a6aabc4139239a0c77d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889535000, 'applicantIds': '8bb7183b245f4a53a3410506cd434296', 'audio': None, 'caseId': '0440105018000620180881', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:35', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:35', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1de2240c792d45f8acc649b3b6a0b5fd', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889522000, 'applicantIds': 'f3d6978988244300b2876c6d691a835d', 'audio': None, 'caseId': '0440103001000120180880', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:22', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:29', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '984bdf5383cb4dc4a8c34cf6efb9562e', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876711000, 'applicantIds': 'b3ed0f78ed3c43ad895d1a60cb326695', 'audio': None, 'caseId': '0440105018000620180879', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 10:11:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:11:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8e262218bed346b88ea43ecd101e10ca', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>0.166778</t>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180901'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:58', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889963000, 'applicantIds': '5f6d3e4d29a548e7999cb557eb7a3b19', 'audio': None, 'caseId': '0440105018000620180899', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:52:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:52:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '260d197b289e4db8b06e5109573a122c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:52:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889903000, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889719000, 'applicantIds': 'ed698256ccbf40768f38f2c19fe2bf38', 'audio': None, 'caseId': '0440103001000120180887', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d20c0bd852b444199bf36c0e32ee9ff', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889598000, 'applicantIds': 'b26eac0a4ad94d228f0102f3aa8f98c7', 'audio': None, 'caseId': '0440105018000620180885', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:38', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:38', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1a21ed57d8744d97ae6a481e59459809', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.14747</t>
   </si>
   <si>
     <t>record</t>
@@ -917,7 +911,7 @@
     <t>uploadSituation</t>
   </si>
   <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180894')]</t>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180901')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/record/uploadSituation</t>
@@ -930,40 +924,40 @@
 </t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180894', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180894', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180894', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.140947</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180894', 'inputState': 2}</t>
-  </si>
-  <si>
-    <t>0.143417</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180901', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/fast?caseId=0440103001000120180901', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180901', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.145281</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180901', 'inputState': 2}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:55:59 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.155333</t>
   </si>
   <si>
     <t>case13</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180894', 'data': {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case12_input': {'caseId': '0440103001000120180894', 'inputState': 2}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180894'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1), ('%data%type', '=', 1)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889719000, 'applicantIds': 'ed698256ccbf40768f38f2c19fe2bf38', 'audio': None, 'caseId': '0440103001000120180887', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d20c0bd852b444199bf36c0e32ee9ff', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889598000, 'applicantIds': 'b26eac0a4ad94d228f0102f3aa8f98c7', 'audio': None, 'caseId': '0440105018000620180885', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:38', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:38', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1a21ed57d8744d97ae6a481e59459809', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'c6f1050359ce47da91367f5d4d671dfe', 'audio': None, 'caseId': '0440103001000120180882', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:36', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:46:05', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b873abbbea2d4a6aabc4139239a0c77d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889535000, 'applicantIds': '8bb7183b245f4a53a3410506cd434296', 'audio': None, 'caseId': '0440105018000620180881', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:35', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:35', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1de2240c792d45f8acc649b3b6a0b5fd', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889522000, 'applicantIds': 'f3d6978988244300b2876c6d691a835d', 'audio': None, 'caseId': '0440103001000120180880', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:22', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:29', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '984bdf5383cb4dc4a8c34cf6efb9562e', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876711000, 'applicantIds': 'b3ed0f78ed3c43ad895d1a60cb326695', 'audio': None, 'caseId': '0440105018000620180879', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 10:11:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:11:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '8e262218bed346b88ea43ecd101e10ca', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:37 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.181002</t>
+    <t>{'caseId': '0440103001000120180901', 'data': {'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:59', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, 'case12_input': {'caseId': '0440103001000120180901', 'inputState': 2}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180901'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 1), ('%data%docCount', '=', 1), ('%data%type', '=', 1)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:59', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889963000, 'applicantIds': '5f6d3e4d29a548e7999cb557eb7a3b19', 'audio': None, 'caseId': '0440105018000620180899', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:52:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:52:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '260d197b289e4db8b06e5109573a122c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:52:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889903000, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889719000, 'applicantIds': 'ed698256ccbf40768f38f2c19fe2bf38', 'audio': None, 'caseId': '0440103001000120180887', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d20c0bd852b444199bf36c0e32ee9ff', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889598000, 'applicantIds': 'b26eac0a4ad94d228f0102f3aa8f98c7', 'audio': None, 'caseId': '0440105018000620180885', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:38', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:38', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1a21ed57d8744d97ae6a481e59459809', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.151273</t>
   </si>
   <si>
     <t>recognize</t>
   </si>
   <si>
-    <t>{'applicantList': {'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '62630e379c2d4791847da86a9ffa428c', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}, 'disputeCaseInfo': {'acceptDate': 1545889902665, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:42', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:42', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondentList': {'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'baff052e990046129a415ad155d39f7c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}}</t>
+    <t>{'applicantList': {'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a46959bcd3a7411f9c50de46e88031ee', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}, 'disputeCaseInfo': {'acceptDate': 1545890164781, 'applicantIds': 'a46959bcd3a7411f9c50de46e88031ee', 'audio': None, 'caseId': '0440105018000620180902', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:04', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:56:04', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '76b8792d1ec54170830822adc676d5bd', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondentList': {'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '76b8792d1ec54170830822adc676d5bd', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}}</t>
   </si>
   <si>
     <t>{'mediatorId': '105002J1960043'}</t>
@@ -981,22 +975,22 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\调解协议书.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '62630e379c2d4791847da86a9ffa428c', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545889902665, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:42', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:42', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/c710df1232f245fd8a423306a80ca9b09.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'baff052e990046129a415ad155d39f7c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:42 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.265434</t>
-  </si>
-  <si>
-    <t>{'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '62630e379c2d4791847da86a9ffa428c', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545889902665, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:42', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:42', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/c710df1232f245fd8a423306a80ca9b09.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'baff052e990046129a415ad155d39f7c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '62630e379c2d4791847da86a9ffa428c', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'baff052e990046129a415ad155d39f7c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}], 'caseId': '0440105018000620180895', 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'mediatorId': '105002J1960043'}</t>
-  </si>
-  <si>
-    <t>{'form': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '62630e379c2d4791847da86a9ffa428c', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'caseId': '0440105018000620180895', 'infoVO': {'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'}, 'mediatorId': '105002J1960043', 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'baff052e990046129a415ad155d39f7c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('data', '=', '0440105018000620180895')]</t>
+    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a46959bcd3a7411f9c50de46e88031ee', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545890164781, 'applicantIds': 'a46959bcd3a7411f9c50de46e88031ee', 'audio': None, 'caseId': '0440105018000620180902', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:04', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:56:04', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '76b8792d1ec54170830822adc676d5bd', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/6fc191f2ee2a4479bf4bb37681f8db639.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '76b8792d1ec54170830822adc676d5bd', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:04 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.245332</t>
+  </si>
+  <si>
+    <t>{'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a46959bcd3a7411f9c50de46e88031ee', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545890164781, 'applicantIds': 'a46959bcd3a7411f9c50de46e88031ee', 'audio': None, 'caseId': '0440105018000620180902', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:04', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:56:04', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '76b8792d1ec54170830822adc676d5bd', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/6fc191f2ee2a4479bf4bb37681f8db639.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '76b8792d1ec54170830822adc676d5bd', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a46959bcd3a7411f9c50de46e88031ee', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '76b8792d1ec54170830822adc676d5bd', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}], 'caseId': '0440105018000620180902', 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'mediatorId': '105002J1960043'}</t>
+  </si>
+  <si>
+    <t>{'form': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a46959bcd3a7411f9c50de46e88031ee', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'caseId': '0440105018000620180902', 'infoVO': {'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'mediateDate': 1516809600000, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'}, 'mediatorId': '105002J1960043', 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '76b8792d1ec54170830822adc676d5bd', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('data', '=', '0440105018000620180902')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/record/save</t>
@@ -1005,25 +999,25 @@
     <t>【案件补录接口】补录信息提交</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': '0440105018000620180895', 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:43 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.251736</t>
-  </si>
-  <si>
-    <t>{'case1_data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '62630e379c2d4791847da86a9ffa428c', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545889902665, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:42', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:42', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/c710df1232f245fd8a423306a80ca9b09.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'baff052e990046129a415ad155d39f7c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'caseId': '0440105018000620180895', 'applicantList_partyId': '62630e379c2d4791847da86a9ffa428c', 'respondentList_partyId': 'baff052e990046129a415ad155d39f7c', 'disputeCaseInfo': {'acceptDate': 1545889902665, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:42', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:42', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'data': {'acceptDate': 1545889903000, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440105018000620180895'), ('%data%applicantIds', '=', '62630e379c2d4791847da86a9ffa428c'), ('%data%respondentIds', '=', 'baff052e990046129a415ad155d39f7c'), ('%data%committeeId', '=', '4401050180006'), ('%data%disputeContent', '=', '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。'), ('%data%mediationResult', '=', '调解成功'), ('%data%mediatorId', '=', '105002J1960043'), ('%data%protocolContent', '=', '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 4), ('%data%type', '=', 2)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1545889903000, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889719000, 'applicantIds': 'ed698256ccbf40768f38f2c19fe2bf38', 'audio': None, 'caseId': '0440103001000120180887', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d20c0bd852b444199bf36c0e32ee9ff', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889598000, 'applicantIds': 'b26eac0a4ad94d228f0102f3aa8f98c7', 'audio': None, 'caseId': '0440105018000620180885', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:38', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:38', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1a21ed57d8744d97ae6a481e59459809', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'c6f1050359ce47da91367f5d4d671dfe', 'audio': None, 'caseId': '0440103001000120180882', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:36', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:46:05', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b873abbbea2d4a6aabc4139239a0c77d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889535000, 'applicantIds': '8bb7183b245f4a53a3410506cd434296', 'audio': None, 'caseId': '0440105018000620180881', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:35', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:35', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1de2240c792d45f8acc649b3b6a0b5fd', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889522000, 'applicantIds': 'f3d6978988244300b2876c6d691a835d', 'audio': None, 'caseId': '0440103001000120180880', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:22', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:29', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '984bdf5383cb4dc4a8c34cf6efb9562e', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>0.146043</t>
+    <t>{'code': 200, 'data': '0440105018000620180902', 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:05 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.151392</t>
+  </si>
+  <si>
+    <t>{'case1_data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': 'a46959bcd3a7411f9c50de46e88031ee', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545890164781, 'applicantIds': 'a46959bcd3a7411f9c50de46e88031ee', 'audio': None, 'caseId': '0440105018000620180902', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:04', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:56:04', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '76b8792d1ec54170830822adc676d5bd', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/6fc191f2ee2a4479bf4bb37681f8db639.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '76b8792d1ec54170830822adc676d5bd', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'caseId': '0440105018000620180902', 'applicantList_partyId': 'a46959bcd3a7411f9c50de46e88031ee', 'respondentList_partyId': '76b8792d1ec54170830822adc676d5bd', 'disputeCaseInfo': {'acceptDate': 1545890164781, 'applicantIds': 'a46959bcd3a7411f9c50de46e88031ee', 'audio': None, 'caseId': '0440105018000620180902', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:04', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:56:04', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '76b8792d1ec54170830822adc676d5bd', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'data': {'acceptDate': 1545890165000, 'applicantIds': 'a46959bcd3a7411f9c50de46e88031ee', 'audio': None, 'caseId': '0440105018000620180902', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:05', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:56:05', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '76b8792d1ec54170830822adc676d5bd', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440105018000620180902'), ('%data%applicantIds', '=', 'a46959bcd3a7411f9c50de46e88031ee'), ('%data%respondentIds', '=', '76b8792d1ec54170830822adc676d5bd'), ('%data%committeeId', '=', '4401050180006'), ('%data%disputeContent', '=', '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。'), ('%data%mediationResult', '=', '调解成功'), ('%data%mediatorId', '=', '105002J1960043'), ('%data%protocolContent', '=', '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 4), ('%data%type', '=', 2)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1545890165000, 'applicantIds': 'a46959bcd3a7411f9c50de46e88031ee', 'audio': None, 'caseId': '0440105018000620180902', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:05', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:56:05', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '76b8792d1ec54170830822adc676d5bd', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:59', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889963000, 'applicantIds': '5f6d3e4d29a548e7999cb557eb7a3b19', 'audio': None, 'caseId': '0440105018000620180899', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:52:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:52:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '260d197b289e4db8b06e5109573a122c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:52:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889903000, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889719000, 'applicantIds': 'ed698256ccbf40768f38f2c19fe2bf38', 'audio': None, 'caseId': '0440103001000120180887', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d20c0bd852b444199bf36c0e32ee9ff', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.144313</t>
   </si>
   <si>
     <t>written/saveCaseInfo</t>
@@ -1047,25 +1041,25 @@
 </t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180896'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.165317</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/11d1874b9aad4bff97f7dbfd6cc96d8c5.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:46 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.216433</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180903'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.15711</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/1ade541fa234437bbff86d3ca029960c8.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:08 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.414715</t>
   </si>
   <si>
     <t>written/saveNatural</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180896', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/11d1874b9aad4bff97f7dbfd6cc96d8c5.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}</t>
+    <t>{'caseId': '0440103001000120180903', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/1ade541fa234437bbff86d3ca029960c8.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/written/saveNatural</t>
@@ -1074,37 +1068,40 @@
     <t>【书面调解快速调解接口】书面调解保存当事人信息(自然人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'ffffac8ff001462fac2495aea4dc4188'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.165991</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/632a52da2e984d5c82c0b48f087b47442.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:48 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.118606</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180896', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/632a52da2e984d5c82c0b48f087b47442.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.192656</t>
+    <t>{'code': 200, 'data': {'applicantIds': '606b1e9b29be4bcfa2f7e3dd35fa4818'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.233104</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'address': '福建省龙岩市东城东宝路336号', 'age': 30, 'birthDay': 588697200000, 'id': '350802198808285516', 'name': '代用名', 'nation': '汉', 'paths': ['jpg/2018-12-27/26f98b1904074d5e91c5515997ce13b22.jpg'], 'sex': '男', 'sexData': 1}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:10 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.202767</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180903', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/26f98b1904074d5e91c5515997ce13b22.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'respondentIds': '3c0a50f5c9c140d5988960541c725a67'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:11 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.173006</t>
   </si>
   <si>
     <t>written/saveResult</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180896', 'implementCondition': '01', 'implementType': '01', 'isSatisfied': '01', 'mediationResult': '01', 'money': 1000.0, 'protocolContent': '协议内容啦啦啦', 'protocolDate': '2018-12-24'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'caseId'), ('data', 'key', 'caseId'), ('data.caseId', '=', '0440103001000120180896')]</t>
+    <t>{'caseId': '0440103001000120180903', 'implementCondition': '01', 'implementType': '01', 'isSatisfied': '01', 'mediationResult': '01', 'money': 1000.0, 'protocolContent': '协议内容啦啦啦', 'protocolDate': '2018-12-24'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'caseId'), ('data', 'key', 'caseId'), ('data.caseId', '=', '0440103001000120180903')]</t>
   </si>
   <si>
     <t>https://dispute.aegis-info.com/api/mediate/written/saveResult</t>
@@ -1113,64 +1110,61 @@
     <t>【书面调解快速调解接口】书面调解保存调解结果</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:49 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.229567</t>
-  </si>
-  <si>
-    <t>{'data': {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:51:49', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case1_input': {'committeeId': '4401030010001', 'mediatorId': '105002J1960043', 'acceptDate': '2018-12-14', 'casePrediction': '01', 'caseSource': '01', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': '2018-12-14', 'disputeType': '1'}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180896'), ('%data%applicantIds', '=', 'ffffac8ff001462fac2495aea4dc4188'), ('%data%disputeContent', '=', '纠纷事实111'), ('%data%disputeType', '=', '婚姻家庭纠纷'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', '9b2f6ddf6d2e41a386091e87d9db6e22')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:51:49', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889883000, 'applicantIds': '3d5278fa436045a7b2379c66abad88fb', 'audio': None, 'caseId': '0440103001000120180893', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:23', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:28', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f334225e98844fab796cf5adbbf105b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889712000, 'applicantIds': '7e5dc71515254c8b9d5f18dda344a609', 'audio': None, 'caseId': '0440103001000120180886', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'bd0e4235f2344848a7016ad4f4f47a09', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889515000, 'applicantIds': 'c2c119d0d13a4632a8243df9090c57cc', 'audio': None, 'caseId': '0440103001000120180879', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:15', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:21', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '42f5005181db4cfa91217b02c6aa9656', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876614000, 'applicantIds': 'c78913cf35184d5d967b63ff68e10e3d', 'audio': None, 'caseId': '0440103001000120180873', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:10:14', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:10:20', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ccceaa5ba7d4cb9b3adead2632b23a4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876251000, 'applicantIds': '66e046950feb4f28bc9ee219676d5f0f', 'audio': None, 'caseId': '0440103001000120180866', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:04:11', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:04:18', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e338926d5b5145e698b5cef94e53e038', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876046000, 'applicantIds': 'fcf0063d92ec4fa68b715e0db2df4925', 'audio': None, 'caseId': '0440103001000120180862', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:00:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:00:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7aa16f8340684443b1b409d646b9e898', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874646000, 'applicantIds': '8ecfd3743e9844f794b43a0b0a897156', 'audio': None, 'caseId': '0440103001000120180855', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:37:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:37:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'c577423f60b44ec685773043be635207', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874423000, 'applicantIds': '71a2dcc4bf2944be830f1cfb18840bc1', 'audio': None, 'caseId': '0440103001000120180848', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:33:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:33:49', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6867a8014de146d08a48445bcc898546', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874254000, 'applicantIds': 'f0301db1b4fb4d8db9e898593bf22124', 'audio': None, 'caseId': '0440103001000120180841', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:30:54', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:30:59', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '193090bd069f44dba64c9e329686c3ae', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 173}}</t>
-  </si>
-  <si>
-    <t>0.161199</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180896'}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180896'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180896', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/11d1874b9aad4bff97f7dbfd6cc96d8c5.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180896', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/632a52da2e984d5c82c0b48f087b47442.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:51:49', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3})]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/11d1874b9aad4bff97f7dbfd6cc96d8c5.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': 'ffffac8ff001462fac2495aea4dc4188', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:51:49', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 2, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/632a52da2e984d5c82c0b48f087b47442.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '9b2f6ddf6d2e41a386091e87d9db6e22', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.156552</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180896', 'state': 3}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:50 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.152596</t>
-  </si>
-  <si>
-    <t>{'caseId': '0440103001000120180896', 'data': {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:51:50', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180896'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:51:50', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889903000, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889719000, 'applicantIds': 'ed698256ccbf40768f38f2c19fe2bf38', 'audio': None, 'caseId': '0440103001000120180887', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d20c0bd852b444199bf36c0e32ee9ff', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889598000, 'applicantIds': 'b26eac0a4ad94d228f0102f3aa8f98c7', 'audio': None, 'caseId': '0440105018000620180885', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:38', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:38', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1a21ed57d8744d97ae6a481e59459809', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'c6f1050359ce47da91367f5d4d671dfe', 'audio': None, 'caseId': '0440103001000120180882', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:36', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:46:05', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b873abbbea2d4a6aabc4139239a0c77d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889535000, 'applicantIds': '8bb7183b245f4a53a3410506cd434296', 'audio': None, 'caseId': '0440105018000620180881', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:35', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:35', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1de2240c792d45f8acc649b3b6a0b5fd', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>0.142276</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180896')]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180896', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180896', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180896', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.148078</t>
+    <t>0.158911</t>
+  </si>
+  <si>
+    <t>{'data': {'acceptDate': 1544716800000, 'applicantIds': '606b1e9b29be4bcfa2f7e3dd35fa4818', 'audio': None, 'caseId': '0440103001000120180903', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:06', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:56:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '3c0a50f5c9c140d5988960541c725a67', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case1_input': {'committeeId': '4401030010001', 'mediatorId': '105002J1960043', 'acceptDate': '2018-12-14', 'casePrediction': '01', 'caseSource': '01', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': '2018-12-14', 'disputeType': '1'}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180903'), ('%data%applicantIds', '=', '606b1e9b29be4bcfa2f7e3dd35fa4818'), ('%data%disputeContent', '=', '纠纷事实111'), ('%data%disputeType', '=', '婚姻家庭纠纷'), ('%data%mediationResult', '=', '调解成功'), ('%data%respondentIds', '=', '3c0a50f5c9c140d5988960541c725a67')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '606b1e9b29be4bcfa2f7e3dd35fa4818', 'audio': None, 'caseId': '0440103001000120180903', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:06', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:56:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '3c0a50f5c9c140d5988960541c725a67', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545890146000, 'applicantIds': '06eb4f94d9b5449cae153884962bb151', 'audio': None, 'caseId': '0440103001000120180900', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:51', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e0e003e78d6046248ad660ebeaaab10e', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889883000, 'applicantIds': '3d5278fa436045a7b2379c66abad88fb', 'audio': None, 'caseId': '0440103001000120180893', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:23', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:28', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '4f334225e98844fab796cf5adbbf105b', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889712000, 'applicantIds': '7e5dc71515254c8b9d5f18dda344a609', 'audio': None, 'caseId': '0440103001000120180886', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:32', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:37', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'bd0e4235f2344848a7016ad4f4f47a09', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889515000, 'applicantIds': 'c2c119d0d13a4632a8243df9090c57cc', 'audio': None, 'caseId': '0440103001000120180879', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:15', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:21', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '42f5005181db4cfa91217b02c6aa9656', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876614000, 'applicantIds': 'c78913cf35184d5d967b63ff68e10e3d', 'audio': None, 'caseId': '0440103001000120180873', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:10:14', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:10:20', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0ccceaa5ba7d4cb9b3adead2632b23a4', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876251000, 'applicantIds': '66e046950feb4f28bc9ee219676d5f0f', 'audio': None, 'caseId': '0440103001000120180866', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:04:11', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:04:18', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'e338926d5b5145e698b5cef94e53e038', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545876046000, 'applicantIds': 'fcf0063d92ec4fa68b715e0db2df4925', 'audio': None, 'caseId': '0440103001000120180862', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 10:00:46', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 10:00:53', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7aa16f8340684443b1b409d646b9e898', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874646000, 'applicantIds': '8ecfd3743e9844f794b43a0b0a897156', 'audio': None, 'caseId': '0440103001000120180855', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:37:26', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:37:32', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'c577423f60b44ec685773043be635207', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545874423000, 'applicantIds': '71a2dcc4bf2944be830f1cfb18840bc1', 'audio': None, 'caseId': '0440103001000120180848', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 09:33:43', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '道路交通事故纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 09:33:49', 'mediateAddress': '广东省清远市佛冈县', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '6867a8014de146d08a48445bcc898546', 'state': 2, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}], 'msg': '成功', 'pager': {'page': 10, 'total': 174}}</t>
+  </si>
+  <si>
+    <t>0.149965</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180903'}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180903'), ('data.applicant', 'dict_list0,C=', {'caseId': '0440103001000120180903', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/1ade541fa234437bbff86d3ca029960c8.jpg', 'sex': 1, 'age': 30, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 1}), ('data.respondent', 'dict_list0,C=', {'caseId': '0440103001000120180903', 'partyType': '01', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyName': '代用名', 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/26f98b1904074d5e91c5515997ce13b22.jpg', 'sex': 1, 'nation': 1, 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyNum': 1, 'type': 2}), ('data.disputeCaseInfo', 'C=', {'acceptDate': 1544716800000, 'applicantIds': '606b1e9b29be4bcfa2f7e3dd35fa4818', 'audio': None, 'caseId': '0440103001000120180903', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:06', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:56:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '3c0a50f5c9c140d5988960541c725a67', 'state': 2, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3})]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicant': [{'age': 30, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/1ade541fa234437bbff86d3ca029960c8.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '606b1e9b29be4bcfa2f7e3dd35fa4818', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1544716800000, 'applicantIds': '606b1e9b29be4bcfa2f7e3dd35fa4818', 'audio': None, 'caseId': '0440103001000120180903', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:06', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:56:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '3c0a50f5c9c140d5988960541c725a67', 'state': 2, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-12-27/26f98b1904074d5e91c5515997ce13b22.jpg', 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '福建省龙岩市东城东宝路336号', 'partyIDNumber': '350802198808285516', 'partyIDType': '111', 'partyId': '3c0a50f5c9c140d5988960541c725a67', 'partyName': '代用名', 'partyNum': 1, 'partyPhone': None, 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:12 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.170359</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180903', 'state': 3}</t>
+  </si>
+  <si>
+    <t>0.154169</t>
+  </si>
+  <si>
+    <t>{'caseId': '0440103001000120180903', 'data': {'acceptDate': 1544716800000, 'applicantIds': '606b1e9b29be4bcfa2f7e3dd35fa4818', 'audio': None, 'caseId': '0440103001000120180903', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:06', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:56:12', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '3c0a50f5c9c140d5988960541c725a67', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180903'), ('%data%inputState', '=', 1), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '606b1e9b29be4bcfa2f7e3dd35fa4818', 'audio': None, 'caseId': '0440103001000120180903', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:06', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 1, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:56:12', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '3c0a50f5c9c140d5988960541c725a67', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545890165000, 'applicantIds': 'a46959bcd3a7411f9c50de46e88031ee', 'audio': None, 'caseId': '0440105018000620180902', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:05', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:56:05', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '76b8792d1ec54170830822adc676d5bd', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:59', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889963000, 'applicantIds': '5f6d3e4d29a548e7999cb557eb7a3b19', 'audio': None, 'caseId': '0440105018000620180899', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:52:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:52:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '260d197b289e4db8b06e5109573a122c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:52:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889903000, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>0.144852</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('data.mediationAgreement', '=', 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180903')]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180903', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440103001000120180903', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440103001000120180903', 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.1825</t>
   </si>
   <si>
     <t>photo</t>
@@ -1191,13 +1185,13 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\人民调解调查记录.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/817ea6ebf08e4b18b6959990ed56b8454.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/7cb9cd8cb9b249b58bd36193727c7fe70.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/c3eabd0fa07c415db063e2c7ba102ac34.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:51:56 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.754508</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/b3c9df2c92ad41be861be3be555f74ac8.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/a401579eb75a41aab69d77858ef8256d0.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/a009b9e758794b1e8d8c07cf2e4883460.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:18 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.786213</t>
   </si>
   <si>
     <t>人民调解证据材料上传</t>
@@ -1212,10 +1206,10 @@
     <t>{'code': 201001, 'data': None, 'msg': '文件类型错误', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:00 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.609523</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:22 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.541402</t>
   </si>
   <si>
     <t>case14</t>
@@ -1230,13 +1224,13 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\人民调解回访记录.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/817ea6ebf08e4b18b6959990ed56b8454.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/c80ec0be5b0644d49b669db1c9a388fc6.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/c3eabd0fa07c415db063e2c7ba102ac34.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:03 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.111427</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/b3c9df2c92ad41be861be3be555f74ac8.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/57a7b12e6d65449a8dbde038bee6bec40.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/a009b9e758794b1e8d8c07cf2e4883460.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:25 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.036042</t>
   </si>
   <si>
     <t>case15</t>
@@ -1251,10 +1245,10 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\司法确认申请书.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:07 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.810849</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:29 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.793322</t>
   </si>
   <si>
     <t>case16</t>
@@ -1269,52 +1263,52 @@
     <t>{'files': ('test.jpg', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\卷宗情况说明.jpg'&gt;)}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/0661dc24e68841c48270076df2c37b166.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/c80ec0be5b0644d49b669db1c9a388fc6.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/c3eabd0fa07c415db063e2c7ba102ac34.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:10 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.565944</t>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/e0edefd627c84e6fafed4f8f09367a301.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/57a7b12e6d65449a8dbde038bee6bec40.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/a009b9e758794b1e8d8c07cf2e4883460.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:32 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.636348</t>
   </si>
   <si>
     <t>case17</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180896', 'inputState': 2}</t>
-  </si>
-  <si>
-    <t>0.213382</t>
+    <t>{'caseId': '0440103001000120180903', 'inputState': 2}</t>
+  </si>
+  <si>
+    <t>0.244331</t>
   </si>
   <si>
     <t>case18</t>
   </si>
   <si>
-    <t>{'caseId': '0440103001000120180896', 'data': {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:52:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case17_input': {'caseId': '0440103001000120180896', 'inputState': 2}}</t>
-  </si>
-  <si>
-    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180896'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3), ('%data%type', '=', 2)]</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:52:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889903000, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889719000, 'applicantIds': 'ed698256ccbf40768f38f2c19fe2bf38', 'audio': None, 'caseId': '0440103001000120180887', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:39', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:46', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '7d20c0bd852b444199bf36c0e32ee9ff', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889598000, 'applicantIds': 'b26eac0a4ad94d228f0102f3aa8f98c7', 'audio': None, 'caseId': '0440105018000620180885', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:46:38', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:46:38', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1a21ed57d8744d97ae6a481e59459809', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'c6f1050359ce47da91367f5d4d671dfe', 'audio': None, 'caseId': '0440103001000120180882', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:36', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:46:05', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': 'b873abbbea2d4a6aabc4139239a0c77d', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889535000, 'applicantIds': '8bb7183b245f4a53a3410506cd434296', 'audio': None, 'caseId': '0440105018000620180881', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:45:35', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:45:35', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '1de2240c792d45f8acc649b3b6a0b5fd', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:11 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.168024</t>
+    <t>{'caseId': '0440103001000120180903', 'data': {'acceptDate': 1544716800000, 'applicantIds': '606b1e9b29be4bcfa2f7e3dd35fa4818', 'audio': None, 'caseId': '0440103001000120180903', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:06', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:56:33', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '3c0a50f5c9c140d5988960541c725a67', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, 'case17_input': {'caseId': '0440103001000120180903', 'inputState': 2}}</t>
+  </si>
+  <si>
+    <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('%data%caseId', '=', '0440103001000120180903'), ('%data%inputState', '=', 2), ('%data%docAll', '=', 8), ('%data%docCount', '=', 3), ('%data%type', '=', 2)]</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': [{'acceptDate': 1544716800000, 'applicantIds': '606b1e9b29be4bcfa2f7e3dd35fa4818', 'audio': None, 'caseId': '0440103001000120180903', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:06', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:56:33', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '3c0a50f5c9c140d5988960541c725a67', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545890165000, 'applicantIds': 'a46959bcd3a7411f9c50de46e88031ee', 'audio': None, 'caseId': '0440105018000620180902', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:56:05', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:56:05', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '76b8792d1ec54170830822adc676d5bd', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545890152000, 'applicantIds': '5921015582304501bc02e34c30cfe52f', 'audio': None, 'caseId': '0440103001000120180901', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:55:52', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:55:59', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': '0337315568d3405dbddf02dab74c35b1', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889963000, 'applicantIds': '5f6d3e4d29a548e7999cb557eb7a3b19', 'audio': None, 'caseId': '0440105018000620180899', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:52:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:52:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '260d197b289e4db8b06e5109573a122c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': 'ffffac8ff001462fac2495aea4dc4188', 'audio': None, 'caseId': '0440103001000120180896', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:44', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:52:11', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b2f6ddf6d2e41a386091e87d9db6e22', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889903000, 'applicantIds': '62630e379c2d4791847da86a9ffa428c', 'audio': None, 'caseId': '0440105018000620180895', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:43', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:43', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'baff052e990046129a415ad155d39f7c', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1545889890000, 'applicantIds': '08a1bb78e9a44bae898934d75f558e7e', 'audio': None, 'caseId': '0440103001000120180894', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': None, 'companyOrAddress': None, 'createTime': '2018-12-27 13:51:30', 'difficultyLevel': None, 'disputeContent': '111', 'disputeDate': None, 'disputeType': '电子商务纠纷', 'implementCondition': None, 'implementType': None, 'inputState': 2, 'involvedMoney': None, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:51:37', 'mediateAddress': '广东省清远市佛冈县高岗镇高镇村(近829县道)', 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解不成功', 'mediatorId': None, 'picture': None, 'protocolContent': None, 'protocolDate': None, 'remark': None, 'respondentIds': 'a8eb4ce799b24350b8ef7c0f83867735', 'state': 3, 'type': 1, 'video': None, 'docAll': 1, 'docCount': 1}, {'acceptDate': 1545889792000, 'applicantIds': 'fe0882b6b2d04633b551c01bae414013', 'audio': None, 'caseId': '0440105018000620180892', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:49:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:49:52', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3bb159b9d9ca4d17855e4745655fe74f', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}, {'acceptDate': 1544716800000, 'applicantIds': '3514a7a9b9f94c84ac9fc4f41fc8d348', 'audio': None, 'caseId': '0440103001000120180889', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:52', 'difficultyLevel': '02', 'disputeContent': '纠纷事实111', 'disputeDate': 1544716800000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 1000.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-27 13:49:19', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '协议内容啦啦啦', 'protocolDate': 1545580800000, 'remark': None, 'respondentIds': '9b4bd6e41b7749e5b338f04ce6bcc4de', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 3}, {'acceptDate': 1545889731000, 'applicantIds': 'b57d15380aa64de8bd30d4938cd8b32b', 'audio': None, 'caseId': '0440105018000620180888', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:48:51', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:48:51', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': 'd8ce38e5878b4a19a2b6103f39df84d8', 'state': 3, 'type': 2, 'video': None, 'docAll': 8, 'docCount': 4}], 'msg': '成功', 'pager': {'page': 100, 'total': 10}}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:33 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.152954</t>
   </si>
   <si>
     <t>files=data\声音1.mp3</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:12 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>1.113848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'audio', '用例描述': 'files=data\\声音1.mp3', 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'informer', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'leader': '祁欢', 'QuotoSituation': None, 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:12 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 1.113848, 'status_code': 200}
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>1.136609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'audio', '用例描述': 'files=data\\声音1.mp3', 'Input': {}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200)], 'project': 'Intelligent_mediation', 'result_table_name': 'informer', 'method': 'post', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/informer/audio', 'Interface_description': '【语音识别】语音识别', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'leader': '周意', 'QuotoSituation': None, 'files': [('files', ('test1.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音1.mp3'&gt;)), ('files', ('test2.mp3', &lt;_io.BufferedReader name='F:\\AutoTest\\InterfaceAuto\\data\\声音2.mp3'&gt;))], 'Res': {'code': 203, 'data': None, 'msg': '无数据', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 1.136609, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 203
 </t>
   </si>
@@ -1340,10 +1334,10 @@
     <t>{'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{UXc42iiqROueEDM0aIm_CA}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarInfo(IntelligentHelperServiceImpl.java:115)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarInfo(IntelligentHelperController.java:51)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$d16e6af.getSimilarInfo(&lt;generated&gt;)', 'pager': None}</t>
   </si>
   <si>
-    <t>0.151126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarInfo', '用例描述': '', 'Input': {'code': '1'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.content', '!=', '""')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarInfo', 'Interface_description': '【智能辅调接口】根据纠纷类型获取类案', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'leader': '陈晶', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{UXc42iiqROueEDM0aIm_CA}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarInfo(IntelligentHelperServiceImpl.java:115)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarInfo(IntelligentHelperController.java:51)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$d16e6af.getSimilarInfo(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:12 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.151126, 'status_code': 200}
+    <t>0.152037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarInfo', '用例描述': '', 'Input': {'code': '1'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.content', '!=', '""')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarInfo', 'Interface_description': '【智能辅调接口】根据纠纷类型获取类案', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'leader': '陈晶', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{UXc42iiqROueEDM0aIm_CA}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarInfo(IntelligentHelperServiceImpl.java:115)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarInfo(IntelligentHelperController.java:51)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$d16e6af.getSimilarInfo(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.152037, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 202
 </t>
   </si>
@@ -1366,10 +1360,13 @@
     <t>{'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{UXc42iiqROueEDM0aIm_CA}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarLaw(IntelligentHelperServiceImpl.java:147)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarLaw(IntelligentHelperController.java:62)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$d16e6af.getSimilarLaw(&lt;generated&gt;)', 'pager': None}</t>
   </si>
   <si>
-    <t>0.151998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarLaw', '用例描述': '', 'Input': {'code': '9'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.id', '=', 'a4f241e1f5c1e9872f80ccb08a8d3576')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarLaw', 'Interface_description': '【智能辅调接口】根据纠纷类型获取法条', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'leader': '陈晶', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{UXc42iiqROueEDM0aIm_CA}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarLaw(IntelligentHelperServiceImpl.java:147)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarLaw(IntelligentHelperController.java:62)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$d16e6af.getSimilarLaw(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:12 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.151998, 'status_code': 200}
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:35 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.174957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_data：{'Run': 'Y', 'Interface': 'similarLaw', '用例描述': '', 'Input': {'code': '9'}, 'CaseExcept': [('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.id', '=', 'a4f241e1f5c1e9872f80ccb08a8d3576')], 'project': 'Intelligent_mediation', 'result_table_name': 'intelligentHelper', 'method': 'get', 'base_url': 'https://dispute.aegis-info.com/', 'Url': 'https://dispute.aegis-info.com/api/intelligentHelper/similarLaw', 'Interface_description': '【智能辅调接口】根据纠纷类型获取法条', 'headers': None, 'Interface_except': 'all[Ckey]code,data,msg\ncode[=]int(200)\n', 'leader': '陈晶', 'QuotoSituation': None, 'Res': {'code': 202, 'data': None, 'msg': '后台报错:NoNodeAvailableException[None of the configured nodes are available: [{#transport#-1}{UXc42iiqROueEDM0aIm_CA}{es1.aegis-info.com}{192.168.0.6:9300}]]\ncom.aegis.dispute.service.impl.IntelligentHelperServiceImpl.similarLaw(IntelligentHelperServiceImpl.java:147)\ncom.aegis.dispute.controller.IntelligentHelperController.getSimilarLaw(IntelligentHelperController.java:62)\ncom.aegis.dispute.controller.IntelligentHelperController$$FastClassBySpringCGLIB$$8da1f0a7.invoke(&lt;generated&gt;)\ncom.aegis.dispute.controller.IntelligentHelperController$$EnhancerBySpringCGLIB$$d16e6af.getSimilarLaw(&lt;generated&gt;)', 'pager': None}, 'Res_headers': {'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:35 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}, 'Res_time(s)': 0.174957, 'status_code': 200}
 验证check_info失败：('code', '=', 200)，error info：200 != 202
 </t>
   </si>
@@ -1392,10 +1389,7 @@
     <t>{'code': 200, 'data': {'content': [{'content': '人民调解的技巧与方法\n\n一、调解员应当学习做到“五会”\n（1）“听”——要求调解员做到不偏听、不偏信、不要先入为主的处理问题。\n（2）“问”——问清楚事情的来龙去脉，有针对性的一问一答，加强语言口才的思考。\n（3）“找”——找到纠纷问题的根源所在，解开双方的心结，避免误会的深入。\n（4）“诊”——诊断出矛盾的关键点，因人而宜、因事而异，化解纠纷。\n（5）“结”——通过调解彻底了结纠纷，不留隐患，制作《人民调解协议书》。\n\n二、调解员应当掌握的基本方法\n（1）“拉家常析症结”：通过与纠纷当事人拉家常从而拉进相互间的距离，从中找到矛盾症结所在，为调解工作找准切入点。\n（2）“分开谈明歧意”：在了解掌握纠纷症结的前提下，找出矛盾的焦点是关键。将双方僵持的当事人分开，分别进行谈话，询问各自诉求，找到双方主张的差距，有的放矢、循循善诱地开展教育引导。\n（3）“互谅解定方案”：调解员应当心平气和、耐心倾听、阐明利弊、动情晓理。用“法”理顺关系，用“理”化解隔阂，用“情”沟通思想，促使当事人换位思考，互谅互让，化针尖对麦芒为握手言和。\n（4）“赋真情促履行”：在调解的过程中，调解员应当做到“想当事人所想，解当事人所难”，使当事人充分感受到工作的公正和情感的真切，换来当事人从内心接受调解的方案，并主动履行协议。\n\n三、调解的技巧\n（1）语言技巧：在调解工作中，运用语言技巧，有助于调解工作的顺利进行。主要包括以下五个方面：一是语言降温、二是话语引人、三是用语适当、四是巧妙用语、五是引用谚语。\n（2）方法技巧：指在调解矛盾纠纷的过程中，针对具体的纠纷当事人的特点以及矛盾纠纷过程中不同阶段的不同特点，灵活巧妙的运用调解方式、方法的技能。调解方法灵活多样，不能一成不变。\n    主要包括以下十点内容：“冷却降温法”、“换位思考法”、“扶正祛邪法”、“逆向求助法”、“案例引导法”、“亲友疏导法”、“亲情融化法”、“舆论压迫法”、“背靠背处理法”、“过错剖析法”。\n', 'disputeType': 0, 'id': '5963763d5c6836590de011f63da8fa2e'}], 'pageable': {'sort': {'sorted': False, 'unsorted': True}, 'pageSize': 10, 'pageNumber': 0, 'offset': 0, 'paged': True, 'unpaged': False}, 'totalElements': 1, 'last': True, 'totalPages': 1, 'first': True, 'sort': {'sorted': False, 'unsorted': True}, 'numberOfElements': 1, 'size': 10, 'number': 0}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:13 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.152714</t>
+    <t>0.148883</t>
   </si>
   <si>
     <t>getCaseInfo</t>
@@ -1416,7 +1410,7 @@
     <t>{'code': 200, 'data': {'acceptDate': 1543334400000, 'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92', 'audio': None, 'caseId': '0440103001000120180040', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-11-28 13:41:12', 'difficultyLevel': '02', 'disputeContent': '张三和李四离婚，现在在争小孩的抚养权。', 'disputeDate': 1543334400000, 'disputeType': '1', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-06 17:11:44', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '01', 'mediatorId': '105002J1960043', 'picture': '', 'protocolContent': '123', 'protocolDate': 1543334400000, 'remark': '', 'respondentIds': 'cb2fd6b38e154beab97c1193a9f2dd6c', 'state': 3, 'type': 2, 'video': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.15185</t>
+    <t>0.172788</t>
   </si>
   <si>
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data.disputeCaseInfo.caseId', '=', '0440103001000120180040'), ('data.applicant.type', 'dict_list_dict,=', 1)]</t>
@@ -1425,7 +1419,7 @@
     <t>{'code': 200, 'data': {'applicant': [1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1], 'disputeCaseInfo': {'acceptDate': 1543334400000, 'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92', 'audio': None, 'caseId': '0440103001000120180040', 'caseNo': None, 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'companyOrAddress': None, 'createTime': '2018-11-28 13:41:12', 'difficultyLevel': '02', 'disputeContent': '张三和李四离婚，现在在争小孩的抚养权。', 'disputeDate': 1543334400000, 'disputeType': '婚姻家庭纠纷', 'implementCondition': '01', 'implementType': '01', 'inputState': 2, 'involvedMoney': 0.0, 'isSatisfied': '01', 'lastUpdateTime': '2018-12-06 17:11:44', 'mediateAddress': None, 'mediateDate': None, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': '', 'protocolContent': '123', 'protocolDate': 1543334400000, 'remark': '', 'respondentIds': 'cb2fd6b38e154beab97c1193a9f2dd6c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'respondent': [{'age': None, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': 'http://case.img.aegis-info.com/jpg/2018-11-28/3f37393e949b4102acf79be0ee1ced013.jpg', 'job': '', 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '南京市浦口区天华东路103号26幢1002室', 'partyIDNumber': '320682198403135590', 'partyIDType': '111', 'partyId': 'cb2fd6b38e154beab97c1193a9f2dd6c', 'partyName': '包坤涛', 'partyNum': 1, 'partyPhone': '', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.202532</t>
+    <t>0.198552</t>
   </si>
   <si>
     <t>getParties</t>
@@ -1440,19 +1434,19 @@
     <t>【书面调解快速调解接口】获取当事人信息</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:14 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.154824</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:36 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.137621</t>
   </si>
   <si>
     <t>{'committeeId': '4401030010001', 'disputeContent': 'balabala…', 'disputeType': '01', 'mediationDate': '2018-11-23'}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180897'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.151469</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180904'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.146491</t>
   </si>
   <si>
     <t>quick/saveCompany</t>
@@ -1467,22 +1461,22 @@
     <t>【书面调解快速调解接口】快速调解保存当事人信息(法人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,f7ef995c05b648e29b430473a1f82a93'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.14632</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,3c65fccff6ed48fd9faee60ca8efdb91'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.161551</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180040', 'partyIDNumber': '111111111111111111', 'partyIDType': '111', 'partyName': 'lily', 'partyType': '02', 'type': 1}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,c65c832944b64b05b50bad393b4ce65c'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:15 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.152805</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,3cea9e243779400d8eb4a1e07fd83e3e'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:37 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.166425</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180041', 'mediationResult': '01'}</t>
@@ -1494,7 +1488,7 @@
     <t>{'code': 200, 'data': {'caseId': '0440103001000120180041'}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.161987</t>
+    <t>0.137614</t>
   </si>
   <si>
     <t>uploadFile</t>
@@ -1506,10 +1500,10 @@
     <t>【书面调解快速调解接口】调解结果附件上传</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'picture': 'jpg/2018-12-27/c8335e2940c34fbaaeae5f39a18579107.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.456453</t>
+    <t>{'code': 200, 'data': {'picture': 'jpg/2018-12-27/ee40e18a875947f282836e234a9412ce3.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.407039</t>
   </si>
   <si>
     <t>{'acceptDate': '2018-11-23', 'casePrediction': '01', 'caseSource': '01', 'committeeId': '4401030010001', 'difficultyLevel': '01', 'disputeContent': 'balabala…', 'disputeType': '01', 'mediatorId': '105002J1960043'}</t>
@@ -1518,13 +1512,13 @@
     <t>[('all', 'Ckey', 'code,data,msg'), ('code', '=', 200), ('data', 'key', 'caseId')]</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'caseId': '0440103001000120180898'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:16 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.157353</t>
+    <t>{'code': 200, 'data': {'caseId': '0440103001000120180905'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:38 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.167565</t>
   </si>
   <si>
     <t>written/saveCompany</t>
@@ -1539,19 +1533,19 @@
     <t>【书面调解快速调解接口】书面调解保存当事人信息(法人)</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,9a17e079dd474d26b765368ff1703f26'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.148676</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'bf5326a415da4b76a5055fb510901f2c,4f2024b2971e48399c4c91e05048475e,0543b01f1149420b8a727eeb4753ce57,835d567f43824c5d8ee3e2cdcdb616f4,ff4947716ae343a0b03f2e0c9a788b08,cbe57054994146e6a86653c4a63c313c,f5e6394a034e4552ba3d7baa18d417df,beb10950f1bb42afaf0d57ef068cc00c,46dea6b0308e47d3a9391305904a4f63,b1a597c93ba74538a91e6e83aca00cf1,818cc714657848b3a7519e8554a30533,ebd68113cf11443c9832689dfd5fd490,9fd2fc63ca2e43a48f1276b7e02e732d,d7ae852663b14a6cbe90f80572d15b77,27db0504c62c4b84b8f0d1a2c1951062,44e60dcf7939459ca967426601c26055,b15c963598754c39a6912da8f4f94aa1,8a53e58e9c6146d9824e3286922fdf92,025fd865f5be4068852158be66c46c92'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.234433</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180051', 'partyIDNumber': '111111111111111111', 'partyIDType': '111', 'partyName': '张三', 'partyNum': '1', 'partyType': '01', 'type': 1}</t>
   </si>
   <si>
-    <t>{'code': 200, 'data': {'applicantIds': 'b437472619f04bd6bbf239cd52ab1ad8,4a6ee07a79af42bba7bc7cd62e5f8370,70174aa69d6c4a3eb49b5a30d98dc911,24b427f7c13940ab8a2aab981ccc539f,c6efa0b35cc34cbfa283d55f8ffe6645,be7f028e2b3d4b569ffc62596db423d3,3c8d08c2dcce475fadcd39bf95901bb5,d87700607bd144e8924c13f3fb905b72,7052d2ac3e414a00a5b13c8ceff7eef0,89379c2f7b9f4f619a797904453100da,9b59c135dd6c4bce982b6fdfbd3b9026,e2b3731e218b43f78cf3f8e6e95a38ad,3b1c9b5e15d5452981d5eea05ee563bf,37bdaf1a6a204510b695f9f328497e8d,5a82c786c5434f0f98a99b693fe39ee3,8c0ec340ddb24de79529aa89c7b59fff,b301300de253430880683da9741c3067,362bed174df84ff1acdb8cb0a3e15339,dfe5f94dba3a41d59ed12c954c75b611'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>0.182128</t>
+    <t>{'code': 200, 'data': {'applicantIds': 'b437472619f04bd6bbf239cd52ab1ad8,4a6ee07a79af42bba7bc7cd62e5f8370,70174aa69d6c4a3eb49b5a30d98dc911,24b427f7c13940ab8a2aab981ccc539f,c6efa0b35cc34cbfa283d55f8ffe6645,be7f028e2b3d4b569ffc62596db423d3,3c8d08c2dcce475fadcd39bf95901bb5,d87700607bd144e8924c13f3fb905b72,7052d2ac3e414a00a5b13c8ceff7eef0,89379c2f7b9f4f619a797904453100da,9b59c135dd6c4bce982b6fdfbd3b9026,e2b3731e218b43f78cf3f8e6e95a38ad,3b1c9b5e15d5452981d5eea05ee563bf,37bdaf1a6a204510b695f9f328497e8d,5a82c786c5434f0f98a99b693fe39ee3,8c0ec340ddb24de79529aa89c7b59fff,b301300de253430880683da9741c3067,362bed174df84ff1acdb8cb0a3e15339,d2cee5d23b994fe0884e73c96b19976f'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>0.168587</t>
   </si>
   <si>
     <t>{'caseId': '0440103001000120180051', 'implementCondition': '01', 'implementType': '01', 'isSatisfied': '01', 'mediationResult': '01', 'money': 1000.0, 'protocolContent': 'balabala…', 'protocolDate': '2018-11-23'}</t>
@@ -1560,10 +1554,10 @@
     <t>{'code': 200, 'data': {'caseId': '0440103001000120180051'}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:17 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.174961</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:39 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.156421</t>
   </si>
   <si>
     <t>getMediator</t>
@@ -1581,7 +1575,7 @@
     <t>{'code': 200, 'data': {'appearance': '群众', 'birth': 993916800000, 'committeeID': '4401050180006', 'committeePosition': '委员', 'education': '普通高中', 'generateType': '推选', 'identityID': '440121196407012123', 'injured': None, 'introduction': None, 'isExperienced': None, 'isHire': '否', 'isPartTime': '兼职', 'location': '赤岗街道赤岗社区居民委员会人民调解委员会', 'marriageStatus': None, 'mediationID': None, 'meditorID': '105002J1960043', 'mobile': None, 'name': '汤杏养', 'nation': '汉族', 'otherRule': None, 'phone': '89663154', 'photo': None, 'position': None, 'profession': None, 'qualification': None, 'sex': '女', 'workUnit': None, 'workYear': 10, 'email': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>0.184744</t>
+    <t>0.148884</t>
   </si>
   <si>
     <t>headers={"Content-Type":"application/json"}
@@ -1619,58 +1613,55 @@
     <t>{'code': 200, 'data': {'caseId': '0440105018000620180057', 'mediationAgreement': None, 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': None, 'mediationEvicence': None, 'mediationRecord': None, 'mediationRegister': None, 'mediationReturnVisit': None, 'mediationSearchRecord': None}, 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:18 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.14507</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/0661dc24e68841c48270076df2c37b166.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/c80ec0be5b0644d49b669db1c9a388fc6.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/b23a1039806149088911321dd081ee3a9.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:23 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.728514</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:27 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.539689</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/0661dc24e68841c48270076df2c37b166.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/a401579eb75a41aab69d77858ef8256d0.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/b23a1039806149088911321dd081ee3a9.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:30 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.099285</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:34 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>3.73196</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/b3c9df2c92ad41be861be3be555f74ac8.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/a401579eb75a41aab69d77858ef8256d0.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/b23a1039806149088911321dd081ee3a9.jpg'}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:37 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>2.59511</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '5f6d3e4d29a548e7999cb557eb7a3b19', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545889962793, 'applicantIds': '5f6d3e4d29a548e7999cb557eb7a3b19', 'audio': None, 'caseId': '0440105018000620180899', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:52:42', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:52:42', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '260d197b289e4db8b06e5109573a122c', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/6be15949cd4149cf80ff7831036c1bc86.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '260d197b289e4db8b06e5109573a122c', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
-  </si>
-  <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:42 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>5.297062</t>
+    <t>0.175111</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/e0edefd627c84e6fafed4f8f09367a301.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/57a7b12e6d65449a8dbde038bee6bec40.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/3da846323e854e5f84ab697b10c76c981.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:45 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.80384</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:49 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.542003</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/e0edefd627c84e6fafed4f8f09367a301.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/987d583567bf49249e12411bf5a3c1853.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/3da846323e854e5f84ab697b10c76c981.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:52 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.134939</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:56 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>3.781566</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'caseId': '0440105018000620180119', 'mediationAgreement': 'https://booktemplate.aegis-info.com/#/written?caseId=0440105018000620180119', 'mediationApply': 'auto fill, unable to show', 'mediationConfirm': None, 'mediationDescription': 'jpg/2018-12-27/104325c5a0a24193a3acc3a18f9ab6613.jpg', 'mediationEvicence': None, 'mediationRecord': 'jpg/2018-12-07/bb1f6f4f39b64727b45b2678b5d6fe5c4.jpg', 'mediationRegister': 'https://booktemplate.aegis-info.com/#/accept?caseId=0440105018000620180119', 'mediationReturnVisit': 'jpg/2018-12-27/987d583567bf49249e12411bf5a3c1853.jpg', 'mediationSearchRecord': 'jpg/2018-12-27/3da846323e854e5f84ab697b10c76c981.jpg'}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:56:59 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>2.720935</t>
+  </si>
+  <si>
+    <t>{'code': 200, 'data': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': None, 'partyIDNumber': None, 'partyIDType': None, 'partyId': '35935d0492fd4107a669ab98ed09f8e4', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'disputeCaseInfo': {'acceptDate': 1545890224813, 'applicantIds': '35935d0492fd4107a669ab98ed09f8e4', 'audio': None, 'caseId': '0440105018000620180906', 'caseNo': None, 'casePrediction': None, 'caseSource': None, 'committeeId': '4401050180006', 'companyOrAddress': None, 'createTime': '2018-12-27 13:57:04', 'difficultyLevel': None, 'disputeContent': '2018年1月25日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤王刚要求张兵赔偿王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在未经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种，张兵应当反过来赔偿自己的损关。', 'disputeDate': 1516809600000, 'disputeType': None, 'implementCondition': None, 'implementType': None, 'inputState': 1, 'involvedMoney': 0.0, 'isSatisfied': None, 'lastUpdateTime': '2018-12-27 13:57:04', 'mediateAddress': None, 'mediateDate': 1516809600000, 'mediationId': None, 'mediationResult': '调解成功', 'mediatorId': '105002J1960043', 'picture': None, 'protocolContent': '二，张兵赔偿王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张美进行安抚和道歉二、王刚承担张兵所饲养的宠物狗被打伤后的全部治疗费用', 'protocolDate': None, 'remark': None, 'respondentIds': '3d1422bf0b064b8f9e803b7eb340594d', 'state': 3, 'type': 2, 'video': None, 'docAll': None, 'docCount': None}, 'pathList': ['jpg/2018-12-27/b3699260b61b466f8993bbb0ce02f0324.jpg'], 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '3d1422bf0b064b8f9e803b7eb340594d', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}, 'msg': '成功', 'pager': None}</t>
+  </si>
+  <si>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:57:04 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>5.097842</t>
   </si>
   <si>
     <t>{'form': {'applicantList': [{'age': 35, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '3c47fb4fbcaf49b5a9a5f23de90a42c2', 'partyName': '王刚', 'partyNum': 1, 'partyPhone': '15305106803', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 1}], 'caseId': '0440105018000620180119', 'infoVO': {'disputeContent': '2018年125日下午，张兵在小区溜狗时，因未牵狗绳导致其宠物狗咬伤王刚女儿王小美的小腿，王刚看到女儿被狗咬伤后，将张兵所饲养的宠物狗踹伤。王刚要求张兵赔德王小美的全部医疗费，且王小美受到了惊吓，要求张兵承担相应的精神损失费张兵认为王刚在米经自己允许的情况下擅自打伤其爱狗，爱狗为名贵品种张兵应当反过来赔偿自己的损长。', 'mediateDate': '2018-01-25', 'protocolContent': '一，张兵赔德王刚女儿王小美被狗咬伤后治疗的全部医药费，并对受到惊吓的张小美进行安抚和道歉二、王刚读担张兵所饲养的宠物狗被打伤后的全部治疗费用'}, 'mediatorId': '105002J1960043', 'respondentList': [{'age': 39, 'birthday': None, 'companyAddress': None, 'companyLeader': None, 'companyName': None, 'companyPhone': None, 'imgUrl': None, 'job': None, 'legalRepresentative': None, 'nation': 1, 'nationStr': '汉族', 'partyAddress': '北京市月光小区21栋304室', 'partyIDNumber': None, 'partyIDType': None, 'partyId': '91e5935fad25468f9ffae4a69a921712', 'partyName': '张兵', 'partyNum': 1, 'partyPhone': '18052063223', 'partyType': '01', 'representativePhone': None, 'sex': 1, 'sexStr': '男性', 'type': 2}]}}</t>
@@ -1679,16 +1670,16 @@
     <t>{'code': 200, 'data': '0440105018000620180119', 'msg': '成功', 'pager': None}</t>
   </si>
   <si>
-    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:52:43 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t>0.21876</t>
+    <t>{'Server': 'nginx/1.10.3', 'Date': 'Thu, 27 Dec 2018 05:57:05 GMT', 'Content-Type': 'application/json;charset=UTF-8', 'Transfer-Encoding': 'chunked', 'Connection': 'keep-alive'}</t>
+  </si>
+  <si>
+    <t>0.163398</t>
   </si>
   <si>
     <t>{'caseId': '0440105018000620180119'}</t>
   </si>
   <si>
-    <t>0.16706</t>
+    <t>0.134469</t>
   </si>
 </sst>
 </file>
@@ -2098,13 +2089,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -2119,10 +2110,10 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" t="s">
         <v>173</v>
-      </c>
-      <c r="J2" t="s">
-        <v>174</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
@@ -2131,31 +2122,31 @@
         <v>36</v>
       </c>
       <c r="M2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>175</v>
       </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>176</v>
       </c>
-      <c r="P2" t="s">
-        <v>177</v>
-      </c>
       <c r="Q2" t="s">
+        <v>419</v>
+      </c>
+      <c r="R2" t="s">
+        <v>420</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" t="s">
         <v>421</v>
-      </c>
-      <c r="R2" t="s">
-        <v>422</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" t="s">
-        <v>180</v>
-      </c>
-      <c r="U2" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2244,13 +2235,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" t="s">
         <v>424</v>
-      </c>
-      <c r="D2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E2" t="s">
-        <v>426</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -2262,10 +2253,10 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
@@ -2274,28 +2265,28 @@
         <v>36</v>
       </c>
       <c r="M2" t="s">
+        <v>427</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P2" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" t="s">
         <v>430</v>
-      </c>
-      <c r="P2" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>431</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>180</v>
-      </c>
-      <c r="T2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2303,13 +2294,13 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" t="s">
         <v>433</v>
-      </c>
-      <c r="D3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E3" t="s">
-        <v>435</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -2321,10 +2312,10 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
@@ -2333,28 +2324,28 @@
         <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N3" t="s">
         <v>29</v>
       </c>
       <c r="O3" t="s">
+        <v>436</v>
+      </c>
+      <c r="P3" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q3" t="s">
         <v>438</v>
       </c>
-      <c r="P3" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" t="s">
         <v>439</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
-        <v>180</v>
-      </c>
-      <c r="T3" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2362,13 +2353,13 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" t="s">
         <v>441</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>442</v>
-      </c>
-      <c r="E4" t="s">
-        <v>443</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -2380,10 +2371,10 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" t="s">
         <v>444</v>
-      </c>
-      <c r="J4" t="s">
-        <v>445</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
@@ -2392,19 +2383,19 @@
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
       </c>
       <c r="O4" t="s">
+        <v>445</v>
+      </c>
+      <c r="P4" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q4" t="s">
         <v>446</v>
-      </c>
-      <c r="P4" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>448</v>
       </c>
       <c r="R4" t="s">
         <v>40</v>
@@ -2502,13 +2493,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
         <v>449</v>
-      </c>
-      <c r="D2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E2" t="s">
-        <v>451</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -2520,31 +2511,31 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>452</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q2" t="s">
         <v>453</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>236</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>454</v>
-      </c>
-      <c r="P2" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>455</v>
       </c>
       <c r="R2" t="s">
         <v>40</v>
@@ -2558,13 +2549,13 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -2576,17 +2567,17 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" t="s">
         <v>249</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
         <v>250</v>
       </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>251</v>
-      </c>
       <c r="M3" t="s">
         <v>29</v>
       </c>
@@ -2594,13 +2585,13 @@
         <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P3" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="Q3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R3" t="s">
         <v>40</v>
@@ -2614,10 +2605,10 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E4" t="s">
         <v>63</v>
@@ -2632,10 +2623,10 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
@@ -2653,10 +2644,10 @@
         <v>68</v>
       </c>
       <c r="P4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="R4" t="s">
         <v>40</v>
@@ -2670,10 +2661,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
@@ -2688,10 +2679,10 @@
         <v>26</v>
       </c>
       <c r="I5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" t="s">
         <v>200</v>
-      </c>
-      <c r="J5" t="s">
-        <v>201</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
@@ -2706,13 +2697,13 @@
         <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="R5" t="s">
         <v>40</v>
@@ -2726,10 +2717,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E6" t="s">
         <v>63</v>
@@ -2744,10 +2735,10 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -2762,13 +2753,13 @@
         <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R6" t="s">
         <v>40</v>
@@ -2782,10 +2773,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
@@ -2800,10 +2791,10 @@
         <v>26</v>
       </c>
       <c r="I7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" t="s">
         <v>215</v>
-      </c>
-      <c r="J7" t="s">
-        <v>216</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
@@ -2818,13 +2809,13 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q7" t="s">
         <v>475</v>
-      </c>
-      <c r="P7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>477</v>
       </c>
       <c r="R7" t="s">
         <v>40</v>
@@ -2838,13 +2829,13 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -2856,17 +2847,17 @@
         <v>26</v>
       </c>
       <c r="I8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
         <v>234</v>
       </c>
-      <c r="J8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>236</v>
-      </c>
       <c r="M8" t="s">
         <v>29</v>
       </c>
@@ -2874,13 +2865,13 @@
         <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="R8" t="s">
         <v>40</v>
@@ -2894,10 +2885,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
@@ -2912,10 +2903,10 @@
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K9" t="s">
         <v>29</v>
@@ -2930,16 +2921,16 @@
         <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="R9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S9" t="s">
         <v>40</v>
@@ -2953,13 +2944,13 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -2971,17 +2962,17 @@
         <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" t="s">
+        <v>330</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
         <v>331</v>
       </c>
-      <c r="J10" t="s">
-        <v>332</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>333</v>
-      </c>
       <c r="M10" t="s">
         <v>29</v>
       </c>
@@ -2989,13 +2980,13 @@
         <v>29</v>
       </c>
       <c r="O10" t="s">
+        <v>487</v>
+      </c>
+      <c r="P10" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q10" t="s">
         <v>489</v>
-      </c>
-      <c r="P10" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>491</v>
       </c>
       <c r="R10" t="s">
         <v>40</v>
@@ -3009,10 +3000,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
@@ -3027,10 +3018,10 @@
         <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K11" t="s">
         <v>29</v>
@@ -3045,13 +3036,13 @@
         <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Q11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R11" t="s">
         <v>40</v>
@@ -3065,10 +3056,10 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E12" t="s">
         <v>63</v>
@@ -3083,10 +3074,10 @@
         <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K12" t="s">
         <v>29</v>
@@ -3101,13 +3092,13 @@
         <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Q12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -3121,13 +3112,13 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -3139,16 +3130,16 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
+        <v>353</v>
+      </c>
+      <c r="J13" t="s">
         <v>354</v>
       </c>
-      <c r="J13" t="s">
-        <v>355</v>
-      </c>
       <c r="K13" t="s">
         <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M13" t="s">
         <v>29</v>
@@ -3157,13 +3148,13 @@
         <v>29</v>
       </c>
       <c r="O13" t="s">
+        <v>500</v>
+      </c>
+      <c r="P13" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q13" t="s">
         <v>502</v>
-      </c>
-      <c r="P13" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>504</v>
       </c>
       <c r="R13" t="s">
         <v>40</v>
@@ -3258,10 +3249,10 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -3276,10 +3267,10 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
@@ -3294,13 +3285,13 @@
         <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="R2" t="s">
         <v>40</v>
@@ -3317,7 +3308,7 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -3329,10 +3320,10 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
@@ -3352,7 +3343,7 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -3364,10 +3355,10 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
@@ -3468,10 +3459,10 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -3486,31 +3477,31 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J2" t="s">
+        <v>518</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>519</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q2" t="s">
         <v>520</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>521</v>
-      </c>
-      <c r="P2" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>523</v>
       </c>
       <c r="R2" t="s">
         <v>40</v>
@@ -3524,13 +3515,13 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" t="s">
         <v>376</v>
-      </c>
-      <c r="C3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" t="s">
-        <v>378</v>
       </c>
       <c r="E3" t="s">
         <v>63</v>
@@ -3545,34 +3536,34 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>379</v>
       </c>
-      <c r="J3" t="s">
-        <v>380</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>381</v>
-      </c>
       <c r="P3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Q3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="R3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="S3" t="s">
         <v>40</v>
@@ -3586,16 +3577,16 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" t="s">
         <v>385</v>
-      </c>
-      <c r="D4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4" t="s">
-        <v>387</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -3607,16 +3598,16 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
@@ -3625,16 +3616,16 @@
         <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="R4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="S4" t="s">
         <v>40</v>
@@ -3648,13 +3639,13 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
@@ -3669,16 +3660,16 @@
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
@@ -3687,16 +3678,16 @@
         <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Q5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="R5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="S5" t="s">
         <v>40</v>
@@ -3710,16 +3701,16 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -3731,16 +3722,16 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
@@ -3749,16 +3740,16 @@
         <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="R6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="S6" t="s">
         <v>40</v>
@@ -3772,13 +3763,13 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
@@ -3793,16 +3784,16 @@
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M7" t="s">
         <v>29</v>
@@ -3811,16 +3802,16 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="R7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="S7" t="s">
         <v>40</v>
@@ -3834,10 +3825,10 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" t="s">
         <v>306</v>
-      </c>
-      <c r="D8" t="s">
-        <v>308</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
@@ -3852,34 +3843,34 @@
         <v>26</v>
       </c>
       <c r="I8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J8" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>293</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
         <v>310</v>
       </c>
-      <c r="J8" t="s">
-        <v>311</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>295</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" t="s">
-        <v>312</v>
-      </c>
       <c r="P8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="R8" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="S8" t="s">
         <v>40</v>
@@ -3896,7 +3887,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
@@ -3911,16 +3902,16 @@
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K9" t="s">
         <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
@@ -3929,13 +3920,13 @@
         <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R9" t="s">
         <v>40</v>
@@ -3949,11 +3940,11 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s"/>
       <c r="D10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -3968,17 +3959,17 @@
         <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>291</v>
+      </c>
+      <c r="J10" t="s">
+        <v>292</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
         <v>293</v>
       </c>
-      <c r="J10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>295</v>
-      </c>
       <c r="M10" t="s">
         <v>29</v>
       </c>
@@ -3986,13 +3977,13 @@
         <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="P10" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q10" t="s">
         <v>542</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>545</v>
       </c>
       <c r="R10" t="s">
         <v>40</v>
@@ -4454,10 +4445,10 @@
         <v>68</v>
       </c>
       <c r="Q8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s">
         <v>40</v>
@@ -4471,10 +4462,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>63</v>
@@ -4492,10 +4483,10 @@
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
         <v>29</v>
@@ -4510,13 +4501,13 @@
         <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
         <v>83</v>
@@ -4653,10 +4644,10 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
         <v>40</v>
@@ -4673,7 +4664,7 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
         <v>63</v>
@@ -4688,10 +4679,10 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>67</v>
@@ -4706,13 +4697,13 @@
         <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R3" t="s">
         <v>40</v>
@@ -4729,7 +4720,7 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
         <v>63</v>
@@ -4744,10 +4735,10 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
         <v>67</v>
@@ -4762,10 +4753,10 @@
         <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
         <v>98</v>
@@ -4932,7 +4923,7 @@
         <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s">
         <v>113</v>
@@ -5195,10 +5186,10 @@
         <v>134</v>
       </c>
       <c r="P2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" t="s">
         <v>135</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>136</v>
       </c>
       <c r="R2" t="s">
         <v>40</v>
@@ -5212,10 +5203,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>131</v>
@@ -5230,10 +5221,10 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
         <v>139</v>
-      </c>
-      <c r="J3" t="s">
-        <v>140</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
@@ -5251,7 +5242,7 @@
         <v>134</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q3" t="s">
         <v>141</v>
@@ -5307,10 +5298,10 @@
         <v>146</v>
       </c>
       <c r="P4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" t="s">
         <v>147</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>148</v>
       </c>
       <c r="R4" t="s">
         <v>40</v>
@@ -5324,7 +5315,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -5342,10 +5333,10 @@
         <v>26</v>
       </c>
       <c r="I5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" t="s">
         <v>150</v>
-      </c>
-      <c r="J5" t="s">
-        <v>151</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
@@ -5360,13 +5351,13 @@
         <v>29</v>
       </c>
       <c r="O5" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" t="s">
         <v>152</v>
-      </c>
-      <c r="P5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>153</v>
       </c>
       <c r="R5" t="s">
         <v>40</v>
@@ -5380,10 +5371,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
         <v>154</v>
-      </c>
-      <c r="D6" t="s">
-        <v>155</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
@@ -5398,10 +5389,10 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" t="s">
         <v>156</v>
-      </c>
-      <c r="J6" t="s">
-        <v>157</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -5416,10 +5407,10 @@
         <v>29</v>
       </c>
       <c r="O6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" t="s">
         <v>158</v>
-      </c>
-      <c r="P6" t="s">
-        <v>147</v>
       </c>
       <c r="Q6" t="s">
         <v>159</v>
@@ -5475,10 +5466,10 @@
         <v>164</v>
       </c>
       <c r="P7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>166</v>
       </c>
       <c r="R7" t="s">
         <v>40</v>
@@ -5508,10 +5499,10 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5576,22 +5567,22 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>170</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
         <v>171</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>172</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -5603,10 +5594,10 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" t="s">
         <v>173</v>
-      </c>
-      <c r="L2" t="s">
-        <v>174</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -5615,36 +5606,36 @@
         <v>36</v>
       </c>
       <c r="O2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" t="s">
         <v>175</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>176</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>177</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>178</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
         <v>179</v>
       </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>180</v>
-      </c>
-      <c r="V2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
         <v>182</v>
-      </c>
-      <c r="B3" t="s">
-        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
@@ -5653,10 +5644,10 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -5686,7 +5677,7 @@
         <v>68</v>
       </c>
       <c r="Q3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="R3" t="s">
         <v>185</v>
@@ -5703,7 +5694,7 @@
         <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -5745,7 +5736,7 @@
         <v>188</v>
       </c>
       <c r="Q4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="R4" t="s">
         <v>189</v>
@@ -5762,7 +5753,7 @@
         <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -5804,10 +5795,10 @@
         <v>193</v>
       </c>
       <c r="Q5" t="s">
+        <v>184</v>
+      </c>
+      <c r="R5" t="s">
         <v>194</v>
-      </c>
-      <c r="R5" t="s">
-        <v>195</v>
       </c>
       <c r="S5" t="s">
         <v>40</v>
@@ -5818,22 +5809,22 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
         <v>196</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>197</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>198</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>199</v>
-      </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -5845,10 +5836,10 @@
         <v>26</v>
       </c>
       <c r="K6" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" t="s">
         <v>200</v>
-      </c>
-      <c r="L6" t="s">
-        <v>201</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
@@ -5860,13 +5851,13 @@
         <v>29</v>
       </c>
       <c r="P6" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>184</v>
+      </c>
+      <c r="R6" t="s">
         <v>202</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>194</v>
-      </c>
-      <c r="R6" t="s">
-        <v>203</v>
       </c>
       <c r="S6" t="s">
         <v>40</v>
@@ -5877,10 +5868,10 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
         <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
@@ -5892,7 +5883,7 @@
         <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -5919,16 +5910,16 @@
         <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q7" t="s">
+        <v>206</v>
+      </c>
+      <c r="R7" t="s">
         <v>207</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>208</v>
-      </c>
-      <c r="S7" t="s">
-        <v>209</v>
       </c>
       <c r="T7" t="s">
         <v>40</v>
@@ -5939,22 +5930,22 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
         <v>210</v>
       </c>
-      <c r="B8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>211</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>212</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>213</v>
-      </c>
-      <c r="G8" t="s">
-        <v>214</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -5966,10 +5957,10 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
+        <v>214</v>
+      </c>
+      <c r="L8" t="s">
         <v>215</v>
-      </c>
-      <c r="L8" t="s">
-        <v>216</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
@@ -5981,13 +5972,13 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>207</v>
+      </c>
+      <c r="R8" t="s">
         <v>217</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>208</v>
-      </c>
-      <c r="R8" t="s">
-        <v>218</v>
       </c>
       <c r="S8" t="s">
         <v>40</v>
@@ -5998,10 +5989,10 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -6013,7 +6004,7 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -6040,16 +6031,16 @@
         <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
+        <v>219</v>
+      </c>
+      <c r="R9" t="s">
         <v>220</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>221</v>
-      </c>
-      <c r="S9" t="s">
-        <v>222</v>
       </c>
       <c r="T9" t="s">
         <v>40</v>
@@ -6060,22 +6051,22 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" t="s">
         <v>223</v>
       </c>
-      <c r="B10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>224</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>225</v>
-      </c>
-      <c r="G10" t="s">
-        <v>226</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -6087,10 +6078,10 @@
         <v>26</v>
       </c>
       <c r="K10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" t="s">
         <v>215</v>
-      </c>
-      <c r="L10" t="s">
-        <v>216</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -6102,13 +6093,13 @@
         <v>29</v>
       </c>
       <c r="P10" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>220</v>
+      </c>
+      <c r="R10" t="s">
         <v>227</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>228</v>
-      </c>
-      <c r="R10" t="s">
-        <v>229</v>
       </c>
       <c r="S10" t="s">
         <v>40</v>
@@ -6119,22 +6110,22 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
         <v>230</v>
       </c>
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>231</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" t="s">
-        <v>233</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
@@ -6146,28 +6137,28 @@
         <v>26</v>
       </c>
       <c r="K11" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
         <v>234</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" t="s">
         <v>235</v>
       </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="R11" t="s">
         <v>236</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>228</v>
-      </c>
-      <c r="R11" t="s">
-        <v>237</v>
       </c>
       <c r="S11" t="s">
         <v>40</v>
@@ -6178,22 +6169,22 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" t="s">
         <v>238</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
         <v>239</v>
       </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>240</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>241</v>
-      </c>
-      <c r="G12" t="s">
-        <v>242</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -6205,10 +6196,10 @@
         <v>26</v>
       </c>
       <c r="K12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s">
         <v>156</v>
-      </c>
-      <c r="L12" t="s">
-        <v>157</v>
       </c>
       <c r="M12" t="s">
         <v>29</v>
@@ -6220,13 +6211,13 @@
         <v>29</v>
       </c>
       <c r="P12" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>235</v>
+      </c>
+      <c r="R12" t="s">
         <v>243</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>228</v>
-      </c>
-      <c r="R12" t="s">
-        <v>244</v>
       </c>
       <c r="S12" t="s">
         <v>40</v>
@@ -6237,22 +6228,22 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
         <v>245</v>
       </c>
-      <c r="B13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
         <v>246</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>247</v>
-      </c>
-      <c r="G13" t="s">
-        <v>248</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
@@ -6264,28 +6255,28 @@
         <v>26</v>
       </c>
       <c r="K13" t="s">
+        <v>248</v>
+      </c>
+      <c r="L13" t="s">
         <v>249</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" t="s">
         <v>250</v>
       </c>
-      <c r="M13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
         <v>251</v>
       </c>
-      <c r="O13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
+        <v>235</v>
+      </c>
+      <c r="R13" t="s">
         <v>252</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>253</v>
-      </c>
-      <c r="R13" t="s">
-        <v>254</v>
       </c>
       <c r="S13" t="s">
         <v>40</v>
@@ -6315,10 +6306,10 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6383,22 +6374,22 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -6410,10 +6401,10 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" t="s">
         <v>200</v>
-      </c>
-      <c r="L2" t="s">
-        <v>201</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -6425,13 +6416,13 @@
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="R2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S2" t="s">
         <v>40</v>
@@ -6442,10 +6433,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -6457,7 +6448,7 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -6484,16 +6475,16 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
+        <v>256</v>
+      </c>
+      <c r="R3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S3" t="s">
         <v>258</v>
-      </c>
-      <c r="R3" t="s">
-        <v>259</v>
-      </c>
-      <c r="S3" t="s">
-        <v>260</v>
       </c>
       <c r="T3" t="s">
         <v>40</v>
@@ -6507,19 +6498,19 @@
         <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -6531,10 +6522,10 @@
         <v>26</v>
       </c>
       <c r="K4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" t="s">
         <v>215</v>
-      </c>
-      <c r="L4" t="s">
-        <v>216</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
@@ -6546,13 +6537,13 @@
         <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="R4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S4" t="s">
         <v>40</v>
@@ -6566,7 +6557,7 @@
         <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -6578,7 +6569,7 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
@@ -6605,16 +6596,16 @@
         <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q5" t="s">
+        <v>262</v>
+      </c>
+      <c r="R5" t="s">
+        <v>263</v>
+      </c>
+      <c r="S5" t="s">
         <v>264</v>
-      </c>
-      <c r="R5" t="s">
-        <v>265</v>
-      </c>
-      <c r="S5" t="s">
-        <v>266</v>
       </c>
       <c r="T5" t="s">
         <v>40</v>
@@ -6625,22 +6616,22 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
         <v>196</v>
       </c>
-      <c r="B6" t="s">
-        <v>197</v>
-      </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -6652,10 +6643,10 @@
         <v>26</v>
       </c>
       <c r="K6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" t="s">
         <v>215</v>
-      </c>
-      <c r="L6" t="s">
-        <v>216</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
@@ -6667,13 +6658,13 @@
         <v>29</v>
       </c>
       <c r="P6" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>267</v>
+      </c>
+      <c r="R6" t="s">
         <v>268</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>265</v>
-      </c>
-      <c r="R6" t="s">
-        <v>269</v>
       </c>
       <c r="S6" t="s">
         <v>40</v>
@@ -6684,22 +6675,22 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
       <c r="F7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" t="s">
         <v>270</v>
-      </c>
-      <c r="G7" t="s">
-        <v>271</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -6711,28 +6702,28 @@
         <v>26</v>
       </c>
       <c r="K7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
         <v>234</v>
       </c>
-      <c r="L7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>236</v>
-      </c>
       <c r="O7" t="s">
         <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="R7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S7" t="s">
         <v>40</v>
@@ -6743,22 +6734,22 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -6770,10 +6761,10 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" t="s">
         <v>156</v>
-      </c>
-      <c r="L8" t="s">
-        <v>157</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
@@ -6785,13 +6776,13 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="R8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S8" t="s">
         <v>40</v>
@@ -6802,22 +6793,22 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -6829,28 +6820,28 @@
         <v>26</v>
       </c>
       <c r="K9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L9" t="s">
         <v>249</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
         <v>250</v>
       </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>251</v>
-      </c>
       <c r="O9" t="s">
         <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="R9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S9" t="s">
         <v>40</v>
@@ -6861,19 +6852,19 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G10" t="s">
         <v>131</v>
@@ -6888,10 +6879,10 @@
         <v>26</v>
       </c>
       <c r="K10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s">
         <v>139</v>
-      </c>
-      <c r="L10" t="s">
-        <v>140</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -6906,10 +6897,10 @@
         <v>134</v>
       </c>
       <c r="Q10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S10" t="s">
         <v>40</v>
@@ -6920,22 +6911,22 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" t="s">
         <v>285</v>
-      </c>
-      <c r="F11" t="s">
-        <v>286</v>
-      </c>
-      <c r="G11" t="s">
-        <v>287</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
@@ -6947,10 +6938,10 @@
         <v>26</v>
       </c>
       <c r="K11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" t="s">
         <v>156</v>
-      </c>
-      <c r="L11" t="s">
-        <v>157</v>
       </c>
       <c r="M11" t="s">
         <v>29</v>
@@ -6962,13 +6953,13 @@
         <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S11" t="s">
         <v>40</v>
@@ -6979,22 +6970,22 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" t="s">
         <v>290</v>
-      </c>
-      <c r="C12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G12" t="s">
-        <v>292</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -7006,28 +6997,28 @@
         <v>26</v>
       </c>
       <c r="K12" t="s">
+        <v>291</v>
+      </c>
+      <c r="L12" t="s">
+        <v>292</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
         <v>293</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
         <v>294</v>
       </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
+        <v>281</v>
+      </c>
+      <c r="R12" t="s">
         <v>295</v>
-      </c>
-      <c r="O12" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>283</v>
-      </c>
-      <c r="R12" t="s">
-        <v>297</v>
       </c>
       <c r="S12" t="s">
         <v>40</v>
@@ -7038,10 +7029,10 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
         <v>129</v>
@@ -7050,7 +7041,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G13" t="s">
         <v>131</v>
@@ -7083,10 +7074,10 @@
         <v>134</v>
       </c>
       <c r="Q13" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="R13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S13" t="s">
         <v>40</v>
@@ -7097,22 +7088,22 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
         <v>300</v>
       </c>
-      <c r="B14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" t="s">
         <v>301</v>
-      </c>
-      <c r="F14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" t="s">
-        <v>302</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
@@ -7124,10 +7115,10 @@
         <v>26</v>
       </c>
       <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
         <v>156</v>
-      </c>
-      <c r="L14" t="s">
-        <v>157</v>
       </c>
       <c r="M14" t="s">
         <v>29</v>
@@ -7139,13 +7130,13 @@
         <v>29</v>
       </c>
       <c r="P14" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>297</v>
+      </c>
+      <c r="R14" t="s">
         <v>303</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>304</v>
-      </c>
-      <c r="R14" t="s">
-        <v>305</v>
       </c>
       <c r="S14" t="s">
         <v>40</v>
@@ -7175,10 +7166,10 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7243,22 +7234,22 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" t="s">
         <v>306</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>307</v>
-      </c>
-      <c r="F2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G2" t="s">
-        <v>309</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -7270,31 +7261,31 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L2" t="s">
+        <v>309</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>310</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>311</v>
       </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>295</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>312</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>313</v>
-      </c>
-      <c r="R2" t="s">
-        <v>314</v>
-      </c>
-      <c r="S2" t="s">
-        <v>315</v>
       </c>
       <c r="T2" t="s">
         <v>40</v>
@@ -7305,22 +7296,22 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" t="s">
         <v>316</v>
-      </c>
-      <c r="F3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" t="s">
-        <v>318</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -7332,28 +7323,28 @@
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M3" t="s">
         <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
       </c>
       <c r="P3" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>320</v>
+      </c>
+      <c r="R3" t="s">
         <v>321</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>322</v>
-      </c>
-      <c r="R3" t="s">
-        <v>323</v>
       </c>
       <c r="S3" t="s">
         <v>40</v>
@@ -7367,19 +7358,19 @@
         <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -7391,10 +7382,10 @@
         <v>26</v>
       </c>
       <c r="K4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" t="s">
         <v>156</v>
-      </c>
-      <c r="L4" t="s">
-        <v>157</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
@@ -7406,13 +7397,13 @@
         <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="R4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S4" t="s">
         <v>40</v>
@@ -7442,10 +7433,10 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7510,22 +7501,22 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" t="s">
         <v>328</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G2" t="s">
-        <v>330</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -7537,28 +7528,28 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
         <v>331</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>332</v>
       </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R2" t="s">
         <v>333</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>322</v>
-      </c>
-      <c r="R2" t="s">
-        <v>335</v>
       </c>
       <c r="S2" t="s">
         <v>40</v>
@@ -7569,10 +7560,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -7584,7 +7575,7 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -7611,16 +7602,16 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
+        <v>334</v>
+      </c>
+      <c r="R3" t="s">
+        <v>335</v>
+      </c>
+      <c r="S3" t="s">
         <v>336</v>
-      </c>
-      <c r="R3" t="s">
-        <v>337</v>
-      </c>
-      <c r="S3" t="s">
-        <v>338</v>
       </c>
       <c r="T3" t="s">
         <v>40</v>
@@ -7634,19 +7625,19 @@
         <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -7658,10 +7649,10 @@
         <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
@@ -7673,13 +7664,13 @@
         <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S4" t="s">
         <v>40</v>
@@ -7693,7 +7684,7 @@
         <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -7705,7 +7696,7 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
@@ -7732,16 +7723,16 @@
         <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q5" t="s">
+        <v>343</v>
+      </c>
+      <c r="R5" t="s">
+        <v>344</v>
+      </c>
+      <c r="S5" t="s">
         <v>345</v>
-      </c>
-      <c r="R5" t="s">
-        <v>346</v>
-      </c>
-      <c r="S5" t="s">
-        <v>347</v>
       </c>
       <c r="T5" t="s">
         <v>40</v>
@@ -7752,22 +7743,22 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
         <v>196</v>
       </c>
-      <c r="B6" t="s">
-        <v>197</v>
-      </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -7779,10 +7770,10 @@
         <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
@@ -7794,13 +7785,13 @@
         <v>29</v>
       </c>
       <c r="P6" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>348</v>
+      </c>
+      <c r="R6" t="s">
         <v>349</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>346</v>
-      </c>
-      <c r="R6" t="s">
-        <v>350</v>
       </c>
       <c r="S6" t="s">
         <v>40</v>
@@ -7811,22 +7802,22 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>351</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>352</v>
-      </c>
-      <c r="G7" t="s">
-        <v>353</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -7838,28 +7829,28 @@
         <v>26</v>
       </c>
       <c r="K7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L7" t="s">
         <v>354</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>331</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>348</v>
+      </c>
+      <c r="R7" t="s">
         <v>355</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>333</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>356</v>
-      </c>
-      <c r="R7" t="s">
-        <v>357</v>
       </c>
       <c r="S7" t="s">
         <v>40</v>
@@ -7870,22 +7861,22 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -7897,10 +7888,10 @@
         <v>26</v>
       </c>
       <c r="K8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" t="s">
         <v>156</v>
-      </c>
-      <c r="L8" t="s">
-        <v>157</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
@@ -7912,13 +7903,13 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q8" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="R8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="S8" t="s">
         <v>40</v>
@@ -7929,22 +7920,22 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -7956,28 +7947,28 @@
         <v>26</v>
       </c>
       <c r="K9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L9" t="s">
         <v>249</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
         <v>250</v>
       </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>251</v>
-      </c>
       <c r="O9" t="s">
         <v>29</v>
       </c>
       <c r="P9" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>363</v>
+      </c>
+      <c r="R9" t="s">
         <v>364</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>356</v>
-      </c>
-      <c r="R9" t="s">
-        <v>365</v>
       </c>
       <c r="S9" t="s">
         <v>40</v>
@@ -7988,19 +7979,19 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G10" t="s">
         <v>131</v>
@@ -8015,10 +8006,10 @@
         <v>26</v>
       </c>
       <c r="K10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s">
         <v>139</v>
-      </c>
-      <c r="L10" t="s">
-        <v>140</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -8033,10 +8024,10 @@
         <v>134</v>
       </c>
       <c r="Q10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S10" t="s">
         <v>40</v>
@@ -8047,22 +8038,22 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
@@ -8074,10 +8065,10 @@
         <v>26</v>
       </c>
       <c r="K11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" t="s">
         <v>156</v>
-      </c>
-      <c r="L11" t="s">
-        <v>157</v>
       </c>
       <c r="M11" t="s">
         <v>29</v>
@@ -8089,13 +8080,13 @@
         <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S11" t="s">
         <v>40</v>
@@ -8106,22 +8097,22 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -8133,28 +8124,28 @@
         <v>26</v>
       </c>
       <c r="K12" t="s">
+        <v>291</v>
+      </c>
+      <c r="L12" t="s">
+        <v>292</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
         <v>293</v>
       </c>
-      <c r="L12" t="s">
-        <v>294</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" t="s">
-        <v>295</v>
-      </c>
       <c r="O12" t="s">
         <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S12" t="s">
         <v>40</v>
@@ -8165,22 +8156,22 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
         <v>376</v>
-      </c>
-      <c r="D13" t="s">
-        <v>377</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>378</v>
       </c>
       <c r="G13" t="s">
         <v>63</v>
@@ -8195,31 +8186,31 @@
         <v>26</v>
       </c>
       <c r="K13" t="s">
+        <v>377</v>
+      </c>
+      <c r="L13" t="s">
+        <v>378</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" t="s">
+        <v>293</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
         <v>379</v>
       </c>
-      <c r="L13" t="s">
+      <c r="Q13" t="s">
         <v>380</v>
       </c>
-      <c r="M13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" t="s">
-        <v>295</v>
-      </c>
-      <c r="O13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>381</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>382</v>
-      </c>
-      <c r="R13" t="s">
-        <v>383</v>
-      </c>
-      <c r="S13" t="s">
-        <v>384</v>
       </c>
       <c r="T13" t="s">
         <v>40</v>
@@ -8230,25 +8221,25 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" t="s">
         <v>385</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>386</v>
-      </c>
-      <c r="G14" t="s">
-        <v>387</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
@@ -8260,31 +8251,31 @@
         <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M14" t="s">
         <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O14" t="s">
         <v>29</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q14" t="s">
+        <v>386</v>
+      </c>
+      <c r="R14" t="s">
+        <v>387</v>
+      </c>
+      <c r="S14" t="s">
         <v>388</v>
-      </c>
-      <c r="R14" t="s">
-        <v>389</v>
-      </c>
-      <c r="S14" t="s">
-        <v>390</v>
       </c>
       <c r="T14" t="s">
         <v>40</v>
@@ -8295,22 +8286,22 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
         <v>391</v>
-      </c>
-      <c r="B15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D15" t="s">
-        <v>392</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>393</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -8325,31 +8316,31 @@
         <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M15" t="s">
         <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O15" t="s">
         <v>29</v>
       </c>
       <c r="P15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>393</v>
+      </c>
+      <c r="R15" t="s">
         <v>394</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>395</v>
-      </c>
-      <c r="R15" t="s">
-        <v>396</v>
-      </c>
-      <c r="S15" t="s">
-        <v>397</v>
       </c>
       <c r="T15" t="s">
         <v>40</v>
@@ -8360,25 +8351,25 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>398</v>
       </c>
-      <c r="B16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D16" t="s">
-        <v>399</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>400</v>
-      </c>
       <c r="G16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H16" t="s">
         <v>24</v>
@@ -8390,31 +8381,31 @@
         <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M16" t="s">
         <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O16" t="s">
         <v>29</v>
       </c>
       <c r="P16" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>386</v>
+      </c>
+      <c r="R16" t="s">
+        <v>400</v>
+      </c>
+      <c r="S16" t="s">
         <v>401</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>388</v>
-      </c>
-      <c r="R16" t="s">
-        <v>402</v>
-      </c>
-      <c r="S16" t="s">
-        <v>403</v>
       </c>
       <c r="T16" t="s">
         <v>40</v>
@@ -8425,22 +8416,22 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>404</v>
-      </c>
-      <c r="B17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C17" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" t="s">
-        <v>405</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>406</v>
       </c>
       <c r="G17" t="s">
         <v>63</v>
@@ -8455,31 +8446,31 @@
         <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M17" t="s">
         <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O17" t="s">
         <v>29</v>
       </c>
       <c r="P17" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>406</v>
+      </c>
+      <c r="R17" t="s">
         <v>407</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>408</v>
-      </c>
-      <c r="R17" t="s">
-        <v>409</v>
-      </c>
-      <c r="S17" t="s">
-        <v>410</v>
       </c>
       <c r="T17" t="s">
         <v>40</v>
@@ -8490,10 +8481,10 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
         <v>129</v>
@@ -8502,7 +8493,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G18" t="s">
         <v>131</v>
@@ -8535,10 +8526,10 @@
         <v>134</v>
       </c>
       <c r="Q18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="S18" t="s">
         <v>40</v>
@@ -8549,22 +8540,22 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" t="s">
         <v>414</v>
-      </c>
-      <c r="B19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" t="s">
-        <v>286</v>
-      </c>
-      <c r="G19" t="s">
-        <v>416</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
@@ -8576,10 +8567,10 @@
         <v>26</v>
       </c>
       <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
         <v>156</v>
-      </c>
-      <c r="L19" t="s">
-        <v>157</v>
       </c>
       <c r="M19" t="s">
         <v>29</v>
@@ -8591,13 +8582,13 @@
         <v>29</v>
       </c>
       <c r="P19" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>416</v>
+      </c>
+      <c r="R19" t="s">
         <v>417</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>418</v>
-      </c>
-      <c r="R19" t="s">
-        <v>419</v>
       </c>
       <c r="S19" t="s">
         <v>40</v>
